--- a/resultados/baseNowcasting.xlsx
+++ b/resultados/baseNowcasting.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,16 +417,40 @@
           <t>imae_com_car_Mensual_VariacionAnual</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>imae_com_imp_vl_Mensual_VariacionAnual</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ipc1_viv_Mensual_VariacionAnual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ipc1_trp_Mensual_VariacionAnual</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>37987</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06189704368987684</v>
+        <v>0.0618970436898769</v>
       </c>
       <c r="C2" t="n">
         <v>0.1500441808689044</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1694217998438104</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0777091308909522</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09899837758790869</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +458,19 @@
         <v>38018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04998336295257326</v>
+        <v>0.04998336295257319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1381305001316008</v>
+        <v>0.1381305001316007</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1575081191065066</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06579545015364849</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08708469685060496</v>
       </c>
     </row>
     <row r="4">
@@ -445,10 +478,19 @@
         <v>38047</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113209152942161</v>
+        <v>0.1132091529421611</v>
       </c>
       <c r="C4" t="n">
         <v>0.2013562901211886</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2207339090960945</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1290212401432364</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1503104868401929</v>
       </c>
     </row>
     <row r="5">
@@ -456,10 +498,19 @@
         <v>38078</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08395213429824519</v>
+        <v>0.08395213429824522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1720992714772727</v>
+        <v>0.1720992714772728</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1914768904521787</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09976422149932052</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.121053468196277</v>
       </c>
     </row>
     <row r="6">
@@ -467,10 +518,19 @@
         <v>38108</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04869391067945175</v>
+        <v>0.04869391067945176</v>
       </c>
       <c r="C6" t="n">
         <v>0.1368410478584793</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1562186668333852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06450599788052705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08579524457748354</v>
       </c>
     </row>
     <row r="7">
@@ -478,10 +538,19 @@
         <v>38139</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09492101643563308</v>
+        <v>0.09492101643563294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1830681536146606</v>
+        <v>0.1830681536146605</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2024457725895664</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1107331036367082</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1320223503336647</v>
       </c>
     </row>
     <row r="8">
@@ -489,10 +558,19 @@
         <v>38169</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04488377675986727</v>
+        <v>0.04488377675986745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1330309139388948</v>
+        <v>0.133030913938895</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1524085329138009</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06069586396094274</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.08198511065789924</v>
       </c>
     </row>
     <row r="9">
@@ -500,10 +578,19 @@
         <v>38200</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07446689342749657</v>
+        <v>0.07446689342749674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1626140306065241</v>
+        <v>0.1626140306065243</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1819916495814302</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.09027898062857204</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1115682273255285</v>
       </c>
     </row>
     <row r="10">
@@ -511,10 +598,19 @@
         <v>38231</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08934504760766271</v>
+        <v>0.08934504760766268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1774921847866903</v>
+        <v>0.1774921847866902</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1968698037615961</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.105157134808738</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1264463815056945</v>
       </c>
     </row>
     <row r="11">
@@ -522,10 +618,19 @@
         <v>38261</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05206906321327964</v>
+        <v>0.05206906321327963</v>
       </c>
       <c r="C11" t="n">
         <v>0.1402162003923072</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1595938193672131</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06788115041435493</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08917039711131142</v>
       </c>
     </row>
     <row r="12">
@@ -533,10 +638,19 @@
         <v>38292</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05748351150669066</v>
+        <v>0.05748351150669086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1456306486857182</v>
+        <v>0.1456306486857184</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1650082676606243</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07329559870776615</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09458484540472265</v>
       </c>
     </row>
     <row r="13">
@@ -544,10 +658,19 @@
         <v>38322</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08632707145460138</v>
+        <v>0.08632707145460139</v>
       </c>
       <c r="C13" t="n">
         <v>0.1744742086336289</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1938518276085349</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1021391586556767</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1234284053526332</v>
       </c>
     </row>
     <row r="14">
@@ -555,10 +678,19 @@
         <v>38353</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08231704649014193</v>
+        <v>0.08231704649014192</v>
       </c>
       <c r="C14" t="n">
         <v>0.1704641836691695</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1898418026440754</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.09812913369121722</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1194183803881737</v>
       </c>
     </row>
     <row r="15">
@@ -571,16 +703,34 @@
       <c r="C15" t="n">
         <v>0.1634961982997921</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.182873817274698</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.09116114832183986</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1124503950187963</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>38412</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04977157983116663</v>
+        <v>0.04977157983116669</v>
       </c>
       <c r="C16" t="n">
         <v>0.1379187170101942</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1572963359851001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.06558366703224199</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08687291372919848</v>
       </c>
     </row>
     <row r="17">
@@ -588,10 +738,19 @@
         <v>38443</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07365519070759308</v>
+        <v>0.07365519070759305</v>
       </c>
       <c r="C17" t="n">
         <v>0.1618023278866206</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1811799468615265</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.08946727790866835</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1107565246056248</v>
       </c>
     </row>
     <row r="18">
@@ -604,16 +763,34 @@
       <c r="C18" t="n">
         <v>0.1738368183377069</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.1932144373126128</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1015017683597547</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1227910150567111</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>38504</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05037019360351035</v>
+        <v>0.05037019360351046</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1385173307825379</v>
+        <v>0.138517330782538</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1578949497574439</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.06618228080458576</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08747152750154225</v>
       </c>
     </row>
     <row r="20">
@@ -621,10 +798,19 @@
         <v>38534</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06014255950054042</v>
+        <v>0.06014255950054043</v>
       </c>
       <c r="C20" t="n">
         <v>0.148289696679568</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1676673156544739</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07595464670161572</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0972438933985722</v>
       </c>
     </row>
     <row r="21">
@@ -637,16 +823,34 @@
       <c r="C21" t="n">
         <v>0.1429879744743362</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.1623655934492421</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07065292449638394</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09194217119334042</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>38596</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07361806060391564</v>
+        <v>0.07361806060391565</v>
       </c>
       <c r="C22" t="n">
         <v>0.1617651977829432</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1811428167578491</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.08943014780499095</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1107193945019474</v>
       </c>
     </row>
     <row r="23">
@@ -654,10 +858,19 @@
         <v>38626</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04734462618201008</v>
+        <v>0.04734462618200989</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1354917633610376</v>
+        <v>0.1354917633610374</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1548693823359434</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.06315671338308519</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08444596008004168</v>
       </c>
     </row>
     <row r="24">
@@ -670,16 +883,34 @@
       <c r="C24" t="n">
         <v>0.1301800687459003</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.1495576877208062</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05784501876794808</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.07913426546490457</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>38687</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02149326369549164</v>
+        <v>0.0214932636954917</v>
       </c>
       <c r="C25" t="n">
         <v>0.1096404008745192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1290180198494252</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03730535089656699</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05859459759352348</v>
       </c>
     </row>
     <row r="26">
@@ -687,10 +918,19 @@
         <v>38718</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0729685196676768</v>
+        <v>0.07296851966767688</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1611156568467043</v>
+        <v>0.1611156568467044</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1804932758216103</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08878060686875218</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1100698535657087</v>
       </c>
     </row>
     <row r="27">
@@ -698,10 +938,19 @@
         <v>38749</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08025871844276167</v>
+        <v>0.08025871844276168</v>
       </c>
       <c r="C27" t="n">
         <v>0.1684058556217892</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1877834745966951</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.09607080564383698</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1173600523407935</v>
       </c>
     </row>
     <row r="28">
@@ -709,10 +958,19 @@
         <v>38777</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09336562692016656</v>
+        <v>0.09336562692016664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1815127640991941</v>
+        <v>0.1815127640991942</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2008903830741001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1091777141212419</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1304669608181984</v>
       </c>
     </row>
     <row r="29">
@@ -720,10 +978,19 @@
         <v>38808</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03548718734523428</v>
+        <v>0.03548718734523434</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1236343245242618</v>
+        <v>0.1236343245242619</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1430119434991678</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.05129927454630964</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.07258852124326612</v>
       </c>
     </row>
     <row r="30">
@@ -736,16 +1003,34 @@
       <c r="C30" t="n">
         <v>0.1737969859426104</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.1931746049175163</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1014619359646582</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1227511826616146</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>38869</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1010963940153165</v>
+        <v>0.1010963940153166</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189243531194344</v>
+        <v>0.1892435311943441</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.20862115016925</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1169084812163919</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1381977279133483</v>
       </c>
     </row>
     <row r="32">
@@ -753,10 +1038,19 @@
         <v>38899</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06992510397749686</v>
+        <v>0.06992510397749691</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1580722411565244</v>
+        <v>0.1580722411565245</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1774498601314304</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0857371911785722</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1070264378755287</v>
       </c>
     </row>
     <row r="33">
@@ -764,10 +1058,19 @@
         <v>38930</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0966436210684971</v>
+        <v>0.09664362106849705</v>
       </c>
       <c r="C33" t="n">
         <v>0.1847907582475246</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2041683772224305</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1124557082695724</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1337449549665288</v>
       </c>
     </row>
     <row r="34">
@@ -775,10 +1078,19 @@
         <v>38961</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07011203561422952</v>
+        <v>0.07011203561422946</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1582591727932571</v>
+        <v>0.158259172793257</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1776367917681629</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.08592412281530476</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1072133695122612</v>
       </c>
     </row>
     <row r="35">
@@ -789,7 +1101,16 @@
         <v>0.1227551391052588</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2109022762842864</v>
+        <v>0.2109022762842863</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2302798952591923</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1385672263063341</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1598564730032906</v>
       </c>
     </row>
     <row r="36">
@@ -797,10 +1118,19 @@
         <v>39022</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09341996540246764</v>
+        <v>0.09341996540246766</v>
       </c>
       <c r="C36" t="n">
         <v>0.1815671025814952</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2009447215564011</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.109232052603543</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1305212993004994</v>
       </c>
     </row>
     <row r="37">
@@ -808,10 +1138,19 @@
         <v>39052</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07990758068658313</v>
+        <v>0.07990758068658309</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1680547178656107</v>
+        <v>0.1680547178656106</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1874323368405166</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.09571966788765839</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1170089145846149</v>
       </c>
     </row>
     <row r="38">
@@ -819,10 +1158,19 @@
         <v>39083</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0912307373126591</v>
+        <v>0.091230737312659</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1793778744916866</v>
+        <v>0.1793778744916865</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1987554934665925</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1070428245137343</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1283320712106908</v>
       </c>
     </row>
     <row r="39">
@@ -830,10 +1178,19 @@
         <v>39114</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07930993979131776</v>
+        <v>0.07930993979131779</v>
       </c>
       <c r="C39" t="n">
         <v>0.1674570769703453</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1868346959452513</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.09512202699239308</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1164112736893496</v>
       </c>
     </row>
     <row r="40">
@@ -841,10 +1198,19 @@
         <v>39142</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1172880406749353</v>
+        <v>0.1172880406749352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2054351778539628</v>
+        <v>0.2054351778539627</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2248127968288686</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1331001278760105</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.154389374572967</v>
       </c>
     </row>
     <row r="41">
@@ -852,10 +1218,19 @@
         <v>39173</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0958840942511492</v>
+        <v>0.09588409425114924</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1840312314301767</v>
+        <v>0.1840312314301768</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2034088504050827</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1116961814522245</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.132985428149181</v>
       </c>
     </row>
     <row r="42">
@@ -863,10 +1238,19 @@
         <v>39203</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08490161866188561</v>
+        <v>0.08490161866188559</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1730487558409132</v>
+        <v>0.1730487558409131</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.192426374815819</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1007137058629609</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1220029525599174</v>
       </c>
     </row>
     <row r="43">
@@ -874,10 +1258,19 @@
         <v>39234</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1067392372150464</v>
+        <v>0.1067392372150465</v>
       </c>
       <c r="C43" t="n">
         <v>0.194886374394074</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2142639933689799</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1225513244161218</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1438405711130782</v>
       </c>
     </row>
     <row r="44">
@@ -890,6 +1283,15 @@
       <c r="C44" t="n">
         <v>0.2052858788667068</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.2246634978416127</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1329508288887546</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1542400755857111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -901,16 +1303,34 @@
       <c r="C45" t="n">
         <v>0.1867420452549121</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.206119664229818</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1144069952769599</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1356962419739163</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>39326</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07827168730585443</v>
+        <v>0.07827168730585438</v>
       </c>
       <c r="C46" t="n">
-        <v>0.166418824484882</v>
+        <v>0.1664188244848819</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1857964434597879</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.09408377450692967</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1153730212038862</v>
       </c>
     </row>
     <row r="47">
@@ -918,10 +1338,19 @@
         <v>39356</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08562651988028502</v>
+        <v>0.08562651988028493</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1737736570593126</v>
+        <v>0.1737736570593125</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1931512760342184</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1014386070813602</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1227278537783167</v>
       </c>
     </row>
     <row r="48">
@@ -929,10 +1358,19 @@
         <v>39387</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1074554531470291</v>
+        <v>0.107455453147029</v>
       </c>
       <c r="C48" t="n">
         <v>0.1956025903260566</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2149802093009625</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1232675403481043</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1445567870450608</v>
       </c>
     </row>
     <row r="49">
@@ -940,10 +1378,19 @@
         <v>39417</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1089212188183335</v>
+        <v>0.1089212188183336</v>
       </c>
       <c r="C49" t="n">
         <v>0.1970683559973611</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.216445974972267</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1247333060194089</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1460225527163653</v>
       </c>
     </row>
     <row r="50">
@@ -954,7 +1401,16 @@
         <v>0.1329828420697954</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2211299792488229</v>
+        <v>0.221129979248823</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2405075982237289</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1487949292708707</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1700841759678272</v>
       </c>
     </row>
     <row r="51">
@@ -967,16 +1423,34 @@
       <c r="C51" t="n">
         <v>0.2139536611424587</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.2333312801173646</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1416186111645065</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1629078578614629</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>39508</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05951373546730804</v>
+        <v>0.05951373546730801</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1476608726463356</v>
+        <v>0.1476608726463355</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1670384916212415</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.07532582266838331</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.09661506936533978</v>
       </c>
     </row>
     <row r="53">
@@ -989,6 +1463,15 @@
       <c r="C53" t="n">
         <v>0.2450525440445711</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.264430163019477</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1727174940666189</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1940067407635754</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -998,7 +1481,16 @@
         <v>0.1136346285594867</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2017817657385142</v>
+        <v>0.2017817657385143</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2211593847134202</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.129446715760562</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1507359624575185</v>
       </c>
     </row>
     <row r="55">
@@ -1006,10 +1498,19 @@
         <v>39600</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1145696019926872</v>
+        <v>0.1145696019926873</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2027167391717147</v>
+        <v>0.2027167391717148</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2220943581466207</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1303816891937626</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.151670935890719</v>
       </c>
     </row>
     <row r="56">
@@ -1017,10 +1518,19 @@
         <v>39630</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1222988528580317</v>
+        <v>0.1222988528580319</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2104459900370593</v>
+        <v>0.2104459900370595</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2298236090119654</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1381109400591072</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1594001867560637</v>
       </c>
     </row>
     <row r="57">
@@ -1033,6 +1543,15 @@
       <c r="C57" t="n">
         <v>0.2040157676866558</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.2233933866615617</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1316807177087035</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.15296996440566</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1042,7 +1561,16 @@
         <v>0.1048368896388687</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1929840268178963</v>
+        <v>0.1929840268178962</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2123616457928021</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.120648976839944</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1419382235369005</v>
       </c>
     </row>
     <row r="59">
@@ -1050,10 +1578,19 @@
         <v>39722</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0960970814958171</v>
+        <v>0.09609708149581717</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1842442186748446</v>
+        <v>0.1842442186748447</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.2036218376497506</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1119091686968925</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1331984153938489</v>
       </c>
     </row>
     <row r="60">
@@ -1061,10 +1598,19 @@
         <v>39753</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0430007737767364</v>
+        <v>0.04300077377673637</v>
       </c>
       <c r="C60" t="n">
         <v>0.1311479109557639</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.1505255299306698</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.05881286097781166</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.08010210767476815</v>
       </c>
     </row>
     <row r="61">
@@ -1072,10 +1618,19 @@
         <v>39783</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03722721756167945</v>
+        <v>0.03722721756167951</v>
       </c>
       <c r="C61" t="n">
         <v>0.125374354740707</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.144751973715613</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0530393047627548</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.07432855145971129</v>
       </c>
     </row>
     <row r="62">
@@ -1083,10 +1638,19 @@
         <v>39814</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03993327819267423</v>
+        <v>0.0399332781926742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1280804153717018</v>
+        <v>0.1280804153717017</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1474580343466076</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0557453653937495</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.07703461209070597</v>
       </c>
     </row>
     <row r="63">
@@ -1094,10 +1658,19 @@
         <v>39845</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00323759155398861</v>
+        <v>0.003237591553988617</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09138472873301615</v>
+        <v>0.09138472873301616</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.1107623477079221</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.01904967875506391</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0403389254520204</v>
       </c>
     </row>
     <row r="64">
@@ -1105,10 +1678,19 @@
         <v>39873</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06178339674843669</v>
+        <v>0.06178339674843673</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1499305339274642</v>
+        <v>0.1499305339274643</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1693081529023702</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.07759548394951203</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.09888473064646852</v>
       </c>
     </row>
     <row r="65">
@@ -1121,16 +1703,34 @@
       <c r="C65" t="n">
         <v>0.07750644173538293</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.09688406071028885</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.005171391757430682</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.02646063845438717</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
         <v>39934</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0003297596924036472</v>
+        <v>0.0003297596924037027</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08847689687143119</v>
+        <v>0.08847689687143125</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1078545158463372</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.016141846893479</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.03743109359043548</v>
       </c>
     </row>
     <row r="67">
@@ -1138,10 +1738,19 @@
         <v>39965</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04184657431755576</v>
+        <v>0.04184657431755583</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1299937114965833</v>
+        <v>0.1299937114965834</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1493713304714893</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.05765866151863112</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.07894790821558761</v>
       </c>
     </row>
     <row r="68">
@@ -1149,10 +1758,19 @@
         <v>39995</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.01695500222418275</v>
+        <v>-0.01695500222418286</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07119213495484479</v>
+        <v>0.07119213495484468</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0905697539297506</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.001142915023107569</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.02014633167384892</v>
       </c>
     </row>
     <row r="69">
@@ -1160,10 +1778,19 @@
         <v>40026</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.02263028379430719</v>
+        <v>-0.02263028379430729</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06551685338472035</v>
+        <v>0.06551685338472026</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.08489447235962617</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.006818196593231993</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01447105010372449</v>
       </c>
     </row>
     <row r="70">
@@ -1171,10 +1798,19 @@
         <v>40057</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02392634680951569</v>
+        <v>0.02392634680951577</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1120734839885432</v>
+        <v>0.1120734839885433</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1314511029634493</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.03973843401059107</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.06102768070754756</v>
       </c>
     </row>
     <row r="71">
@@ -1182,10 +1818,19 @@
         <v>40087</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009185610001049678</v>
+        <v>0.009185610001049595</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09733274718007723</v>
+        <v>0.09733274718007714</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1167103661549831</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.02499769720212489</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.04628694389908138</v>
       </c>
     </row>
     <row r="72">
@@ -1193,10 +1838,19 @@
         <v>40118</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01337947480557933</v>
+        <v>0.01337947480557942</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1015266119846069</v>
+        <v>0.101526611984607</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1209042309595129</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.02919156200665472</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.05048080870361121</v>
       </c>
     </row>
     <row r="73">
@@ -1209,16 +1863,34 @@
       <c r="C73" t="n">
         <v>0.1333797019909134</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.1527573209658193</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.06104465201296116</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.08233389870991766</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
         <v>40179</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02707448985243067</v>
+        <v>0.02707448985243059</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1152216270314582</v>
+        <v>0.1152216270314581</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1345992460063641</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.04288657705350589</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.06417582375046238</v>
       </c>
     </row>
     <row r="75">
@@ -1226,10 +1898,19 @@
         <v>40210</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05648908819954725</v>
+        <v>0.05648908819954718</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1446362253785748</v>
+        <v>0.1446362253785747</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1640138443534807</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.07230117540062247</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.09359042209757895</v>
       </c>
     </row>
     <row r="76">
@@ -1237,10 +1918,19 @@
         <v>40238</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07520349096549349</v>
+        <v>0.07520349096549354</v>
       </c>
       <c r="C76" t="n">
-        <v>0.163350628144521</v>
+        <v>0.1633506281445211</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.182728247119427</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.09101557816656884</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1123048248635253</v>
       </c>
     </row>
     <row r="77">
@@ -1253,16 +1943,34 @@
       <c r="C77" t="n">
         <v>0.1681972142148543</v>
       </c>
+      <c r="D77" t="n">
+        <v>0.1875748331897603</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.09586216423690208</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1171514109338586</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
         <v>40299</v>
       </c>
       <c r="B78" t="n">
-        <v>0.04684638471381895</v>
+        <v>0.04684638471381931</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1349935218928465</v>
+        <v>0.1349935218928469</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.1543711408677528</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.06265847191489461</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0839477186118511</v>
       </c>
     </row>
     <row r="79">
@@ -1270,10 +1978,19 @@
         <v>40330</v>
       </c>
       <c r="B79" t="n">
-        <v>0.05582503353242196</v>
+        <v>0.05582503353242192</v>
       </c>
       <c r="C79" t="n">
         <v>0.1439721707114495</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1633497896863554</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.07163712073349722</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.09292636743045371</v>
       </c>
     </row>
     <row r="80">
@@ -1281,10 +1998,19 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05371198945196001</v>
+        <v>0.05371198945195995</v>
       </c>
       <c r="C80" t="n">
         <v>0.1418591266309875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.1612367456058934</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.06952407665303524</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.09081332334999173</v>
       </c>
     </row>
     <row r="81">
@@ -1292,10 +2018,19 @@
         <v>40391</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07990685794765115</v>
+        <v>0.07990685794765098</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1680539951266787</v>
+        <v>0.1680539951266785</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1874316141015844</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.09571894514872628</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1170081918456828</v>
       </c>
     </row>
     <row r="82">
@@ -1303,10 +2038,19 @@
         <v>40422</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04986078603143285</v>
+        <v>0.04986078603143274</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1380079232104604</v>
+        <v>0.1380079232104603</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.1573855421853662</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.06567287323250803</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.08696211992946451</v>
       </c>
     </row>
     <row r="83">
@@ -1314,10 +2058,19 @@
         <v>40452</v>
       </c>
       <c r="B83" t="n">
-        <v>0.04398969331771686</v>
+        <v>0.0439896933177168</v>
       </c>
       <c r="C83" t="n">
         <v>0.1321368304967444</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1515144494716503</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.05980178051879209</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.08109102721574858</v>
       </c>
     </row>
     <row r="84">
@@ -1325,10 +2078,19 @@
         <v>40483</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08971356740455415</v>
+        <v>0.08971356740455413</v>
       </c>
       <c r="C84" t="n">
         <v>0.1778607045835817</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.1972383235584876</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1055256546056294</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1268149013025859</v>
       </c>
     </row>
     <row r="85">
@@ -1336,10 +2098,19 @@
         <v>40513</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07908331130782112</v>
+        <v>0.07908331130782109</v>
       </c>
       <c r="C85" t="n">
         <v>0.1672304484868486</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.1866080674617546</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.09489539850889639</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1161846452058529</v>
       </c>
     </row>
     <row r="86">
@@ -1347,10 +2118,19 @@
         <v>40544</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05649409685747185</v>
+        <v>0.05649409685747178</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1446412340364994</v>
+        <v>0.1446412340364993</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1640188530114052</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.07230618405854708</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.09359543075550356</v>
       </c>
     </row>
     <row r="87">
@@ -1358,10 +2138,19 @@
         <v>40575</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09022209499946122</v>
+        <v>0.09022209499946128</v>
       </c>
       <c r="C87" t="n">
         <v>0.1783692321784888</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.1977468511533947</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1060341822005366</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1273234288974931</v>
       </c>
     </row>
     <row r="88">
@@ -1369,10 +2158,19 @@
         <v>40603</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03899809288625615</v>
+        <v>0.03899809288625602</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1271452300652837</v>
+        <v>0.1271452300652836</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1465228490401895</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.05481018008733131</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0760994267842878</v>
       </c>
     </row>
     <row r="89">
@@ -1380,10 +2178,19 @@
         <v>40634</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07789532780344373</v>
+        <v>0.07789532780344383</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1660424649824713</v>
+        <v>0.1660424649824714</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1854200839573773</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.09370741500451912</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1149966617014756</v>
       </c>
     </row>
     <row r="90">
@@ -1391,10 +2198,19 @@
         <v>40664</v>
       </c>
       <c r="B90" t="n">
-        <v>0.120341859570251</v>
+        <v>0.1203418595702509</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2084889967492786</v>
+        <v>0.2084889967492784</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2278666157241843</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1361539467713262</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1574431934682826</v>
       </c>
     </row>
     <row r="91">
@@ -1402,10 +2218,19 @@
         <v>40695</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07673200623048747</v>
+        <v>0.07673200623048748</v>
       </c>
       <c r="C91" t="n">
         <v>0.164879143409515</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.184256762384421</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.09254409343156278</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1138333401285193</v>
       </c>
     </row>
     <row r="92">
@@ -1413,10 +2238,19 @@
         <v>40725</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06099014845814962</v>
+        <v>0.06099014845814948</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1491372856371772</v>
+        <v>0.149137285637177</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.168514904612083</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.07680223565922478</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.09809148235618126</v>
       </c>
     </row>
     <row r="93">
@@ -1424,10 +2258,19 @@
         <v>40756</v>
       </c>
       <c r="B93" t="n">
-        <v>0.09442829630296989</v>
+        <v>0.09442829630296988</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1825754334819975</v>
+        <v>0.1825754334819974</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2019530524569033</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1102403835040452</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1315296302010017</v>
       </c>
     </row>
     <row r="94">
@@ -1435,10 +2278,19 @@
         <v>40787</v>
       </c>
       <c r="B94" t="n">
-        <v>0.08635679083429104</v>
+        <v>0.08635679083429107</v>
       </c>
       <c r="C94" t="n">
         <v>0.1745039280133186</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1938815469882245</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1021688780353664</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.1234581247323228</v>
       </c>
     </row>
     <row r="95">
@@ -1446,10 +2298,19 @@
         <v>40817</v>
       </c>
       <c r="B95" t="n">
-        <v>0.09272816550007776</v>
+        <v>0.09272816550007779</v>
       </c>
       <c r="C95" t="n">
         <v>0.1808753026791053</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.2002529216540113</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1085402527011531</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1298294993981096</v>
       </c>
     </row>
     <row r="96">
@@ -1457,10 +2318,19 @@
         <v>40848</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1190209697392641</v>
+        <v>0.1190209697392642</v>
       </c>
       <c r="C96" t="n">
         <v>0.2071681069182917</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.2265457258931976</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.1348330569403395</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1561223036372959</v>
       </c>
     </row>
     <row r="97">
@@ -1471,7 +2341,16 @@
         <v>0.1238115558685169</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2119586930475444</v>
+        <v>0.2119586930475445</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.2313363120224504</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.1396236430695922</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1609128897665487</v>
       </c>
     </row>
     <row r="98">
@@ -1479,10 +2358,19 @@
         <v>40909</v>
       </c>
       <c r="B98" t="n">
-        <v>0.09825007627348835</v>
+        <v>0.09825007627348839</v>
       </c>
       <c r="C98" t="n">
         <v>0.1863972134525159</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.2057748324274218</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.1140621634745637</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1353514101715202</v>
       </c>
     </row>
     <row r="99">
@@ -1490,10 +2378,19 @@
         <v>40940</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08869336599042636</v>
+        <v>0.08869336599042635</v>
       </c>
       <c r="C99" t="n">
         <v>0.1768405031694539</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1962181221443598</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.1045054531915016</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1257946998884581</v>
       </c>
     </row>
     <row r="100">
@@ -1506,16 +2403,34 @@
       <c r="C100" t="n">
         <v>0.2256504061392381</v>
       </c>
+      <c r="D100" t="n">
+        <v>0.2450280251141441</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1533153561612859</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1746046028582424</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
         <v>41000</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08657402376069022</v>
+        <v>0.08657402376069023</v>
       </c>
       <c r="C101" t="n">
         <v>0.1747211609397178</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1940987799146237</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1023861109617655</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.123675357658722</v>
       </c>
     </row>
     <row r="102">
@@ -1528,6 +2443,15 @@
       <c r="C102" t="n">
         <v>0.1829024054183402</v>
       </c>
+      <c r="D102" t="n">
+        <v>0.2022800243932462</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.110567355440388</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.1318566021373445</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -1539,16 +2463,34 @@
       <c r="C103" t="n">
         <v>0.1943461712137454</v>
       </c>
+      <c r="D103" t="n">
+        <v>0.2137237901886513</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1220111212357932</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1433003679327496</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
         <v>41091</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1399684046210043</v>
+        <v>0.1399684046210044</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2281155418000319</v>
+        <v>0.228115541800032</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.2474931607749379</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1557804918220797</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1770697385190362</v>
       </c>
     </row>
     <row r="105">
@@ -1561,16 +2503,34 @@
       <c r="C105" t="n">
         <v>0.1801921622819838</v>
       </c>
+      <c r="D105" t="n">
+        <v>0.1995697812568898</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1078571123040316</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1291463590009881</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
         <v>41153</v>
       </c>
       <c r="B106" t="n">
-        <v>0.06938305785286003</v>
+        <v>0.06938305785286002</v>
       </c>
       <c r="C106" t="n">
         <v>0.1575301950318876</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.1769078140067935</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.08519514505393531</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1064843917508918</v>
       </c>
     </row>
     <row r="107">
@@ -1583,6 +2543,15 @@
       <c r="C107" t="n">
         <v>0.1560863741582631</v>
       </c>
+      <c r="D107" t="n">
+        <v>0.175463993133169</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.08375132418031084</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1050405708772673</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -1592,7 +2561,16 @@
         <v>0.1089982877850367</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1971454249640642</v>
+        <v>0.1971454249640643</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.2165230439389702</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.124810374986112</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1460996216830685</v>
       </c>
     </row>
     <row r="109">
@@ -1600,10 +2578,19 @@
         <v>41244</v>
       </c>
       <c r="B109" t="n">
-        <v>0.07191665959492699</v>
+        <v>0.07191665959492695</v>
       </c>
       <c r="C109" t="n">
         <v>0.1600637967739545</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.1794414157488604</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.08772874679600225</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1090179934929587</v>
       </c>
     </row>
     <row r="110">
@@ -1611,10 +2598,19 @@
         <v>41275</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08604086294643176</v>
+        <v>0.08604086294643178</v>
       </c>
       <c r="C110" t="n">
         <v>0.1741880001254593</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1935656191003652</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1018529501475071</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.1231421968444636</v>
       </c>
     </row>
     <row r="111">
@@ -1622,10 +2618,19 @@
         <v>41306</v>
       </c>
       <c r="B111" t="n">
-        <v>0.06790623903203089</v>
+        <v>0.06790623903203068</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1560533762110584</v>
+        <v>0.1560533762110582</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.1754309951859641</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.08371832623310597</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.1050075729300625</v>
       </c>
     </row>
     <row r="112">
@@ -1633,10 +2638,19 @@
         <v>41334</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0636291965409288</v>
+        <v>0.06362919654092879</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1517763337199564</v>
+        <v>0.1517763337199563</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1711539526948622</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.07944128374200408</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.1007305304389606</v>
       </c>
     </row>
     <row r="113">
@@ -1647,7 +2661,16 @@
         <v>0.1038719179348502</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1920190551138777</v>
+        <v>0.1920190551138778</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.2113966740887837</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1196840051359255</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.140973251832882</v>
       </c>
     </row>
     <row r="114">
@@ -1655,10 +2678,19 @@
         <v>41395</v>
       </c>
       <c r="B114" t="n">
-        <v>0.07936776844958371</v>
+        <v>0.07936776844958368</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1675149056286113</v>
+        <v>0.1675149056286112</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1868925246035171</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.09517985565065898</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1164691023476155</v>
       </c>
     </row>
     <row r="115">
@@ -1666,10 +2698,19 @@
         <v>41426</v>
       </c>
       <c r="B115" t="n">
-        <v>0.07229755362690549</v>
+        <v>0.0722975536269055</v>
       </c>
       <c r="C115" t="n">
         <v>0.160444690805933</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.179822309780839</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0881096408279808</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1093988875249373</v>
       </c>
     </row>
     <row r="116">
@@ -1677,10 +2718,19 @@
         <v>41456</v>
       </c>
       <c r="B116" t="n">
-        <v>0.06840603690876176</v>
+        <v>0.06840603690876172</v>
       </c>
       <c r="C116" t="n">
         <v>0.1565531740877893</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.1759307930626952</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.08421812410983702</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.1055073708067935</v>
       </c>
     </row>
     <row r="117">
@@ -1693,16 +2743,34 @@
       <c r="C117" t="n">
         <v>0.1636747974775566</v>
       </c>
+      <c r="D117" t="n">
+        <v>0.1830524164524626</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0913397474996044</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.1126289941965609</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
         <v>41518</v>
       </c>
       <c r="B118" t="n">
-        <v>0.08952499219569886</v>
+        <v>0.0895249921956989</v>
       </c>
       <c r="C118" t="n">
         <v>0.1776721293747264</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1970497483496323</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1053370793967742</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.1266263260937307</v>
       </c>
     </row>
     <row r="119">
@@ -1710,10 +2778,19 @@
         <v>41548</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1237413786138933</v>
+        <v>0.1237413786138932</v>
       </c>
       <c r="C119" t="n">
         <v>0.2118885157929208</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.2312661347678267</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1395534658149685</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.160842712511925</v>
       </c>
     </row>
     <row r="120">
@@ -1721,10 +2798,19 @@
         <v>41579</v>
       </c>
       <c r="B120" t="n">
-        <v>0.08338874630088644</v>
+        <v>0.08338874630088647</v>
       </c>
       <c r="C120" t="n">
         <v>0.171535883479914</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1909135024548199</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.09920083350196177</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1204900801989182</v>
       </c>
     </row>
     <row r="121">
@@ -1732,10 +2818,19 @@
         <v>41609</v>
       </c>
       <c r="B121" t="n">
-        <v>0.09207405210252849</v>
+        <v>0.09207405210252845</v>
       </c>
       <c r="C121" t="n">
         <v>0.180221189281556</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.1995988082564619</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1078861393036037</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.1291753860005602</v>
       </c>
     </row>
     <row r="122">
@@ -1743,10 +2838,19 @@
         <v>41640</v>
       </c>
       <c r="B122" t="n">
-        <v>0.04656554190780884</v>
+        <v>0.04656554190780876</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1347126790868364</v>
+        <v>0.1347126790868363</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1540902980617422</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.06237762910888406</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.08366687580584053</v>
       </c>
     </row>
     <row r="123">
@@ -1754,10 +2858,19 @@
         <v>41671</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05225534135864641</v>
+        <v>0.05225534135864639</v>
       </c>
       <c r="C123" t="n">
-        <v>0.140402478537674</v>
+        <v>0.1404024785376739</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.1597800975125798</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.06806742855972168</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.08935667525667818</v>
       </c>
     </row>
     <row r="124">
@@ -1765,10 +2878,19 @@
         <v>41699</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03600687890036935</v>
+        <v>0.03600687890036934</v>
       </c>
       <c r="C124" t="n">
         <v>0.1241540160793969</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1435316350543028</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.05181896610144464</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.07310821279840113</v>
       </c>
     </row>
     <row r="125">
@@ -1776,10 +2898,19 @@
         <v>41730</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04922826496233748</v>
+        <v>0.04922826496233746</v>
       </c>
       <c r="C125" t="n">
         <v>0.137375402141365</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.1567530211162709</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.06504035216341275</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.08632959886036924</v>
       </c>
     </row>
     <row r="126">
@@ -1787,10 +2918,19 @@
         <v>41760</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02260496716555817</v>
+        <v>0.02260496716555813</v>
       </c>
       <c r="C126" t="n">
         <v>0.1107521043445857</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1301297233194916</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.03841705436663342</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.05970630106358991</v>
       </c>
     </row>
     <row r="127">
@@ -1798,10 +2938,19 @@
         <v>41791</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05269662841130951</v>
+        <v>0.05269662841130953</v>
       </c>
       <c r="C127" t="n">
         <v>0.1408437655903371</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.160221384565243</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.06850871561238482</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.08979796230934131</v>
       </c>
     </row>
     <row r="128">
@@ -1814,16 +2963,34 @@
       <c r="C128" t="n">
         <v>0.135103631156452</v>
       </c>
+      <c r="D128" t="n">
+        <v>0.154481250131358</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0627685811784998</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.08405782787545629</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
         <v>41852</v>
       </c>
       <c r="B129" t="n">
-        <v>0.05036842232525517</v>
+        <v>0.0503684223252551</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1385155595042827</v>
+        <v>0.1385155595042826</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1578931784791885</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.06618050952633039</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.08746975622328687</v>
       </c>
     </row>
     <row r="130">
@@ -1831,10 +2998,19 @@
         <v>41883</v>
       </c>
       <c r="B130" t="n">
-        <v>0.04929873452491647</v>
+        <v>0.04929873452491654</v>
       </c>
       <c r="C130" t="n">
-        <v>0.137445871703944</v>
+        <v>0.1374458717039441</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.15682349067885</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.06511082172599184</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.08640006842294833</v>
       </c>
     </row>
     <row r="131">
@@ -1842,10 +3018,19 @@
         <v>41913</v>
       </c>
       <c r="B131" t="n">
-        <v>0.05758030971336337</v>
+        <v>0.05758030971336343</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1457274468923909</v>
+        <v>0.145727446892391</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1651050658672969</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.07339239691443872</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.09468164361139521</v>
       </c>
     </row>
     <row r="132">
@@ -1853,10 +3038,19 @@
         <v>41944</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03813359655142334</v>
+        <v>0.03813359655142336</v>
       </c>
       <c r="C132" t="n">
         <v>0.1262807337304509</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1456583527053568</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.05394568375249865</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.07523493044945515</v>
       </c>
     </row>
     <row r="133">
@@ -1864,10 +3058,19 @@
         <v>41974</v>
       </c>
       <c r="B133" t="n">
-        <v>0.07953729660997925</v>
+        <v>0.07953729660997928</v>
       </c>
       <c r="C133" t="n">
         <v>0.1676844337890068</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1870620527639127</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.09534938381105458</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1166386305080111</v>
       </c>
     </row>
     <row r="134">
@@ -1875,10 +3078,19 @@
         <v>42005</v>
       </c>
       <c r="B134" t="n">
-        <v>0.06183508158323982</v>
+        <v>0.0618350815832398</v>
       </c>
       <c r="C134" t="n">
         <v>0.1499822187622674</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1693598377371733</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0776471687843151</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.09893641548127158</v>
       </c>
     </row>
     <row r="135">
@@ -1886,10 +3098,19 @@
         <v>42036</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03531212471240242</v>
+        <v>0.03531212471240247</v>
       </c>
       <c r="C135" t="n">
         <v>0.12345926189143</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1428368808663359</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.05112421191347777</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.07241345861043424</v>
       </c>
     </row>
     <row r="136">
@@ -1897,10 +3118,19 @@
         <v>42064</v>
       </c>
       <c r="B136" t="n">
-        <v>0.07240886599937932</v>
+        <v>0.07240886599937948</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1605560031784068</v>
+        <v>0.160556003178407</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.1799336221533129</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.08822095320045478</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.1095101998974113</v>
       </c>
     </row>
     <row r="137">
@@ -1908,10 +3138,19 @@
         <v>42095</v>
       </c>
       <c r="B137" t="n">
-        <v>0.01931215655893963</v>
+        <v>0.01931215655893954</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1074592937379672</v>
+        <v>0.1074592937379671</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.126836912712873</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.03512424376001484</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.05641349045697133</v>
       </c>
     </row>
     <row r="138">
@@ -1919,10 +3158,19 @@
         <v>42125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02409224511730045</v>
+        <v>0.02409224511730032</v>
       </c>
       <c r="C138" t="n">
-        <v>0.112239382296328</v>
+        <v>0.1122393822963279</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1316170012712338</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.03990433231837562</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0611935790153321</v>
       </c>
     </row>
     <row r="139">
@@ -1930,10 +3178,19 @@
         <v>42156</v>
       </c>
       <c r="B139" t="n">
-        <v>0.04026965724473697</v>
+        <v>0.04026965724473692</v>
       </c>
       <c r="C139" t="n">
         <v>0.1284167944237645</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1477944133986704</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.05608174444581221</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0773709911427687</v>
       </c>
     </row>
     <row r="140">
@@ -1941,10 +3198,19 @@
         <v>42186</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04303682027715138</v>
+        <v>0.04303682027715137</v>
       </c>
       <c r="C140" t="n">
         <v>0.1311839574561789</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1505615764310848</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.05884890747822667</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.08013815417518316</v>
       </c>
     </row>
     <row r="141">
@@ -1952,10 +3218,19 @@
         <v>42217</v>
       </c>
       <c r="B141" t="n">
-        <v>0.04296265050693693</v>
+        <v>0.04296265050693694</v>
       </c>
       <c r="C141" t="n">
         <v>0.1311097876859645</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1504874066608704</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.05877473770801224</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.08006398440496873</v>
       </c>
     </row>
     <row r="142">
@@ -1963,10 +3238,19 @@
         <v>42248</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03988132168550163</v>
+        <v>0.03988132168550154</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1280284588645292</v>
+        <v>0.1280284588645291</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.147406077839435</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.05569340888657684</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.07698265558353332</v>
       </c>
     </row>
     <row r="143">
@@ -1974,10 +3258,19 @@
         <v>42278</v>
       </c>
       <c r="B143" t="n">
-        <v>0.04689177722618787</v>
+        <v>0.04689177722618783</v>
       </c>
       <c r="C143" t="n">
         <v>0.1350389144052154</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1544165333801213</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.06270386442726313</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.08399311112421962</v>
       </c>
     </row>
     <row r="144">
@@ -1985,10 +3278,19 @@
         <v>42309</v>
       </c>
       <c r="B144" t="n">
-        <v>0.04547096736952883</v>
+        <v>0.04547096736952889</v>
       </c>
       <c r="C144" t="n">
         <v>0.1336181045485564</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.1529957235234624</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.06128305457060419</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.08257230126756068</v>
       </c>
     </row>
     <row r="145">
@@ -1996,10 +3298,19 @@
         <v>42339</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0303327410861365</v>
+        <v>0.03033274108613642</v>
       </c>
       <c r="C145" t="n">
         <v>0.118479878265164</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.1378574972400699</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.04614482828721171</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0674340749841682</v>
       </c>
     </row>
     <row r="146">
@@ -2007,10 +3318,19 @@
         <v>42370</v>
       </c>
       <c r="B146" t="n">
-        <v>0.03926609991502517</v>
+        <v>0.03926609991502521</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1274132370940527</v>
+        <v>0.1274132370940528</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.1467908560689587</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0550781871161005</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.076367433813057</v>
       </c>
     </row>
     <row r="147">
@@ -2018,10 +3338,19 @@
         <v>42401</v>
       </c>
       <c r="B147" t="n">
-        <v>0.04669233137030382</v>
+        <v>0.04669233137030387</v>
       </c>
       <c r="C147" t="n">
         <v>0.1348394685493314</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.1542170875242374</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.06250441857137917</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.08379366526833565</v>
       </c>
     </row>
     <row r="148">
@@ -2029,10 +3358,19 @@
         <v>42430</v>
       </c>
       <c r="B148" t="n">
-        <v>0.03738406145261951</v>
+        <v>0.03738406145261948</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1255311986316471</v>
+        <v>0.125531198631647</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.1449088176065529</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.05319614865369478</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.07448539535065127</v>
       </c>
     </row>
     <row r="149">
@@ -2040,10 +3378,19 @@
         <v>42461</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0401709200917171</v>
+        <v>0.04017092009171699</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1283180572707446</v>
+        <v>0.1283180572707445</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1476956762456504</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.05598300729279229</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.07727225398974877</v>
       </c>
     </row>
     <row r="150">
@@ -2051,10 +3398,19 @@
         <v>42491</v>
       </c>
       <c r="B150" t="n">
-        <v>0.05516911460830509</v>
+        <v>0.05516911460830513</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1433162517873326</v>
+        <v>0.1433162517873327</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1626938707622386</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.07098120180938043</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.09227044850633692</v>
       </c>
     </row>
     <row r="151">
@@ -2062,10 +3418,19 @@
         <v>42522</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0407498735770473</v>
+        <v>0.04074987357704728</v>
       </c>
       <c r="C151" t="n">
         <v>0.1288970107560748</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.1482746297309807</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.05656196077812257</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.07785120747507907</v>
       </c>
     </row>
     <row r="152">
@@ -2073,10 +3438,19 @@
         <v>42552</v>
       </c>
       <c r="B152" t="n">
-        <v>0.04972288812852766</v>
+        <v>0.0497228881285277</v>
       </c>
       <c r="C152" t="n">
         <v>0.1378700253075552</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1572476442824612</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.06553497532960299</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.08682422202655948</v>
       </c>
     </row>
     <row r="153">
@@ -2089,16 +3463,34 @@
       <c r="C153" t="n">
         <v>0.1327076173572438</v>
       </c>
+      <c r="D153" t="n">
+        <v>0.1520852363321497</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.06037256737929154</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.08166181407624803</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
         <v>42614</v>
       </c>
       <c r="B154" t="n">
-        <v>0.047846735433517</v>
+        <v>0.04784673543351706</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1359938726125445</v>
+        <v>0.1359938726125446</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1553714915874505</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.06365882263459235</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.08494806933154884</v>
       </c>
     </row>
     <row r="155">
@@ -2106,10 +3498,19 @@
         <v>42644</v>
       </c>
       <c r="B155" t="n">
-        <v>0.03944308495467498</v>
+        <v>0.039443084954675</v>
       </c>
       <c r="C155" t="n">
         <v>0.1275902221337025</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.1469678411086084</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.05525517215575029</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.07654441885270677</v>
       </c>
     </row>
     <row r="156">
@@ -2117,10 +3518,19 @@
         <v>42675</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04641326121574086</v>
+        <v>0.04641326121574085</v>
       </c>
       <c r="C156" t="n">
         <v>0.1345603983947684</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1539380173696743</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.06222534841681615</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.08351459511377263</v>
       </c>
     </row>
     <row r="157">
@@ -2128,10 +3538,19 @@
         <v>42705</v>
       </c>
       <c r="B157" t="n">
-        <v>0.03764605340318128</v>
+        <v>0.03764605340318125</v>
       </c>
       <c r="C157" t="n">
         <v>0.1257931905822088</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.1451708095571147</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.05345814060425655</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.07474738730121303</v>
       </c>
     </row>
     <row r="158">
@@ -2139,10 +3558,19 @@
         <v>42736</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04547375015965872</v>
+        <v>0.04547375015965861</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1336208873386863</v>
+        <v>0.1336208873386862</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.1529985063135921</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.06128583736073391</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0825750840576904</v>
       </c>
     </row>
     <row r="159">
@@ -2150,10 +3578,19 @@
         <v>42767</v>
       </c>
       <c r="B159" t="n">
-        <v>0.06075551788303989</v>
+        <v>0.06075551788303997</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1489026550620674</v>
+        <v>0.1489026550620675</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.1682802740369734</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.07656760508411527</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.09785685178107176</v>
       </c>
     </row>
     <row r="160">
@@ -2161,10 +3598,19 @@
         <v>42795</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07910874346131158</v>
+        <v>0.07910874346131165</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1672558806403391</v>
+        <v>0.1672558806403392</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1866334996152451</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.09492083066238695</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1162100773593434</v>
       </c>
     </row>
     <row r="161">
@@ -2177,16 +3623,34 @@
       <c r="C161" t="n">
         <v>0.1479572725596116</v>
       </c>
+      <c r="D161" t="n">
+        <v>0.1673348915345175</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.07562222258165935</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.09691146927861584</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
         <v>42856</v>
       </c>
       <c r="B162" t="n">
-        <v>0.06572904699004334</v>
+        <v>0.06572904699004331</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1538761841690709</v>
+        <v>0.1538761841690708</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.1732538031439768</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.08154113419111861</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.1028303808880751</v>
       </c>
     </row>
     <row r="163">
@@ -2194,10 +3658,19 @@
         <v>42887</v>
       </c>
       <c r="B163" t="n">
-        <v>0.05838352636411905</v>
+        <v>0.05838352636411902</v>
       </c>
       <c r="C163" t="n">
         <v>0.1465306635431466</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1659082825180525</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.07419561356519432</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.09548486026215081</v>
       </c>
     </row>
     <row r="164">
@@ -2205,10 +3678,19 @@
         <v>42917</v>
       </c>
       <c r="B164" t="n">
-        <v>0.03814440409022146</v>
+        <v>0.03814440409022136</v>
       </c>
       <c r="C164" t="n">
-        <v>0.126291541269249</v>
+        <v>0.1262915412692489</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.1456691602441548</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.05395649129129665</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.07524573798825314</v>
       </c>
     </row>
     <row r="165">
@@ -2216,10 +3698,19 @@
         <v>42948</v>
       </c>
       <c r="B165" t="n">
-        <v>0.04896485857797805</v>
+        <v>0.04896485857797807</v>
       </c>
       <c r="C165" t="n">
         <v>0.1371119957570056</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1564896147319115</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.06477694577905337</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.08606619247600986</v>
       </c>
     </row>
     <row r="166">
@@ -2227,10 +3718,19 @@
         <v>42979</v>
       </c>
       <c r="B166" t="n">
-        <v>0.04436060479507797</v>
+        <v>0.04436060479507799</v>
       </c>
       <c r="C166" t="n">
         <v>0.1325077419741055</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1518853609490114</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.06017269199615329</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.08146193869310978</v>
       </c>
     </row>
     <row r="167">
@@ -2243,16 +3743,34 @@
       <c r="C167" t="n">
         <v>0.1287877970080823</v>
       </c>
+      <c r="D167" t="n">
+        <v>0.1481654159829882</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.05645274703013003</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.07774199372708653</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
         <v>43040</v>
       </c>
       <c r="B168" t="n">
-        <v>0.04188513168723018</v>
+        <v>0.04188513168723017</v>
       </c>
       <c r="C168" t="n">
         <v>0.1300322688662577</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.1494098878411636</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.05769721888830547</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.07898646558526196</v>
       </c>
     </row>
     <row r="169">
@@ -2260,10 +3778,19 @@
         <v>43070</v>
       </c>
       <c r="B169" t="n">
-        <v>0.04029637175829649</v>
+        <v>0.04029637175829644</v>
       </c>
       <c r="C169" t="n">
         <v>0.128443508937324</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1478211279122299</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.05610845895937173</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.07739770565632823</v>
       </c>
     </row>
     <row r="170">
@@ -2271,10 +3798,19 @@
         <v>43101</v>
       </c>
       <c r="B170" t="n">
-        <v>0.04597270195651415</v>
+        <v>0.04597270195651416</v>
       </c>
       <c r="C170" t="n">
         <v>0.1341198391355417</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1534974581104476</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.06178478915758945</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.08307403585454594</v>
       </c>
     </row>
     <row r="171">
@@ -2287,16 +3823,34 @@
       <c r="C171" t="n">
         <v>0.1191486027126239</v>
       </c>
+      <c r="D171" t="n">
+        <v>0.1385262216875298</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.04681355273467167</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.06810279943162814</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
         <v>43160</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02864018466841279</v>
+        <v>0.02864018466841278</v>
       </c>
       <c r="C172" t="n">
         <v>0.1167873218474403</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1361649408223462</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.04445227186948807</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.06574151856644456</v>
       </c>
     </row>
     <row r="173">
@@ -2304,10 +3858,19 @@
         <v>43191</v>
       </c>
       <c r="B173" t="n">
-        <v>0.04641674659323635</v>
+        <v>0.04641674659323636</v>
       </c>
       <c r="C173" t="n">
         <v>0.1345638837722639</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1539415027471698</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.06222883379431166</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.08351808049126813</v>
       </c>
     </row>
     <row r="174">
@@ -2315,10 +3878,19 @@
         <v>43221</v>
       </c>
       <c r="B174" t="n">
-        <v>0.01367305556634269</v>
+        <v>0.01367305556634268</v>
       </c>
       <c r="C174" t="n">
         <v>0.1018201927453702</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1211978117202761</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.02948514276741797</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.05077438946437446</v>
       </c>
     </row>
     <row r="175">
@@ -2326,10 +3898,19 @@
         <v>43252</v>
       </c>
       <c r="B175" t="n">
-        <v>0.02826169732132278</v>
+        <v>0.02826169732132276</v>
       </c>
       <c r="C175" t="n">
         <v>0.1164088345003503</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1357864534752562</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.04407378452239805</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.06536303121935454</v>
       </c>
     </row>
     <row r="176">
@@ -2337,10 +3918,19 @@
         <v>43282</v>
       </c>
       <c r="B176" t="n">
-        <v>0.01984399219481855</v>
+        <v>0.01984399219481864</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1079911293738461</v>
+        <v>0.1079911293738462</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1273687483487521</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.03565607939589394</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.05694532609285042</v>
       </c>
     </row>
     <row r="177">
@@ -2348,10 +3938,19 @@
         <v>43313</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03370310409820698</v>
+        <v>0.03370310409820693</v>
       </c>
       <c r="C177" t="n">
         <v>0.1218502412772345</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1412278602521404</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.04951519129928222</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.07080443799623871</v>
       </c>
     </row>
     <row r="178">
@@ -2359,10 +3958,19 @@
         <v>43344</v>
       </c>
       <c r="B178" t="n">
-        <v>0.03824800054863169</v>
+        <v>0.03824800054863167</v>
       </c>
       <c r="C178" t="n">
         <v>0.1263951377276592</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1457727567025651</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.05406008774970697</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.07534933444666345</v>
       </c>
     </row>
     <row r="179">
@@ -2370,10 +3978,19 @@
         <v>43374</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02958376174701943</v>
+        <v>0.02958376174701926</v>
       </c>
       <c r="C179" t="n">
-        <v>0.117730898926047</v>
+        <v>0.1177308989260468</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.1371085179009527</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.04539584894809455</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.06668509564505104</v>
       </c>
     </row>
     <row r="180">
@@ -2381,10 +3998,19 @@
         <v>43405</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03492210564808285</v>
+        <v>0.03492210564808299</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1230692428271104</v>
+        <v>0.1230692428271105</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1424468618020164</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.05073419284915828</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.07202343954611476</v>
       </c>
     </row>
     <row r="181">
@@ -2392,10 +4018,19 @@
         <v>43435</v>
       </c>
       <c r="B181" t="n">
-        <v>0.03803733132613997</v>
+        <v>0.03803733132613994</v>
       </c>
       <c r="C181" t="n">
         <v>0.1261844685051675</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1455620874800734</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.05384941852721524</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.07513866522417173</v>
       </c>
     </row>
     <row r="182">
@@ -2403,10 +4038,19 @@
         <v>43466</v>
       </c>
       <c r="B182" t="n">
-        <v>0.03573811752748648</v>
+        <v>0.0357381175274865</v>
       </c>
       <c r="C182" t="n">
         <v>0.123885254706514</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.14326287368142</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0515502047285618</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.07283945142551829</v>
       </c>
     </row>
     <row r="183">
@@ -2414,10 +4058,19 @@
         <v>43497</v>
       </c>
       <c r="B183" t="n">
-        <v>0.03735813490996458</v>
+        <v>0.03735813490996454</v>
       </c>
       <c r="C183" t="n">
         <v>0.1255052720889921</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.144882891063898</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.05317022211103983</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.07445946880799631</v>
       </c>
     </row>
     <row r="184">
@@ -2425,10 +4078,19 @@
         <v>43525</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02959649151395705</v>
+        <v>0.02959649151395698</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1177436286929846</v>
+        <v>0.1177436286929845</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1371212476678904</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.04540857871503227</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.06669782541198876</v>
       </c>
     </row>
     <row r="185">
@@ -2436,10 +4098,19 @@
         <v>43556</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02935156815279069</v>
+        <v>0.02935156815279079</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1174987053318182</v>
+        <v>0.1174987053318183</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.1368763243067243</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.04516365535386609</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.06645290205082258</v>
       </c>
     </row>
     <row r="186">
@@ -2452,16 +4123,34 @@
       <c r="C186" t="n">
         <v>0.111947720648267</v>
       </c>
+      <c r="D186" t="n">
+        <v>0.1313253396231729</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.03961267067031472</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.06090191736727121</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
         <v>43617</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02946319317382985</v>
+        <v>0.02946319317382982</v>
       </c>
       <c r="C187" t="n">
         <v>0.1176103303528574</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1369879493277633</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.04527528037490511</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0665645270718616</v>
       </c>
     </row>
     <row r="188">
@@ -2469,10 +4158,19 @@
         <v>43647</v>
       </c>
       <c r="B188" t="n">
-        <v>0.03631122209954074</v>
+        <v>0.03631122209954072</v>
       </c>
       <c r="C188" t="n">
         <v>0.1244583592785683</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1438359782534742</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.05212330930061601</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0734125559975725</v>
       </c>
     </row>
     <row r="189">
@@ -2480,10 +4178,19 @@
         <v>43678</v>
       </c>
       <c r="B189" t="n">
-        <v>0.03197536815707624</v>
+        <v>0.03197536815707622</v>
       </c>
       <c r="C189" t="n">
         <v>0.1201225053361038</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1395001243110097</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.04778745535815151</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.06907670205510801</v>
       </c>
     </row>
     <row r="190">
@@ -2491,10 +4198,19 @@
         <v>43709</v>
       </c>
       <c r="B190" t="n">
-        <v>0.03975464322130827</v>
+        <v>0.03975464322130826</v>
       </c>
       <c r="C190" t="n">
         <v>0.1279017804003358</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1472793993752417</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.05556673042238355</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.07685597711934004</v>
       </c>
     </row>
     <row r="191">
@@ -2502,10 +4218,19 @@
         <v>43739</v>
       </c>
       <c r="B191" t="n">
-        <v>0.03390705321247391</v>
+        <v>0.0339070532124738</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1220541903915014</v>
+        <v>0.1220541903915013</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1414318093664073</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.04971914041354909</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.07100838711050558</v>
       </c>
     </row>
     <row r="192">
@@ -2513,10 +4238,19 @@
         <v>43770</v>
       </c>
       <c r="B192" t="n">
-        <v>0.03613680288094287</v>
+        <v>0.0361368028809427</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1242839400599704</v>
+        <v>0.1242839400599702</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1436615590348762</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.051948890082018</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.07323813677897448</v>
       </c>
     </row>
     <row r="193">
@@ -2524,10 +4258,139 @@
         <v>43800</v>
       </c>
       <c r="B193" t="n">
-        <v>0.04310066172297841</v>
+        <v>0.03778338150666832</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1312477989020059</v>
+        <v>0.1259305186856959</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1453081376606018</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.05359546870774361</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.0748847154047001</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.04697909611356113</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1351262332925887</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.1545038522674946</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.06279118331463643</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0840804300115929</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.0529443421945742</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.1410914793736018</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.1604690983485077</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.06875642939564949</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.09004567609260598</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.05676464842783618</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.1449117856068637</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.1642894045817697</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.07257673562891148</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.09386598232586796</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.05918954519826021</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.1473366823772878</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.1667143013521937</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.07500163239933551</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.096290879096292</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.06071902621724656</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.1488661633962741</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.16824378237118</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.07653111341832186</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.09782036011527834</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.06167936800156307</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.1498265051805906</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.1692041241554965</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.07749145520263837</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.09878070189959486</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +4404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2571,7 +4434,7 @@
         <v>38077</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07255948059033322</v>
+        <v>0.07782446171154868</v>
       </c>
       <c r="C2" t="n">
         <v>0.06429164903278561</v>
@@ -2582,7 +4445,7 @@
         <v>38168</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07214156130322907</v>
+        <v>0.07987111141645152</v>
       </c>
       <c r="C3" t="n">
         <v>0.09602635442885532</v>
@@ -2593,7 +4456,7 @@
         <v>38260</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07230886062065198</v>
+        <v>0.0830589192371395</v>
       </c>
       <c r="C4" t="n">
         <v>0.09192729066242022</v>
@@ -2604,7 +4467,7 @@
         <v>38352</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07234766208906283</v>
+        <v>0.08633722811340427</v>
       </c>
       <c r="C5" t="n">
         <v>0.05096858277582372</v>
@@ -2615,7 +4478,7 @@
         <v>38442</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0721869351977393</v>
+        <v>0.08723051696788248</v>
       </c>
       <c r="C6" t="n">
         <v>0.07675442659763654</v>
@@ -2626,7 +4489,7 @@
         <v>38533</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07231977461495995</v>
+        <v>0.08868803687222329</v>
       </c>
       <c r="C7" t="n">
         <v>0.07732391256059823</v>
@@ -2637,7 +4500,7 @@
         <v>38625</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07253076653619769</v>
+        <v>0.09128680853173024</v>
       </c>
       <c r="C8" t="n">
         <v>0.0732136880092753</v>
@@ -2648,7 +4511,7 @@
         <v>38717</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07214771504555045</v>
+        <v>0.08317631907667616</v>
       </c>
       <c r="C9" t="n">
         <v>0.06122744117220935</v>
@@ -2659,7 +4522,7 @@
         <v>38807</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0723886522577991</v>
+        <v>0.08976160215533603</v>
       </c>
       <c r="C10" t="n">
         <v>0.07608972889382093</v>
@@ -2670,7 +4533,7 @@
         <v>38898</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07251361239827234</v>
+        <v>0.09578550249837754</v>
       </c>
       <c r="C11" t="n">
         <v>0.07649088321752751</v>
@@ -2681,7 +4544,7 @@
         <v>38990</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07201368525107196</v>
+        <v>0.08983150541408452</v>
       </c>
       <c r="C12" t="n">
         <v>0.09306451647030323</v>
@@ -2692,7 +4555,7 @@
         <v>39082</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0728933119718779</v>
+        <v>0.100668838576028</v>
       </c>
       <c r="C13" t="n">
         <v>0.09447877499761792</v>
@@ -2703,7 +4566,7 @@
         <v>39172</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07284561860926927</v>
+        <v>0.1184907420634026</v>
       </c>
       <c r="C14" t="n">
         <v>0.1277279351839498</v>
@@ -2714,7 +4577,7 @@
         <v>39263</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07262446950681488</v>
+        <v>0.1119792128075346</v>
       </c>
       <c r="C15" t="n">
         <v>0.1329433650920031</v>
@@ -2725,7 +4588,7 @@
         <v>39355</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07302101292998914</v>
+        <v>0.1236474007320956</v>
       </c>
       <c r="C16" t="n">
         <v>0.1543767827907712</v>
@@ -2736,7 +4599,7 @@
         <v>39447</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07321231370224704</v>
+        <v>0.1438793701042251</v>
       </c>
       <c r="C17" t="n">
         <v>0.1804262041212188</v>
@@ -2747,7 +4610,7 @@
         <v>39538</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07236462324121436</v>
+        <v>0.1170218067071395</v>
       </c>
       <c r="C18" t="n">
         <v>0.1236656291559666</v>
@@ -2758,7 +4621,7 @@
         <v>39629</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07217218796970831</v>
+        <v>0.1110911118804005</v>
       </c>
       <c r="C19" t="n">
         <v>0.1356947311687779</v>
@@ -2769,7 +4632,7 @@
         <v>39721</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07163475398389708</v>
+        <v>0.09423154277517198</v>
       </c>
       <c r="C20" t="n">
         <v>0.0938783580668785</v>
@@ -2780,7 +4643,7 @@
         <v>39813</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07069199767043101</v>
+        <v>0.05002299281885501</v>
       </c>
       <c r="C21" t="n">
         <v>0.04814361336116346</v>
@@ -2791,7 +4654,7 @@
         <v>39903</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07054859318733026</v>
+        <v>0.008518650018761439</v>
       </c>
       <c r="C22" t="n">
         <v>0.03976102254012326</v>
@@ -2802,7 +4665,7 @@
         <v>39994</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06992247008010685</v>
+        <v>-0.01334338363041575</v>
       </c>
       <c r="C23" t="n">
         <v>0.007090102587534508</v>
@@ -2813,7 +4676,7 @@
         <v>40086</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0701058563075653</v>
+        <v>-0.00547845533413524</v>
       </c>
       <c r="C24" t="n">
         <v>0.001393861203648372</v>
@@ -2824,7 +4687,7 @@
         <v>40178</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07072751532932307</v>
+        <v>0.01912453490660146</v>
       </c>
       <c r="C25" t="n">
         <v>0.001599346457928696</v>
@@ -2835,7 +4698,7 @@
         <v>40268</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07108864101032887</v>
+        <v>0.0495316501159527</v>
       </c>
       <c r="C26" t="n">
         <v>0.04781128927669065</v>
@@ -2846,7 +4709,7 @@
         <v>40359</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07266419127325369</v>
+        <v>0.09901091421138389</v>
       </c>
       <c r="C27" t="n">
         <v>0.04459862479549637</v>
@@ -2857,7 +4720,7 @@
         <v>40451</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07216393095166482</v>
+        <v>0.08332572921615955</v>
       </c>
       <c r="C28" t="n">
         <v>0.03741929623264539</v>
@@ -2868,7 +4731,7 @@
         <v>40543</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07276673621656288</v>
+        <v>0.09321210314441435</v>
       </c>
       <c r="C29" t="n">
         <v>0.1005373107825578</v>
@@ -2879,7 +4742,7 @@
         <v>40633</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07258819850884565</v>
+        <v>0.1048686724852214</v>
       </c>
       <c r="C30" t="n">
         <v>0.1040250325821539</v>
@@ -2890,7 +4753,7 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07253953442665521</v>
+        <v>0.1051283015399105</v>
       </c>
       <c r="C31" t="n">
         <v>0.1172471241764603</v>
@@ -2901,7 +4764,7 @@
         <v>40816</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07262075987262463</v>
+        <v>0.09957801682135226</v>
       </c>
       <c r="C32" t="n">
         <v>0.1303143748973115</v>
@@ -2912,7 +4775,7 @@
         <v>40908</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07229189363656816</v>
+        <v>0.0992513799681418</v>
       </c>
       <c r="C33" t="n">
         <v>0.1053750901557722</v>
@@ -2923,7 +4786,7 @@
         <v>40999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07164253031658678</v>
+        <v>0.07801184317723189</v>
       </c>
       <c r="C34" t="n">
         <v>0.117553105460136</v>
@@ -2934,7 +4797,7 @@
         <v>41090</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07172029478949429</v>
+        <v>0.06944131859643408</v>
       </c>
       <c r="C35" t="n">
         <v>0.1008980431204711</v>
@@ -2945,7 +4808,7 @@
         <v>41182</v>
       </c>
       <c r="B36" t="n">
-        <v>0.071822249892526</v>
+        <v>0.07910562504901444</v>
       </c>
       <c r="C36" t="n">
         <v>0.09258948520281107</v>
@@ -2956,7 +4819,7 @@
         <v>41274</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07202391378356951</v>
+        <v>0.0756302572003843</v>
       </c>
       <c r="C37" t="n">
         <v>0.08147832554076229</v>
@@ -2967,7 +4830,7 @@
         <v>41364</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07194126873616744</v>
+        <v>0.07389229116804483</v>
       </c>
       <c r="C38" t="n">
         <v>0.06921214284846466</v>
@@ -2978,7 +4841,7 @@
         <v>41455</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0721405855234359</v>
+        <v>0.08118220782831494</v>
       </c>
       <c r="C39" t="n">
         <v>0.07296693385208042</v>
@@ -2989,7 +4852,7 @@
         <v>41547</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07201863460483185</v>
+        <v>0.07171652576870725</v>
       </c>
       <c r="C40" t="n">
         <v>0.08214722596540702</v>
@@ -3000,7 +4863,7 @@
         <v>41639</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07161519508848449</v>
+        <v>0.07106245371040097</v>
       </c>
       <c r="C41" t="n">
         <v>0.05569762413024004</v>
@@ -3011,7 +4874,7 @@
         <v>41729</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07188098500263757</v>
+        <v>0.06324339678111411</v>
       </c>
       <c r="C42" t="n">
         <v>0.04432014220684311</v>
@@ -3022,7 +4885,7 @@
         <v>41820</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07156816765183543</v>
+        <v>0.05841736602145264</v>
       </c>
       <c r="C43" t="n">
         <v>0.04746086483304723</v>
@@ -3033,7 +4896,7 @@
         <v>41912</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07183668296118553</v>
+        <v>0.06177874269214476</v>
       </c>
       <c r="C44" t="n">
         <v>0.05095138933717647</v>
@@ -3044,7 +4907,7 @@
         <v>42004</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07171553683028048</v>
+        <v>0.06210819502120898</v>
       </c>
       <c r="C45" t="n">
         <v>0.06108673078076698</v>
@@ -3055,7 +4918,7 @@
         <v>42094</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07174374249194702</v>
+        <v>0.05259861103722824</v>
       </c>
       <c r="C46" t="n">
         <v>0.06010969731904825</v>
@@ -3066,7 +4929,7 @@
         <v>42185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07173339756481928</v>
+        <v>0.04275871621975134</v>
       </c>
       <c r="C47" t="n">
         <v>0.05792536059548659</v>
@@ -3077,7 +4940,7 @@
         <v>42277</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07163147678031334</v>
+        <v>0.05041417090666854</v>
       </c>
       <c r="C48" t="n">
         <v>0.05649447950751441</v>
@@ -3088,7 +4951,7 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07165945904393725</v>
+        <v>0.04844525380038604</v>
       </c>
       <c r="C49" t="n">
         <v>0.05395690488061589</v>
@@ -3099,7 +4962,7 @@
         <v>42460</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07175567000576284</v>
+        <v>0.04680577922775248</v>
       </c>
       <c r="C50" t="n">
         <v>0.04941909186367677</v>
@@ -3110,7 +4973,7 @@
         <v>42551</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07175083025065222</v>
+        <v>0.05869078855521311</v>
       </c>
       <c r="C51" t="n">
         <v>0.0538668649754297</v>
@@ -3121,7 +4984,7 @@
         <v>42643</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07164758218582143</v>
+        <v>0.05151657404211804</v>
       </c>
       <c r="C52" t="n">
         <v>0.04409611702756022</v>
@@ -3132,7 +4995,7 @@
         <v>42735</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07122127928210333</v>
+        <v>0.04150368330179862</v>
       </c>
       <c r="C53" t="n">
         <v>0.05420146420809835</v>
@@ -3143,7 +5006,7 @@
         <v>42825</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07093723363404789</v>
+        <v>0.04683767383221362</v>
       </c>
       <c r="C54" t="n">
         <v>0.06454295974809487</v>
@@ -3154,7 +5017,7 @@
         <v>42916</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07089494449977543</v>
+        <v>0.0398927120827444</v>
       </c>
       <c r="C55" t="n">
         <v>0.05494461601894507</v>
@@ -3165,7 +5028,7 @@
         <v>43008</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07069642427259722</v>
+        <v>0.03504128640182021</v>
       </c>
       <c r="C56" t="n">
         <v>0.05682960368247247</v>
@@ -3176,7 +5039,7 @@
         <v>43100</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07061602291511831</v>
+        <v>0.03685515855756777</v>
       </c>
       <c r="C57" t="n">
         <v>0.05033939684049682</v>
@@ -3187,7 +5050,7 @@
         <v>43190</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07098211690293559</v>
+        <v>0.04677581213569558</v>
       </c>
       <c r="C58" t="n">
         <v>0.04180750896189589</v>
@@ -3198,7 +5061,7 @@
         <v>43281</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07085649749007075</v>
+        <v>0.03996756463512373</v>
       </c>
       <c r="C59" t="n">
         <v>0.03277373749879042</v>
@@ -3209,7 +5072,7 @@
         <v>43373</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07086346199652979</v>
+        <v>0.03344850358908043</v>
       </c>
       <c r="C60" t="n">
         <v>0.03489997729615912</v>
@@ -3220,7 +5083,7 @@
         <v>43465</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07152929771535543</v>
+        <v>0.04463267231245684</v>
       </c>
       <c r="C61" t="n">
         <v>0.04155114649208591</v>
@@ -3231,7 +5094,7 @@
         <v>43555</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07105019457715148</v>
+        <v>0.03816167989497823</v>
       </c>
       <c r="C62" t="n">
         <v>0.0320333531525181</v>
@@ -3242,7 +5105,7 @@
         <v>43646</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07120282382107958</v>
+        <v>0.04328459447703889</v>
       </c>
       <c r="C63" t="n">
         <v>0.03077139582830402</v>
@@ -3253,7 +5116,7 @@
         <v>43738</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07143369566500883</v>
+        <v>0.0481137557433165</v>
       </c>
       <c r="C64" t="n">
         <v>0.03360934863362752</v>
@@ -3264,10 +5127,32 @@
         <v>43830</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07142443057833607</v>
+        <v>0.0456430278120873</v>
       </c>
       <c r="C65" t="n">
         <v>0.03762658940429842</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.04533104666915589</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.06314581940666109</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/baseNowcasting.xlsx
+++ b/resultados/baseNowcasting.xlsx
@@ -458,19 +458,19 @@
         <v>38018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04998336295257319</v>
+        <v>0.04998336295257334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1381305001316007</v>
+        <v>0.1381305001316009</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1575081191065066</v>
+        <v>0.1575081191065068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06579545015364849</v>
+        <v>0.06579545015364864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08708469685060496</v>
+        <v>0.08708469685060513</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         <v>38047</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1132091529421611</v>
+        <v>0.113209152942161</v>
       </c>
       <c r="C4" t="n">
         <v>0.2013562901211886</v>
@@ -487,10 +487,10 @@
         <v>0.2207339090960945</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1290212401432364</v>
+        <v>0.1290212401432363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1503104868401929</v>
+        <v>0.1503104868401928</v>
       </c>
     </row>
     <row r="5">
@@ -498,19 +498,19 @@
         <v>38078</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08395213429824522</v>
+        <v>0.08395213429824511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1720992714772728</v>
+        <v>0.1720992714772727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1914768904521787</v>
+        <v>0.1914768904521786</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09976422149932052</v>
+        <v>0.0997642214993204</v>
       </c>
       <c r="F5" t="n">
-        <v>0.121053468196277</v>
+        <v>0.1210534681962769</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>38108</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04869391067945176</v>
+        <v>0.04869391067945177</v>
       </c>
       <c r="C6" t="n">
         <v>0.1368410478584793</v>
@@ -527,10 +527,10 @@
         <v>0.1562186668333852</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06450599788052705</v>
+        <v>0.06450599788052706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08579524457748354</v>
+        <v>0.08579524457748355</v>
       </c>
     </row>
     <row r="7">
@@ -538,19 +538,19 @@
         <v>38139</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09492101643563294</v>
+        <v>0.09492101643563305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1830681536146605</v>
+        <v>0.1830681536146606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2024457725895664</v>
+        <v>0.2024457725895665</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1107331036367082</v>
+        <v>0.1107331036367084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1320223503336647</v>
+        <v>0.1320223503336648</v>
       </c>
     </row>
     <row r="8">
@@ -558,19 +558,19 @@
         <v>38169</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04488377675986745</v>
+        <v>0.0448837767598674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133030913938895</v>
+        <v>0.1330309139388949</v>
       </c>
       <c r="D8" t="n">
         <v>0.1524085329138009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06069586396094274</v>
+        <v>0.06069586396094269</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08198511065789924</v>
+        <v>0.08198511065789918</v>
       </c>
     </row>
     <row r="9">
@@ -578,19 +578,19 @@
         <v>38200</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07446689342749674</v>
+        <v>0.07446689342749657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1626140306065243</v>
+        <v>0.1626140306065241</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1819916495814302</v>
+        <v>0.18199164958143</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09027898062857204</v>
+        <v>0.09027898062857187</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1115682273255285</v>
+        <v>0.1115682273255283</v>
       </c>
     </row>
     <row r="10">
@@ -598,13 +598,13 @@
         <v>38231</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08934504760766268</v>
+        <v>0.08934504760766271</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1774921847866902</v>
+        <v>0.1774921847866903</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1968698037615961</v>
+        <v>0.1968698037615962</v>
       </c>
       <c r="E10" t="n">
         <v>0.105157134808738</v>
@@ -618,19 +618,19 @@
         <v>38261</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05206906321327963</v>
+        <v>0.05206906321327961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1402162003923072</v>
+        <v>0.1402162003923071</v>
       </c>
       <c r="D11" t="n">
         <v>0.1595938193672131</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06788115041435493</v>
+        <v>0.06788115041435491</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08917039711131142</v>
+        <v>0.08917039711131139</v>
       </c>
     </row>
     <row r="12">
@@ -638,19 +638,19 @@
         <v>38292</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05748351150669086</v>
+        <v>0.05748351150669074</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1456306486857184</v>
+        <v>0.1456306486857183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1650082676606243</v>
+        <v>0.1650082676606242</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07329559870776615</v>
+        <v>0.07329559870776603</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09458484540472265</v>
+        <v>0.09458484540472252</v>
       </c>
     </row>
     <row r="13">
@@ -658,19 +658,19 @@
         <v>38322</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08632707145460139</v>
+        <v>0.08632707145460136</v>
       </c>
       <c r="C13" t="n">
         <v>0.1744742086336289</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1938518276085349</v>
+        <v>0.1938518276085348</v>
       </c>
       <c r="E13" t="n">
         <v>0.1021391586556767</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1234284053526332</v>
+        <v>0.1234284053526331</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>38353</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08231704649014192</v>
+        <v>0.08231704649014193</v>
       </c>
       <c r="C14" t="n">
         <v>0.1704641836691695</v>
@@ -687,7 +687,7 @@
         <v>0.1898418026440754</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09812913369121722</v>
+        <v>0.09812913369121723</v>
       </c>
       <c r="F14" t="n">
         <v>0.1194183803881737</v>
@@ -698,7 +698,7 @@
         <v>38384</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07534906112076456</v>
+        <v>0.07534906112076457</v>
       </c>
       <c r="C15" t="n">
         <v>0.1634961982997921</v>
@@ -707,10 +707,10 @@
         <v>0.182873817274698</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09116114832183986</v>
+        <v>0.09116114832183987</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1124503950187963</v>
+        <v>0.1124503950187964</v>
       </c>
     </row>
     <row r="16">
@@ -718,19 +718,19 @@
         <v>38412</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04977157983116669</v>
+        <v>0.04977157983116672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1379187170101942</v>
+        <v>0.1379187170101943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1572963359851001</v>
+        <v>0.1572963359851002</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06558366703224199</v>
+        <v>0.06558366703224201</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08687291372919848</v>
+        <v>0.0868729137291985</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +738,16 @@
         <v>38443</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07365519070759305</v>
+        <v>0.07365519070759298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1618023278866206</v>
+        <v>0.1618023278866205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1811799468615265</v>
+        <v>0.1811799468615264</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08946727790866835</v>
+        <v>0.08946727790866828</v>
       </c>
       <c r="F17" t="n">
         <v>0.1107565246056248</v>
@@ -758,7 +758,7 @@
         <v>38473</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08568968115867936</v>
+        <v>0.08568968115867934</v>
       </c>
       <c r="C18" t="n">
         <v>0.1738368183377069</v>
@@ -767,7 +767,7 @@
         <v>0.1932144373126128</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1015017683597547</v>
+        <v>0.1015017683597546</v>
       </c>
       <c r="F18" t="n">
         <v>0.1227910150567111</v>
@@ -778,19 +778,19 @@
         <v>38504</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05037019360351046</v>
+        <v>0.05037019360351038</v>
       </c>
       <c r="C19" t="n">
-        <v>0.138517330782538</v>
+        <v>0.1385173307825379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1578949497574439</v>
+        <v>0.1578949497574438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06618228080458576</v>
+        <v>0.06618228080458567</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08747152750154225</v>
+        <v>0.08747152750154216</v>
       </c>
     </row>
     <row r="20">
@@ -798,19 +798,19 @@
         <v>38534</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06014255950054043</v>
+        <v>0.06014255950054051</v>
       </c>
       <c r="C20" t="n">
         <v>0.148289696679568</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1676673156544739</v>
+        <v>0.167667315654474</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07595464670161572</v>
+        <v>0.07595464670161581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0972438933985722</v>
+        <v>0.09724389339857228</v>
       </c>
     </row>
     <row r="21">
@@ -818,7 +818,7 @@
         <v>38565</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05484083729530864</v>
+        <v>0.05484083729530867</v>
       </c>
       <c r="C21" t="n">
         <v>0.1429879744743362</v>
@@ -827,10 +827,10 @@
         <v>0.1623655934492421</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07065292449638394</v>
+        <v>0.07065292449638397</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09194217119334042</v>
+        <v>0.09194217119334044</v>
       </c>
     </row>
     <row r="22">
@@ -838,7 +838,7 @@
         <v>38596</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07361806060391565</v>
+        <v>0.07361806060391561</v>
       </c>
       <c r="C22" t="n">
         <v>0.1617651977829432</v>
@@ -847,7 +847,7 @@
         <v>0.1811428167578491</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08943014780499095</v>
+        <v>0.08943014780499091</v>
       </c>
       <c r="F22" t="n">
         <v>0.1107193945019474</v>
@@ -858,19 +858,19 @@
         <v>38626</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04734462618200989</v>
+        <v>0.04734462618201009</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1354917633610374</v>
+        <v>0.1354917633610376</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1548693823359434</v>
+        <v>0.1548693823359436</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06315671338308519</v>
+        <v>0.06315671338308539</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08444596008004168</v>
+        <v>0.08444596008004188</v>
       </c>
     </row>
     <row r="24">
@@ -878,19 +878,19 @@
         <v>38657</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04203293156687278</v>
+        <v>0.04203293156687286</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1301800687459003</v>
+        <v>0.1301800687459004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1495576877208062</v>
+        <v>0.1495576877208063</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05784501876794808</v>
+        <v>0.05784501876794815</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07913426546490457</v>
+        <v>0.07913426546490464</v>
       </c>
     </row>
     <row r="25">
@@ -898,7 +898,7 @@
         <v>38687</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0214932636954917</v>
+        <v>0.02149326369549169</v>
       </c>
       <c r="C25" t="n">
         <v>0.1096404008745192</v>
@@ -910,7 +910,7 @@
         <v>0.03730535089656699</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05859459759352348</v>
+        <v>0.05859459759352347</v>
       </c>
     </row>
     <row r="26">
@@ -918,19 +918,19 @@
         <v>38718</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07296851966767688</v>
+        <v>0.07296851966767678</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1611156568467044</v>
+        <v>0.1611156568467043</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1804932758216103</v>
+        <v>0.1804932758216102</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08878060686875218</v>
+        <v>0.08878060686875208</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1100698535657087</v>
+        <v>0.1100698535657086</v>
       </c>
     </row>
     <row r="27">
@@ -958,19 +958,19 @@
         <v>38777</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09336562692016664</v>
+        <v>0.09336562692016653</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1815127640991942</v>
+        <v>0.1815127640991941</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2008903830741001</v>
+        <v>0.2008903830741</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1091777141212419</v>
+        <v>0.1091777141212418</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1304669608181984</v>
+        <v>0.1304669608181983</v>
       </c>
     </row>
     <row r="29">
@@ -978,7 +978,7 @@
         <v>38808</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03548718734523434</v>
+        <v>0.03548718734523432</v>
       </c>
       <c r="C29" t="n">
         <v>0.1236343245242619</v>
@@ -987,10 +987,10 @@
         <v>0.1430119434991678</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05129927454630964</v>
+        <v>0.05129927454630961</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07258852124326612</v>
+        <v>0.07258852124326609</v>
       </c>
     </row>
     <row r="30">
@@ -998,19 +998,19 @@
         <v>38838</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08564984876358286</v>
+        <v>0.08564984876358274</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1737969859426104</v>
+        <v>0.1737969859426103</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1931746049175163</v>
+        <v>0.1931746049175162</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1014619359646582</v>
+        <v>0.101461935964658</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1227511826616146</v>
+        <v>0.1227511826616145</v>
       </c>
     </row>
     <row r="31">
@@ -1018,19 +1018,19 @@
         <v>38869</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1010963940153166</v>
+        <v>0.1010963940153164</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1892435311943441</v>
+        <v>0.189243531194344</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20862115016925</v>
+        <v>0.2086211501692499</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1169084812163919</v>
+        <v>0.1169084812163917</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1381977279133483</v>
+        <v>0.1381977279133482</v>
       </c>
     </row>
     <row r="32">
@@ -1038,7 +1038,7 @@
         <v>38899</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06992510397749691</v>
+        <v>0.06992510397749695</v>
       </c>
       <c r="C32" t="n">
         <v>0.1580722411565245</v>
@@ -1047,7 +1047,7 @@
         <v>0.1774498601314304</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0857371911785722</v>
+        <v>0.08573719117857224</v>
       </c>
       <c r="F32" t="n">
         <v>0.1070264378755287</v>
@@ -1058,7 +1058,7 @@
         <v>38930</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09664362106849705</v>
+        <v>0.09664362106849708</v>
       </c>
       <c r="C33" t="n">
         <v>0.1847907582475246</v>
@@ -1070,7 +1070,7 @@
         <v>0.1124557082695724</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1337449549665288</v>
+        <v>0.1337449549665289</v>
       </c>
     </row>
     <row r="34">
@@ -1078,19 +1078,19 @@
         <v>38961</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07011203561422946</v>
+        <v>0.07011203561422952</v>
       </c>
       <c r="C34" t="n">
-        <v>0.158259172793257</v>
+        <v>0.1582591727932571</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1776367917681629</v>
+        <v>0.177636791768163</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08592412281530476</v>
+        <v>0.08592412281530482</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1072133695122612</v>
+        <v>0.1072133695122613</v>
       </c>
     </row>
     <row r="35">
@@ -1098,19 +1098,19 @@
         <v>38991</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1227551391052588</v>
+        <v>0.1227551391052586</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2109022762842863</v>
+        <v>0.2109022762842861</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2302798952591923</v>
+        <v>0.2302798952591921</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1385672263063341</v>
+        <v>0.1385672263063339</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1598564730032906</v>
+        <v>0.1598564730032904</v>
       </c>
     </row>
     <row r="36">
@@ -1118,16 +1118,16 @@
         <v>39022</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09341996540246766</v>
+        <v>0.09341996540246758</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1815671025814952</v>
+        <v>0.1815671025814951</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2009447215564011</v>
+        <v>0.200944721556401</v>
       </c>
       <c r="E36" t="n">
-        <v>0.109232052603543</v>
+        <v>0.1092320526035429</v>
       </c>
       <c r="F36" t="n">
         <v>0.1305212993004994</v>
@@ -1138,19 +1138,19 @@
         <v>39052</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07990758068658309</v>
+        <v>0.07990758068658327</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1680547178656106</v>
+        <v>0.1680547178656108</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1874323368405166</v>
+        <v>0.1874323368405167</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09571966788765839</v>
+        <v>0.09571966788765857</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1170089145846149</v>
+        <v>0.117008914584615</v>
       </c>
     </row>
     <row r="38">
@@ -1158,19 +1158,19 @@
         <v>39083</v>
       </c>
       <c r="B38" t="n">
-        <v>0.091230737312659</v>
+        <v>0.09123073731265913</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1793778744916865</v>
+        <v>0.1793778744916867</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1987554934665925</v>
+        <v>0.1987554934665926</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1070428245137343</v>
+        <v>0.1070428245137344</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1283320712106908</v>
+        <v>0.1283320712106909</v>
       </c>
     </row>
     <row r="39">
@@ -1178,19 +1178,19 @@
         <v>39114</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07930993979131779</v>
+        <v>0.07930993979131776</v>
       </c>
       <c r="C39" t="n">
         <v>0.1674570769703453</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1868346959452513</v>
+        <v>0.1868346959452512</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09512202699239308</v>
+        <v>0.09512202699239306</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1164112736893496</v>
+        <v>0.1164112736893495</v>
       </c>
     </row>
     <row r="40">
@@ -1201,10 +1201,10 @@
         <v>0.1172880406749352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2054351778539627</v>
+        <v>0.2054351778539628</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2248127968288686</v>
+        <v>0.2248127968288687</v>
       </c>
       <c r="E40" t="n">
         <v>0.1331001278760105</v>
@@ -1218,13 +1218,13 @@
         <v>39173</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09588409425114924</v>
+        <v>0.09588409425114917</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1840312314301768</v>
+        <v>0.1840312314301767</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2034088504050827</v>
+        <v>0.2034088504050826</v>
       </c>
       <c r="E41" t="n">
         <v>0.1116961814522245</v>
@@ -1238,13 +1238,13 @@
         <v>39203</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08490161866188559</v>
+        <v>0.08490161866188563</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1730487558409131</v>
+        <v>0.1730487558409132</v>
       </c>
       <c r="D42" t="n">
-        <v>0.192426374815819</v>
+        <v>0.1924263748158191</v>
       </c>
       <c r="E42" t="n">
         <v>0.1007137058629609</v>
@@ -1258,16 +1258,16 @@
         <v>39234</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1067392372150465</v>
+        <v>0.1067392372150464</v>
       </c>
       <c r="C43" t="n">
-        <v>0.194886374394074</v>
+        <v>0.1948863743940739</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2142639933689799</v>
+        <v>0.2142639933689798</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1225513244161218</v>
+        <v>0.1225513244161217</v>
       </c>
       <c r="F43" t="n">
         <v>0.1438405711130782</v>
@@ -1278,19 +1278,19 @@
         <v>39264</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1171387416876793</v>
+        <v>0.1171387416876791</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2052858788667068</v>
+        <v>0.2052858788667067</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2246634978416127</v>
+        <v>0.2246634978416126</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1329508288887546</v>
+        <v>0.1329508288887544</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1542400755857111</v>
+        <v>0.1542400755857109</v>
       </c>
     </row>
     <row r="45">
@@ -1298,7 +1298,7 @@
         <v>39295</v>
       </c>
       <c r="B45" t="n">
-        <v>0.09859490807588456</v>
+        <v>0.09859490807588454</v>
       </c>
       <c r="C45" t="n">
         <v>0.1867420452549121</v>
@@ -1307,7 +1307,7 @@
         <v>0.206119664229818</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1144069952769599</v>
+        <v>0.1144069952769598</v>
       </c>
       <c r="F45" t="n">
         <v>0.1356962419739163</v>
@@ -1318,19 +1318,19 @@
         <v>39326</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07827168730585438</v>
+        <v>0.07827168730585447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1664188244848819</v>
+        <v>0.166418824484882</v>
       </c>
       <c r="D46" t="n">
         <v>0.1857964434597879</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09408377450692967</v>
+        <v>0.09408377450692977</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1153730212038862</v>
+        <v>0.1153730212038863</v>
       </c>
     </row>
     <row r="47">
@@ -1338,7 +1338,7 @@
         <v>39356</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08562651988028493</v>
+        <v>0.08562651988028497</v>
       </c>
       <c r="C47" t="n">
         <v>0.1737736570593125</v>
@@ -1347,7 +1347,7 @@
         <v>0.1931512760342184</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1014386070813602</v>
+        <v>0.1014386070813603</v>
       </c>
       <c r="F47" t="n">
         <v>0.1227278537783167</v>
@@ -1358,19 +1358,19 @@
         <v>39387</v>
       </c>
       <c r="B48" t="n">
-        <v>0.107455453147029</v>
+        <v>0.1074554531470292</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1956025903260566</v>
+        <v>0.1956025903260567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2149802093009625</v>
+        <v>0.2149802093009626</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1232675403481043</v>
+        <v>0.1232675403481045</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1445567870450608</v>
+        <v>0.1445567870450609</v>
       </c>
     </row>
     <row r="49">
@@ -1378,7 +1378,7 @@
         <v>39417</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1089212188183336</v>
+        <v>0.1089212188183335</v>
       </c>
       <c r="C49" t="n">
         <v>0.1970683559973611</v>
@@ -1387,7 +1387,7 @@
         <v>0.216445974972267</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1247333060194089</v>
+        <v>0.1247333060194088</v>
       </c>
       <c r="F49" t="n">
         <v>0.1460225527163653</v>
@@ -1398,19 +1398,19 @@
         <v>39448</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1329828420697954</v>
+        <v>0.1329828420697953</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221129979248823</v>
+        <v>0.2211299792488229</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2405075982237289</v>
+        <v>0.2405075982237288</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1487949292708707</v>
+        <v>0.1487949292708706</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1700841759678272</v>
+        <v>0.1700841759678271</v>
       </c>
     </row>
     <row r="51">
@@ -1421,16 +1421,16 @@
         <v>0.1258065239634312</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2139536611424587</v>
+        <v>0.2139536611424588</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2333312801173646</v>
+        <v>0.2333312801173647</v>
       </c>
       <c r="E51" t="n">
         <v>0.1416186111645065</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1629078578614629</v>
+        <v>0.162907857861463</v>
       </c>
     </row>
     <row r="52">
@@ -1438,19 +1438,19 @@
         <v>39508</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05951373546730801</v>
+        <v>0.05951373546730815</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1476608726463355</v>
+        <v>0.1476608726463357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1670384916212415</v>
+        <v>0.1670384916212416</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07532582266838331</v>
+        <v>0.07532582266838345</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09661506936533978</v>
+        <v>0.09661506936533992</v>
       </c>
     </row>
     <row r="53">
@@ -1458,19 +1458,19 @@
         <v>39539</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1569054068655436</v>
+        <v>0.1569054068655439</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2450525440445711</v>
+        <v>0.2450525440445714</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264430163019477</v>
+        <v>0.2644301630194774</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1727174940666189</v>
+        <v>0.1727174940666192</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1940067407635754</v>
+        <v>0.1940067407635757</v>
       </c>
     </row>
     <row r="54">
@@ -1498,19 +1498,19 @@
         <v>39600</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1145696019926873</v>
+        <v>0.1145696019926874</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2027167391717148</v>
+        <v>0.202716739171715</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2220943581466207</v>
+        <v>0.2220943581466209</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1303816891937626</v>
+        <v>0.1303816891937627</v>
       </c>
       <c r="F55" t="n">
-        <v>0.151670935890719</v>
+        <v>0.1516709358907192</v>
       </c>
     </row>
     <row r="56">
@@ -1518,19 +1518,19 @@
         <v>39630</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1222988528580319</v>
+        <v>0.1222988528580317</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2104459900370595</v>
+        <v>0.2104459900370592</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2298236090119654</v>
+        <v>0.2298236090119651</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1381109400591072</v>
+        <v>0.138110940059107</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1594001867560637</v>
+        <v>0.1594001867560635</v>
       </c>
     </row>
     <row r="57">
@@ -1541,7 +1541,7 @@
         <v>0.1158686305076282</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2040157676866558</v>
+        <v>0.2040157676866557</v>
       </c>
       <c r="D57" t="n">
         <v>0.2233933866615617</v>
@@ -1558,19 +1558,19 @@
         <v>39692</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1048368896388687</v>
+        <v>0.1048368896388688</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1929840268178962</v>
+        <v>0.1929840268178963</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2123616457928021</v>
+        <v>0.2123616457928022</v>
       </c>
       <c r="E58" t="n">
-        <v>0.120648976839944</v>
+        <v>0.1206489768399441</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1419382235369005</v>
+        <v>0.1419382235369006</v>
       </c>
     </row>
     <row r="59">
@@ -1578,16 +1578,16 @@
         <v>39722</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09609708149581717</v>
+        <v>0.09609708149581707</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1842442186748447</v>
+        <v>0.1842442186748446</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2036218376497506</v>
+        <v>0.2036218376497505</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1119091686968925</v>
+        <v>0.1119091686968924</v>
       </c>
       <c r="F59" t="n">
         <v>0.1331984153938489</v>
@@ -1598,19 +1598,19 @@
         <v>39753</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04300077377673637</v>
+        <v>0.04300077377673647</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1311479109557639</v>
+        <v>0.131147910955764</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1505255299306698</v>
+        <v>0.1505255299306699</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05881286097781166</v>
+        <v>0.05881286097781176</v>
       </c>
       <c r="F60" t="n">
-        <v>0.08010210767476815</v>
+        <v>0.08010210767476825</v>
       </c>
     </row>
     <row r="61">
@@ -1618,19 +1618,19 @@
         <v>39783</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03722721756167951</v>
+        <v>0.03722721756167952</v>
       </c>
       <c r="C61" t="n">
-        <v>0.125374354740707</v>
+        <v>0.1253743547407071</v>
       </c>
       <c r="D61" t="n">
         <v>0.144751973715613</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0530393047627548</v>
+        <v>0.05303930476275481</v>
       </c>
       <c r="F61" t="n">
-        <v>0.07432855145971129</v>
+        <v>0.0743285514597113</v>
       </c>
     </row>
     <row r="62">
@@ -1638,19 +1638,19 @@
         <v>39814</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0399332781926742</v>
+        <v>0.03993327819267429</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1280804153717017</v>
+        <v>0.1280804153717018</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1474580343466076</v>
+        <v>0.1474580343466078</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0557453653937495</v>
+        <v>0.05574536539374958</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07703461209070597</v>
+        <v>0.07703461209070607</v>
       </c>
     </row>
     <row r="63">
@@ -1658,19 +1658,19 @@
         <v>39845</v>
       </c>
       <c r="B63" t="n">
-        <v>0.003237591553988617</v>
+        <v>0.003237591553988554</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09138472873301616</v>
+        <v>0.09138472873301609</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1107623477079221</v>
+        <v>0.110762347707922</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01904967875506391</v>
+        <v>0.01904967875506385</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0403389254520204</v>
+        <v>0.04033892545202034</v>
       </c>
     </row>
     <row r="64">
@@ -1678,19 +1678,19 @@
         <v>39873</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06178339674843673</v>
+        <v>0.06178339674843682</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1499305339274643</v>
+        <v>0.1499305339274644</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1693081529023702</v>
+        <v>0.1693081529023703</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07759548394951203</v>
+        <v>0.07759548394951211</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09888473064646852</v>
+        <v>0.0988847306464686</v>
       </c>
     </row>
     <row r="65">
@@ -1698,19 +1698,19 @@
         <v>39904</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01064069544364461</v>
+        <v>-0.01064069544364474</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07750644173538293</v>
+        <v>0.07750644173538281</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09688406071028885</v>
+        <v>0.09688406071028872</v>
       </c>
       <c r="E65" t="n">
-        <v>0.005171391757430682</v>
+        <v>0.005171391757430557</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02646063845438717</v>
+        <v>0.02646063845438704</v>
       </c>
     </row>
     <row r="66">
@@ -1718,19 +1718,19 @@
         <v>39934</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0003297596924037027</v>
+        <v>0.000329759692403675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08847689687143125</v>
+        <v>0.08847689687143122</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1078545158463372</v>
+        <v>0.1078545158463371</v>
       </c>
       <c r="E66" t="n">
-        <v>0.016141846893479</v>
+        <v>0.01614184689347897</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03743109359043548</v>
+        <v>0.03743109359043546</v>
       </c>
     </row>
     <row r="67">
@@ -1758,19 +1758,19 @@
         <v>39995</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.01695500222418286</v>
+        <v>-0.01695500222418261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07119213495484468</v>
+        <v>0.07119213495484493</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0905697539297506</v>
+        <v>0.09056975392975085</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.001142915023107569</v>
+        <v>-0.001142915023107319</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02014633167384892</v>
+        <v>0.02014633167384917</v>
       </c>
     </row>
     <row r="69">
@@ -1778,19 +1778,19 @@
         <v>40026</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.02263028379430729</v>
+        <v>-0.02263028379430718</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06551685338472026</v>
+        <v>0.06551685338472037</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08489447235962617</v>
+        <v>0.08489447235962629</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.006818196593231993</v>
+        <v>-0.006818196593231882</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01447105010372449</v>
+        <v>0.0144710501037246</v>
       </c>
     </row>
     <row r="70">
@@ -1798,19 +1798,19 @@
         <v>40057</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02392634680951577</v>
+        <v>0.02392634680951568</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1120734839885433</v>
+        <v>0.1120734839885432</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1314511029634493</v>
+        <v>0.1314511029634491</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03973843401059107</v>
+        <v>0.03973843401059098</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06102768070754756</v>
+        <v>0.06102768070754746</v>
       </c>
     </row>
     <row r="71">
@@ -1818,19 +1818,19 @@
         <v>40087</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009185610001049595</v>
+        <v>0.009185610001049713</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09733274718007714</v>
+        <v>0.09733274718007726</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1167103661549831</v>
+        <v>0.1167103661549832</v>
       </c>
       <c r="E71" t="n">
-        <v>0.02499769720212489</v>
+        <v>0.02499769720212501</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04628694389908138</v>
+        <v>0.04628694389908149</v>
       </c>
     </row>
     <row r="72">
@@ -1838,19 +1838,19 @@
         <v>40118</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01337947480557942</v>
+        <v>0.01337947480557938</v>
       </c>
       <c r="C72" t="n">
-        <v>0.101526611984607</v>
+        <v>0.1015266119846069</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1209042309595129</v>
+        <v>0.1209042309595128</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02919156200665472</v>
+        <v>0.02919156200665468</v>
       </c>
       <c r="F72" t="n">
-        <v>0.05048080870361121</v>
+        <v>0.05048080870361116</v>
       </c>
     </row>
     <row r="73">
@@ -1878,19 +1878,19 @@
         <v>40179</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02707448985243059</v>
+        <v>0.02707448985243056</v>
       </c>
       <c r="C74" t="n">
         <v>0.1152216270314581</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1345992460063641</v>
+        <v>0.134599246006364</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04288657705350589</v>
+        <v>0.04288657705350585</v>
       </c>
       <c r="F74" t="n">
-        <v>0.06417582375046238</v>
+        <v>0.06417582375046234</v>
       </c>
     </row>
     <row r="75">
@@ -1898,19 +1898,19 @@
         <v>40210</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05648908819954718</v>
+        <v>0.05648908819954726</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1446362253785747</v>
+        <v>0.1446362253785748</v>
       </c>
       <c r="D75" t="n">
         <v>0.1640138443534807</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07230117540062247</v>
+        <v>0.07230117540062256</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09359042209757895</v>
+        <v>0.09359042209757903</v>
       </c>
     </row>
     <row r="76">
@@ -1918,19 +1918,19 @@
         <v>40238</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07520349096549354</v>
+        <v>0.07520349096549347</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1633506281445211</v>
+        <v>0.163350628144521</v>
       </c>
       <c r="D76" t="n">
-        <v>0.182728247119427</v>
+        <v>0.1827282471194269</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09101557816656884</v>
+        <v>0.09101557816656877</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1123048248635253</v>
+        <v>0.1123048248635252</v>
       </c>
     </row>
     <row r="77">
@@ -1938,16 +1938,16 @@
         <v>40269</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08005007703582678</v>
+        <v>0.08005007703582677</v>
       </c>
       <c r="C77" t="n">
         <v>0.1681972142148543</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1875748331897603</v>
+        <v>0.1875748331897602</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09586216423690208</v>
+        <v>0.09586216423690207</v>
       </c>
       <c r="F77" t="n">
         <v>0.1171514109338586</v>
@@ -1958,19 +1958,19 @@
         <v>40299</v>
       </c>
       <c r="B78" t="n">
-        <v>0.04684638471381931</v>
+        <v>0.04684638471381894</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1349935218928469</v>
+        <v>0.1349935218928465</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1543711408677528</v>
+        <v>0.1543711408677524</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06265847191489461</v>
+        <v>0.06265847191489424</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0839477186118511</v>
+        <v>0.08394771861185071</v>
       </c>
     </row>
     <row r="79">
@@ -1978,19 +1978,19 @@
         <v>40330</v>
       </c>
       <c r="B79" t="n">
-        <v>0.05582503353242192</v>
+        <v>0.05582503353242189</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1439721707114495</v>
+        <v>0.1439721707114494</v>
       </c>
       <c r="D79" t="n">
         <v>0.1633497896863554</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07163712073349722</v>
+        <v>0.07163712073349718</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09292636743045371</v>
+        <v>0.09292636743045367</v>
       </c>
     </row>
     <row r="80">
@@ -1998,7 +1998,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05371198945195995</v>
+        <v>0.05371198945195994</v>
       </c>
       <c r="C80" t="n">
         <v>0.1418591266309875</v>
@@ -2007,10 +2007,10 @@
         <v>0.1612367456058934</v>
       </c>
       <c r="E80" t="n">
-        <v>0.06952407665303524</v>
+        <v>0.06952407665303523</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09081332334999173</v>
+        <v>0.09081332334999172</v>
       </c>
     </row>
     <row r="81">
@@ -2018,19 +2018,19 @@
         <v>40391</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07990685794765098</v>
+        <v>0.07990685794765122</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1680539951266785</v>
+        <v>0.1680539951266788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1874316141015844</v>
+        <v>0.1874316141015847</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09571894514872628</v>
+        <v>0.09571894514872652</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1170081918456828</v>
+        <v>0.117008191845683</v>
       </c>
     </row>
     <row r="82">
@@ -2038,19 +2038,19 @@
         <v>40422</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04986078603143274</v>
+        <v>0.04986078603143285</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1380079232104603</v>
+        <v>0.1380079232104604</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1573855421853662</v>
+        <v>0.1573855421853663</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06567287323250803</v>
+        <v>0.06567287323250814</v>
       </c>
       <c r="F82" t="n">
-        <v>0.08696211992946451</v>
+        <v>0.08696211992946462</v>
       </c>
     </row>
     <row r="83">
@@ -2058,7 +2058,7 @@
         <v>40452</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0439896933177168</v>
+        <v>0.04398969331771684</v>
       </c>
       <c r="C83" t="n">
         <v>0.1321368304967444</v>
@@ -2067,10 +2067,10 @@
         <v>0.1515144494716503</v>
       </c>
       <c r="E83" t="n">
-        <v>0.05980178051879209</v>
+        <v>0.05980178051879213</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08109102721574858</v>
+        <v>0.08109102721574862</v>
       </c>
     </row>
     <row r="84">
@@ -2098,19 +2098,19 @@
         <v>40513</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07908331130782109</v>
+        <v>0.07908331130782106</v>
       </c>
       <c r="C85" t="n">
         <v>0.1672304484868486</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1866080674617546</v>
+        <v>0.1866080674617545</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09489539850889639</v>
+        <v>0.09489539850889636</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1161846452058529</v>
+        <v>0.1161846452058528</v>
       </c>
     </row>
     <row r="86">
@@ -2118,19 +2118,19 @@
         <v>40544</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05649409685747178</v>
+        <v>0.05649409685747201</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1446412340364993</v>
+        <v>0.1446412340364996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1640188530114052</v>
+        <v>0.1640188530114055</v>
       </c>
       <c r="E86" t="n">
-        <v>0.07230618405854708</v>
+        <v>0.0723061840585473</v>
       </c>
       <c r="F86" t="n">
-        <v>0.09359543075550356</v>
+        <v>0.09359543075550379</v>
       </c>
     </row>
     <row r="87">
@@ -2138,7 +2138,7 @@
         <v>40575</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09022209499946128</v>
+        <v>0.09022209499946124</v>
       </c>
       <c r="C87" t="n">
         <v>0.1783692321784888</v>
@@ -2147,10 +2147,10 @@
         <v>0.1977468511533947</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1060341822005366</v>
+        <v>0.1060341822005365</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1273234288974931</v>
+        <v>0.127323428897493</v>
       </c>
     </row>
     <row r="88">
@@ -2158,19 +2158,19 @@
         <v>40603</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03899809288625602</v>
+        <v>0.03899809288625613</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1271452300652836</v>
+        <v>0.1271452300652837</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1465228490401895</v>
+        <v>0.1465228490401896</v>
       </c>
       <c r="E88" t="n">
-        <v>0.05481018008733131</v>
+        <v>0.05481018008733142</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0760994267842878</v>
+        <v>0.07609942678428791</v>
       </c>
     </row>
     <row r="89">
@@ -2178,19 +2178,19 @@
         <v>40634</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07789532780344383</v>
+        <v>0.07789532780344374</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1660424649824714</v>
+        <v>0.1660424649824713</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1854200839573773</v>
+        <v>0.1854200839573772</v>
       </c>
       <c r="E89" t="n">
-        <v>0.09370741500451912</v>
+        <v>0.09370741500451904</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1149966617014756</v>
+        <v>0.1149966617014755</v>
       </c>
     </row>
     <row r="90">
@@ -2198,19 +2198,19 @@
         <v>40664</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1203418595702509</v>
+        <v>0.120341859570251</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2084889967492784</v>
+        <v>0.2084889967492785</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2278666157241843</v>
+        <v>0.2278666157241844</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1361539467713262</v>
+        <v>0.1361539467713263</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1574431934682826</v>
+        <v>0.1574431934682828</v>
       </c>
     </row>
     <row r="91">
@@ -2218,19 +2218,19 @@
         <v>40695</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07673200623048748</v>
+        <v>0.07673200623048761</v>
       </c>
       <c r="C91" t="n">
-        <v>0.164879143409515</v>
+        <v>0.1648791434095151</v>
       </c>
       <c r="D91" t="n">
-        <v>0.184256762384421</v>
+        <v>0.1842567623844211</v>
       </c>
       <c r="E91" t="n">
-        <v>0.09254409343156278</v>
+        <v>0.0925440934315629</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1138333401285193</v>
+        <v>0.1138333401285194</v>
       </c>
     </row>
     <row r="92">
@@ -2238,19 +2238,19 @@
         <v>40725</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06099014845814948</v>
+        <v>0.06099014845814975</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149137285637177</v>
+        <v>0.1491372856371773</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168514904612083</v>
+        <v>0.1685149046120832</v>
       </c>
       <c r="E92" t="n">
-        <v>0.07680223565922478</v>
+        <v>0.07680223565922505</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09809148235618126</v>
+        <v>0.09809148235618154</v>
       </c>
     </row>
     <row r="93">
@@ -2258,19 +2258,19 @@
         <v>40756</v>
       </c>
       <c r="B93" t="n">
-        <v>0.09442829630296988</v>
+        <v>0.09442829630296974</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1825754334819974</v>
+        <v>0.1825754334819973</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2019530524569033</v>
+        <v>0.2019530524569032</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1102403835040452</v>
+        <v>0.110240383504045</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1315296302010017</v>
+        <v>0.1315296302010015</v>
       </c>
     </row>
     <row r="94">
@@ -2278,7 +2278,7 @@
         <v>40787</v>
       </c>
       <c r="B94" t="n">
-        <v>0.08635679083429107</v>
+        <v>0.08635679083429104</v>
       </c>
       <c r="C94" t="n">
         <v>0.1745039280133186</v>
@@ -2287,7 +2287,7 @@
         <v>0.1938815469882245</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1021688780353664</v>
+        <v>0.1021688780353663</v>
       </c>
       <c r="F94" t="n">
         <v>0.1234581247323228</v>
@@ -2298,19 +2298,19 @@
         <v>40817</v>
       </c>
       <c r="B95" t="n">
-        <v>0.09272816550007779</v>
+        <v>0.09272816550007769</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1808753026791053</v>
+        <v>0.1808753026791052</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2002529216540113</v>
+        <v>0.2002529216540112</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1085402527011531</v>
+        <v>0.108540252701153</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1298294993981096</v>
+        <v>0.1298294993981095</v>
       </c>
     </row>
     <row r="96">
@@ -2324,13 +2324,13 @@
         <v>0.2071681069182917</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2265457258931976</v>
+        <v>0.2265457258931977</v>
       </c>
       <c r="E96" t="n">
         <v>0.1348330569403395</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1561223036372959</v>
+        <v>0.156122303637296</v>
       </c>
     </row>
     <row r="97">
@@ -2338,19 +2338,19 @@
         <v>40878</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1238115558685169</v>
+        <v>0.123811555868517</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2119586930475445</v>
+        <v>0.2119586930475446</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2313363120224504</v>
+        <v>0.2313363120224505</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1396236430695922</v>
+        <v>0.1396236430695923</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1609128897665487</v>
+        <v>0.1609128897665488</v>
       </c>
     </row>
     <row r="98">
@@ -2358,7 +2358,7 @@
         <v>40909</v>
       </c>
       <c r="B98" t="n">
-        <v>0.09825007627348839</v>
+        <v>0.09825007627348836</v>
       </c>
       <c r="C98" t="n">
         <v>0.1863972134525159</v>
@@ -2370,7 +2370,7 @@
         <v>0.1140621634745637</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1353514101715202</v>
+        <v>0.1353514101715201</v>
       </c>
     </row>
     <row r="99">
@@ -2378,7 +2378,7 @@
         <v>40940</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08869336599042635</v>
+        <v>0.08869336599042636</v>
       </c>
       <c r="C99" t="n">
         <v>0.1768405031694539</v>
@@ -2387,10 +2387,10 @@
         <v>0.1962181221443598</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1045054531915016</v>
+        <v>0.1045054531915017</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1257946998884581</v>
+        <v>0.1257946998884582</v>
       </c>
     </row>
     <row r="100">
@@ -2398,19 +2398,19 @@
         <v>40969</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1375032689602106</v>
+        <v>0.1375032689602104</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2256504061392381</v>
+        <v>0.225650406139238</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2450280251141441</v>
+        <v>0.2450280251141439</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1533153561612859</v>
+        <v>0.1533153561612857</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1746046028582424</v>
+        <v>0.1746046028582422</v>
       </c>
     </row>
     <row r="101">
@@ -2438,13 +2438,13 @@
         <v>41030</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0947552682393127</v>
+        <v>0.09475526823931267</v>
       </c>
       <c r="C102" t="n">
         <v>0.1829024054183402</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2022800243932462</v>
+        <v>0.2022800243932461</v>
       </c>
       <c r="E102" t="n">
         <v>0.110567355440388</v>
@@ -2458,7 +2458,7 @@
         <v>41061</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1061990340347179</v>
+        <v>0.1061990340347178</v>
       </c>
       <c r="C103" t="n">
         <v>0.1943461712137454</v>
@@ -2467,7 +2467,7 @@
         <v>0.2137237901886513</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1220111212357932</v>
+        <v>0.1220111212357931</v>
       </c>
       <c r="F103" t="n">
         <v>0.1433003679327496</v>
@@ -2478,19 +2478,19 @@
         <v>41091</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1399684046210044</v>
+        <v>0.1399684046210043</v>
       </c>
       <c r="C104" t="n">
-        <v>0.228115541800032</v>
+        <v>0.2281155418000319</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2474931607749379</v>
+        <v>0.2474931607749378</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1557804918220797</v>
+        <v>0.1557804918220796</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1770697385190362</v>
+        <v>0.1770697385190361</v>
       </c>
     </row>
     <row r="105">
@@ -2498,10 +2498,10 @@
         <v>41122</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0920450251029563</v>
+        <v>0.09204502510295633</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1801921622819838</v>
+        <v>0.1801921622819839</v>
       </c>
       <c r="D105" t="n">
         <v>0.1995697812568898</v>
@@ -2518,7 +2518,7 @@
         <v>41153</v>
       </c>
       <c r="B106" t="n">
-        <v>0.06938305785286002</v>
+        <v>0.06938305785286003</v>
       </c>
       <c r="C106" t="n">
         <v>0.1575301950318876</v>
@@ -2527,7 +2527,7 @@
         <v>0.1769078140067935</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08519514505393531</v>
+        <v>0.08519514505393533</v>
       </c>
       <c r="F106" t="n">
         <v>0.1064843917508918</v>
@@ -2538,7 +2538,7 @@
         <v>41183</v>
       </c>
       <c r="B107" t="n">
-        <v>0.06793923697923554</v>
+        <v>0.06793923697923555</v>
       </c>
       <c r="C107" t="n">
         <v>0.1560863741582631</v>
@@ -2547,7 +2547,7 @@
         <v>0.175463993133169</v>
       </c>
       <c r="E107" t="n">
-        <v>0.08375132418031084</v>
+        <v>0.08375132418031085</v>
       </c>
       <c r="F107" t="n">
         <v>0.1050405708772673</v>
@@ -2558,19 +2558,19 @@
         <v>41214</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1089982877850367</v>
+        <v>0.1089982877850366</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1971454249640643</v>
+        <v>0.1971454249640641</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2165230439389702</v>
+        <v>0.21652304393897</v>
       </c>
       <c r="E108" t="n">
-        <v>0.124810374986112</v>
+        <v>0.1248103749861119</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1460996216830685</v>
+        <v>0.1460996216830684</v>
       </c>
     </row>
     <row r="109">
@@ -2578,19 +2578,19 @@
         <v>41244</v>
       </c>
       <c r="B109" t="n">
-        <v>0.07191665959492695</v>
+        <v>0.07191665959492706</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1600637967739545</v>
+        <v>0.1600637967739546</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1794414157488604</v>
+        <v>0.1794414157488605</v>
       </c>
       <c r="E109" t="n">
-        <v>0.08772874679600225</v>
+        <v>0.08772874679600236</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1090179934929587</v>
+        <v>0.1090179934929588</v>
       </c>
     </row>
     <row r="110">
@@ -2598,19 +2598,19 @@
         <v>41275</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08604086294643178</v>
+        <v>0.08604086294643165</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1741880001254593</v>
+        <v>0.1741880001254592</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1935656191003652</v>
+        <v>0.1935656191003651</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1018529501475071</v>
+        <v>0.1018529501475069</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1231421968444636</v>
+        <v>0.1231421968444634</v>
       </c>
     </row>
     <row r="111">
@@ -2618,19 +2618,19 @@
         <v>41306</v>
       </c>
       <c r="B111" t="n">
-        <v>0.06790623903203068</v>
+        <v>0.06790623903203083</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1560533762110582</v>
+        <v>0.1560533762110584</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1754309951859641</v>
+        <v>0.1754309951859643</v>
       </c>
       <c r="E111" t="n">
-        <v>0.08371832623310597</v>
+        <v>0.08371832623310613</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1050075729300625</v>
+        <v>0.1050075729300626</v>
       </c>
     </row>
     <row r="112">
@@ -2638,16 +2638,16 @@
         <v>41334</v>
       </c>
       <c r="B112" t="n">
-        <v>0.06362919654092879</v>
+        <v>0.0636291965409288</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1517763337199563</v>
+        <v>0.1517763337199564</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1711539526948622</v>
+        <v>0.1711539526948623</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07944128374200408</v>
+        <v>0.0794412837420041</v>
       </c>
       <c r="F112" t="n">
         <v>0.1007305304389606</v>
@@ -2661,7 +2661,7 @@
         <v>0.1038719179348502</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1920190551138778</v>
+        <v>0.1920190551138777</v>
       </c>
       <c r="D113" t="n">
         <v>0.2113966740887837</v>
@@ -2678,16 +2678,16 @@
         <v>41395</v>
       </c>
       <c r="B114" t="n">
-        <v>0.07936776844958368</v>
+        <v>0.07936776844958374</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1675149056286112</v>
+        <v>0.1675149056286113</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1868925246035171</v>
+        <v>0.1868925246035172</v>
       </c>
       <c r="E114" t="n">
-        <v>0.09517985565065898</v>
+        <v>0.09517985565065903</v>
       </c>
       <c r="F114" t="n">
         <v>0.1164691023476155</v>
@@ -2698,19 +2698,19 @@
         <v>41426</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0722975536269055</v>
+        <v>0.07229755362690546</v>
       </c>
       <c r="C115" t="n">
         <v>0.160444690805933</v>
       </c>
       <c r="D115" t="n">
-        <v>0.179822309780839</v>
+        <v>0.1798223097808389</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0881096408279808</v>
+        <v>0.08810964082798076</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1093988875249373</v>
+        <v>0.1093988875249372</v>
       </c>
     </row>
     <row r="116">
@@ -2718,19 +2718,19 @@
         <v>41456</v>
       </c>
       <c r="B116" t="n">
-        <v>0.06840603690876172</v>
+        <v>0.06840603690876183</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1565531740877893</v>
+        <v>0.1565531740877894</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1759307930626952</v>
+        <v>0.1759307930626953</v>
       </c>
       <c r="E116" t="n">
-        <v>0.08421812410983702</v>
+        <v>0.08421812410983713</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1055073708067935</v>
+        <v>0.1055073708067936</v>
       </c>
     </row>
     <row r="117">
@@ -2738,19 +2738,19 @@
         <v>41487</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0755276602985291</v>
+        <v>0.07552766029852906</v>
       </c>
       <c r="C117" t="n">
         <v>0.1636747974775566</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1830524164524626</v>
+        <v>0.1830524164524625</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0913397474996044</v>
+        <v>0.09133974749960436</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1126289941965609</v>
+        <v>0.1126289941965608</v>
       </c>
     </row>
     <row r="118">
@@ -2758,7 +2758,7 @@
         <v>41518</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0895249921956989</v>
+        <v>0.08952499219569882</v>
       </c>
       <c r="C118" t="n">
         <v>0.1776721293747264</v>
@@ -2767,10 +2767,10 @@
         <v>0.1970497483496323</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1053370793967742</v>
+        <v>0.1053370793967741</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1266263260937307</v>
+        <v>0.1266263260937306</v>
       </c>
     </row>
     <row r="119">
@@ -2781,16 +2781,16 @@
         <v>0.1237413786138932</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2118885157929208</v>
+        <v>0.2118885157929207</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2312661347678267</v>
+        <v>0.2312661347678266</v>
       </c>
       <c r="E119" t="n">
         <v>0.1395534658149685</v>
       </c>
       <c r="F119" t="n">
-        <v>0.160842712511925</v>
+        <v>0.1608427125119249</v>
       </c>
     </row>
     <row r="120">
@@ -2798,19 +2798,19 @@
         <v>41579</v>
       </c>
       <c r="B120" t="n">
-        <v>0.08338874630088647</v>
+        <v>0.08338874630088652</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171535883479914</v>
+        <v>0.1715358834799141</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1909135024548199</v>
+        <v>0.19091350245482</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09920083350196177</v>
+        <v>0.09920083350196182</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1204900801989182</v>
+        <v>0.1204900801989183</v>
       </c>
     </row>
     <row r="121">
@@ -2818,7 +2818,7 @@
         <v>41609</v>
       </c>
       <c r="B121" t="n">
-        <v>0.09207405210252845</v>
+        <v>0.09207405210252843</v>
       </c>
       <c r="C121" t="n">
         <v>0.180221189281556</v>
@@ -2838,19 +2838,19 @@
         <v>41640</v>
       </c>
       <c r="B122" t="n">
-        <v>0.04656554190780876</v>
+        <v>0.04656554190780887</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1347126790868363</v>
+        <v>0.1347126790868364</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1540902980617422</v>
+        <v>0.1540902980617423</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06237762910888406</v>
+        <v>0.06237762910888417</v>
       </c>
       <c r="F122" t="n">
-        <v>0.08366687580584053</v>
+        <v>0.08366687580584065</v>
       </c>
     </row>
     <row r="123">
@@ -2858,7 +2858,7 @@
         <v>41671</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05225534135864639</v>
+        <v>0.05225534135864635</v>
       </c>
       <c r="C123" t="n">
         <v>0.1404024785376739</v>
@@ -2867,10 +2867,10 @@
         <v>0.1597800975125798</v>
       </c>
       <c r="E123" t="n">
-        <v>0.06806742855972168</v>
+        <v>0.06806742855972164</v>
       </c>
       <c r="F123" t="n">
-        <v>0.08935667525667818</v>
+        <v>0.08935667525667813</v>
       </c>
     </row>
     <row r="124">
@@ -2878,7 +2878,7 @@
         <v>41699</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03600687890036934</v>
+        <v>0.03600687890036938</v>
       </c>
       <c r="C124" t="n">
         <v>0.1241540160793969</v>
@@ -2887,10 +2887,10 @@
         <v>0.1435316350543028</v>
       </c>
       <c r="E124" t="n">
-        <v>0.05181896610144464</v>
+        <v>0.05181896610144468</v>
       </c>
       <c r="F124" t="n">
-        <v>0.07310821279840113</v>
+        <v>0.07310821279840116</v>
       </c>
     </row>
     <row r="125">
@@ -2898,7 +2898,7 @@
         <v>41730</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04922826496233746</v>
+        <v>0.04922826496233747</v>
       </c>
       <c r="C125" t="n">
         <v>0.137375402141365</v>
@@ -2907,10 +2907,10 @@
         <v>0.1567530211162709</v>
       </c>
       <c r="E125" t="n">
-        <v>0.06504035216341275</v>
+        <v>0.06504035216341277</v>
       </c>
       <c r="F125" t="n">
-        <v>0.08632959886036924</v>
+        <v>0.08632959886036926</v>
       </c>
     </row>
     <row r="126">
@@ -2918,7 +2918,7 @@
         <v>41760</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02260496716555813</v>
+        <v>0.02260496716555818</v>
       </c>
       <c r="C126" t="n">
         <v>0.1107521043445857</v>
@@ -2927,10 +2927,10 @@
         <v>0.1301297233194916</v>
       </c>
       <c r="E126" t="n">
-        <v>0.03841705436663342</v>
+        <v>0.03841705436663348</v>
       </c>
       <c r="F126" t="n">
-        <v>0.05970630106358991</v>
+        <v>0.05970630106358996</v>
       </c>
     </row>
     <row r="127">
@@ -2938,19 +2938,19 @@
         <v>41791</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05269662841130953</v>
+        <v>0.0526966284113095</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1408437655903371</v>
+        <v>0.140843765590337</v>
       </c>
       <c r="D127" t="n">
         <v>0.160221384565243</v>
       </c>
       <c r="E127" t="n">
-        <v>0.06850871561238482</v>
+        <v>0.06850871561238479</v>
       </c>
       <c r="F127" t="n">
-        <v>0.08979796230934131</v>
+        <v>0.08979796230934128</v>
       </c>
     </row>
     <row r="128">
@@ -2958,19 +2958,19 @@
         <v>41821</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0469564939774245</v>
+        <v>0.04695649397742454</v>
       </c>
       <c r="C128" t="n">
-        <v>0.135103631156452</v>
+        <v>0.1351036311564521</v>
       </c>
       <c r="D128" t="n">
         <v>0.154481250131358</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0627685811784998</v>
+        <v>0.06276858117849983</v>
       </c>
       <c r="F128" t="n">
-        <v>0.08405782787545629</v>
+        <v>0.08405782787545632</v>
       </c>
     </row>
     <row r="129">
@@ -2978,19 +2978,19 @@
         <v>41852</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0503684223252551</v>
+        <v>0.05036842232525519</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1385155595042826</v>
+        <v>0.1385155595042827</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1578931784791885</v>
+        <v>0.1578931784791887</v>
       </c>
       <c r="E129" t="n">
-        <v>0.06618050952633039</v>
+        <v>0.06618050952633049</v>
       </c>
       <c r="F129" t="n">
-        <v>0.08746975622328687</v>
+        <v>0.08746975622328698</v>
       </c>
     </row>
     <row r="130">
@@ -2998,19 +2998,19 @@
         <v>41883</v>
       </c>
       <c r="B130" t="n">
-        <v>0.04929873452491654</v>
+        <v>0.04929873452491648</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1374458717039441</v>
+        <v>0.137445871703944</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15682349067885</v>
+        <v>0.1568234906788499</v>
       </c>
       <c r="E130" t="n">
-        <v>0.06511082172599184</v>
+        <v>0.06511082172599178</v>
       </c>
       <c r="F130" t="n">
-        <v>0.08640006842294833</v>
+        <v>0.08640006842294826</v>
       </c>
     </row>
     <row r="131">
@@ -3018,19 +3018,19 @@
         <v>41913</v>
       </c>
       <c r="B131" t="n">
-        <v>0.05758030971336343</v>
+        <v>0.05758030971336333</v>
       </c>
       <c r="C131" t="n">
-        <v>0.145727446892391</v>
+        <v>0.1457274468923909</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1651050658672969</v>
+        <v>0.1651050658672968</v>
       </c>
       <c r="E131" t="n">
-        <v>0.07339239691443872</v>
+        <v>0.07339239691443862</v>
       </c>
       <c r="F131" t="n">
-        <v>0.09468164361139521</v>
+        <v>0.09468164361139511</v>
       </c>
     </row>
     <row r="132">
@@ -3038,7 +3038,7 @@
         <v>41944</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03813359655142336</v>
+        <v>0.03813359655142338</v>
       </c>
       <c r="C132" t="n">
         <v>0.1262807337304509</v>
@@ -3047,10 +3047,10 @@
         <v>0.1456583527053568</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05394568375249865</v>
+        <v>0.05394568375249868</v>
       </c>
       <c r="F132" t="n">
-        <v>0.07523493044945515</v>
+        <v>0.07523493044945517</v>
       </c>
     </row>
     <row r="133">
@@ -3058,19 +3058,19 @@
         <v>41974</v>
       </c>
       <c r="B133" t="n">
-        <v>0.07953729660997928</v>
+        <v>0.07953729660997913</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1676844337890068</v>
+        <v>0.1676844337890067</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1870620527639127</v>
+        <v>0.1870620527639126</v>
       </c>
       <c r="E133" t="n">
-        <v>0.09534938381105458</v>
+        <v>0.09534938381105443</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1166386305080111</v>
+        <v>0.1166386305080109</v>
       </c>
     </row>
     <row r="134">
@@ -3078,19 +3078,19 @@
         <v>42005</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0618350815832398</v>
+        <v>0.06183508158323978</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1499822187622674</v>
+        <v>0.1499822187622673</v>
       </c>
       <c r="D134" t="n">
         <v>0.1693598377371733</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0776471687843151</v>
+        <v>0.07764716878431507</v>
       </c>
       <c r="F134" t="n">
-        <v>0.09893641548127158</v>
+        <v>0.09893641548127156</v>
       </c>
     </row>
     <row r="135">
@@ -3098,19 +3098,19 @@
         <v>42036</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03531212471240247</v>
+        <v>0.03531212471240237</v>
       </c>
       <c r="C135" t="n">
-        <v>0.12345926189143</v>
+        <v>0.1234592618914299</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1428368808663359</v>
+        <v>0.1428368808663358</v>
       </c>
       <c r="E135" t="n">
-        <v>0.05112421191347777</v>
+        <v>0.05112421191347767</v>
       </c>
       <c r="F135" t="n">
-        <v>0.07241345861043424</v>
+        <v>0.07241345861043416</v>
       </c>
     </row>
     <row r="136">
@@ -3118,19 +3118,19 @@
         <v>42064</v>
       </c>
       <c r="B136" t="n">
-        <v>0.07240886599937948</v>
+        <v>0.07240886599937928</v>
       </c>
       <c r="C136" t="n">
-        <v>0.160556003178407</v>
+        <v>0.1605560031784068</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1799336221533129</v>
+        <v>0.1799336221533127</v>
       </c>
       <c r="E136" t="n">
-        <v>0.08822095320045478</v>
+        <v>0.08822095320045457</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1095101998974113</v>
+        <v>0.1095101998974111</v>
       </c>
     </row>
     <row r="137">
@@ -3138,19 +3138,19 @@
         <v>42095</v>
       </c>
       <c r="B137" t="n">
-        <v>0.01931215655893954</v>
+        <v>0.01931215655893965</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1074592937379671</v>
+        <v>0.1074592937379672</v>
       </c>
       <c r="D137" t="n">
-        <v>0.126836912712873</v>
+        <v>0.1268369127128731</v>
       </c>
       <c r="E137" t="n">
-        <v>0.03512424376001484</v>
+        <v>0.03512424376001494</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05641349045697133</v>
+        <v>0.05641349045697143</v>
       </c>
     </row>
     <row r="138">
@@ -3158,19 +3158,19 @@
         <v>42125</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02409224511730032</v>
+        <v>0.02409224511730056</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1122393822963279</v>
+        <v>0.1122393822963281</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1316170012712338</v>
+        <v>0.131617001271234</v>
       </c>
       <c r="E138" t="n">
-        <v>0.03990433231837562</v>
+        <v>0.03990433231837585</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0611935790153321</v>
+        <v>0.06119357901533234</v>
       </c>
     </row>
     <row r="139">
@@ -3178,7 +3178,7 @@
         <v>42156</v>
       </c>
       <c r="B139" t="n">
-        <v>0.04026965724473692</v>
+        <v>0.04026965724473693</v>
       </c>
       <c r="C139" t="n">
         <v>0.1284167944237645</v>
@@ -3187,10 +3187,10 @@
         <v>0.1477944133986704</v>
       </c>
       <c r="E139" t="n">
-        <v>0.05608174444581221</v>
+        <v>0.05608174444581222</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0773709911427687</v>
+        <v>0.07737099114276871</v>
       </c>
     </row>
     <row r="140">
@@ -3198,19 +3198,19 @@
         <v>42186</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04303682027715137</v>
+        <v>0.0430368202771514</v>
       </c>
       <c r="C140" t="n">
         <v>0.1311839574561789</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1505615764310848</v>
+        <v>0.1505615764310849</v>
       </c>
       <c r="E140" t="n">
-        <v>0.05884890747822667</v>
+        <v>0.0588489074782267</v>
       </c>
       <c r="F140" t="n">
-        <v>0.08013815417518316</v>
+        <v>0.08013815417518319</v>
       </c>
     </row>
     <row r="141">
@@ -3218,7 +3218,7 @@
         <v>42217</v>
       </c>
       <c r="B141" t="n">
-        <v>0.04296265050693694</v>
+        <v>0.04296265050693692</v>
       </c>
       <c r="C141" t="n">
         <v>0.1311097876859645</v>
@@ -3227,10 +3227,10 @@
         <v>0.1504874066608704</v>
       </c>
       <c r="E141" t="n">
-        <v>0.05877473770801224</v>
+        <v>0.05877473770801221</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08006398440496873</v>
+        <v>0.0800639844049687</v>
       </c>
     </row>
     <row r="142">
@@ -3238,7 +3238,7 @@
         <v>42248</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03988132168550154</v>
+        <v>0.03988132168550159</v>
       </c>
       <c r="C142" t="n">
         <v>0.1280284588645291</v>
@@ -3247,10 +3247,10 @@
         <v>0.147406077839435</v>
       </c>
       <c r="E142" t="n">
-        <v>0.05569340888657684</v>
+        <v>0.05569340888657688</v>
       </c>
       <c r="F142" t="n">
-        <v>0.07698265558353332</v>
+        <v>0.07698265558353337</v>
       </c>
     </row>
     <row r="143">
@@ -3258,7 +3258,7 @@
         <v>42278</v>
       </c>
       <c r="B143" t="n">
-        <v>0.04689177722618783</v>
+        <v>0.04689177722618785</v>
       </c>
       <c r="C143" t="n">
         <v>0.1350389144052154</v>
@@ -3267,10 +3267,10 @@
         <v>0.1544165333801213</v>
       </c>
       <c r="E143" t="n">
-        <v>0.06270386442726313</v>
+        <v>0.06270386442726314</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08399311112421962</v>
+        <v>0.08399311112421963</v>
       </c>
     </row>
     <row r="144">
@@ -3278,19 +3278,19 @@
         <v>42309</v>
       </c>
       <c r="B144" t="n">
-        <v>0.04547096736952889</v>
+        <v>0.04547096736952885</v>
       </c>
       <c r="C144" t="n">
         <v>0.1336181045485564</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1529957235234624</v>
+        <v>0.1529957235234623</v>
       </c>
       <c r="E144" t="n">
-        <v>0.06128305457060419</v>
+        <v>0.06128305457060415</v>
       </c>
       <c r="F144" t="n">
-        <v>0.08257230126756068</v>
+        <v>0.08257230126756063</v>
       </c>
     </row>
     <row r="145">
@@ -3298,19 +3298,19 @@
         <v>42339</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03033274108613642</v>
+        <v>0.03033274108613654</v>
       </c>
       <c r="C145" t="n">
-        <v>0.118479878265164</v>
+        <v>0.1184798782651641</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1378574972400699</v>
+        <v>0.13785749724007</v>
       </c>
       <c r="E145" t="n">
-        <v>0.04614482828721171</v>
+        <v>0.04614482828721184</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0674340749841682</v>
+        <v>0.06743407498416831</v>
       </c>
     </row>
     <row r="146">
@@ -3318,19 +3318,19 @@
         <v>42370</v>
       </c>
       <c r="B146" t="n">
-        <v>0.03926609991502521</v>
+        <v>0.03926609991502513</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1274132370940528</v>
+        <v>0.1274132370940527</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1467908560689587</v>
+        <v>0.1467908560689586</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0550781871161005</v>
+        <v>0.05507818711610042</v>
       </c>
       <c r="F146" t="n">
-        <v>0.076367433813057</v>
+        <v>0.07636743381305691</v>
       </c>
     </row>
     <row r="147">
@@ -3338,19 +3338,19 @@
         <v>42401</v>
       </c>
       <c r="B147" t="n">
-        <v>0.04669233137030387</v>
+        <v>0.04669233137030383</v>
       </c>
       <c r="C147" t="n">
         <v>0.1348394685493314</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1542170875242374</v>
+        <v>0.1542170875242373</v>
       </c>
       <c r="E147" t="n">
-        <v>0.06250441857137917</v>
+        <v>0.06250441857137912</v>
       </c>
       <c r="F147" t="n">
-        <v>0.08379366526833565</v>
+        <v>0.08379366526833561</v>
       </c>
     </row>
     <row r="148">
@@ -3358,19 +3358,19 @@
         <v>42430</v>
       </c>
       <c r="B148" t="n">
-        <v>0.03738406145261948</v>
+        <v>0.03738406145261954</v>
       </c>
       <c r="C148" t="n">
-        <v>0.125531198631647</v>
+        <v>0.1255311986316471</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1449088176065529</v>
+        <v>0.144908817606553</v>
       </c>
       <c r="E148" t="n">
-        <v>0.05319614865369478</v>
+        <v>0.05319614865369483</v>
       </c>
       <c r="F148" t="n">
-        <v>0.07448539535065127</v>
+        <v>0.07448539535065132</v>
       </c>
     </row>
     <row r="149">
@@ -3378,19 +3378,19 @@
         <v>42461</v>
       </c>
       <c r="B149" t="n">
-        <v>0.04017092009171699</v>
+        <v>0.04017092009171704</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1283180572707445</v>
+        <v>0.1283180572707446</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1476956762456504</v>
+        <v>0.1476956762456505</v>
       </c>
       <c r="E149" t="n">
-        <v>0.05598300729279229</v>
+        <v>0.05598300729279233</v>
       </c>
       <c r="F149" t="n">
-        <v>0.07727225398974877</v>
+        <v>0.07727225398974882</v>
       </c>
     </row>
     <row r="150">
@@ -3398,19 +3398,19 @@
         <v>42491</v>
       </c>
       <c r="B150" t="n">
-        <v>0.05516911460830513</v>
+        <v>0.05516911460830509</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1433162517873327</v>
+        <v>0.1433162517873326</v>
       </c>
       <c r="D150" t="n">
         <v>0.1626938707622386</v>
       </c>
       <c r="E150" t="n">
-        <v>0.07098120180938043</v>
+        <v>0.07098120180938039</v>
       </c>
       <c r="F150" t="n">
-        <v>0.09227044850633692</v>
+        <v>0.09227044850633687</v>
       </c>
     </row>
     <row r="151">
@@ -3418,19 +3418,19 @@
         <v>42522</v>
       </c>
       <c r="B151" t="n">
-        <v>0.04074987357704728</v>
+        <v>0.04074987357704732</v>
       </c>
       <c r="C151" t="n">
         <v>0.1288970107560748</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1482746297309807</v>
+        <v>0.1482746297309808</v>
       </c>
       <c r="E151" t="n">
-        <v>0.05656196077812257</v>
+        <v>0.05656196077812262</v>
       </c>
       <c r="F151" t="n">
-        <v>0.07785120747507907</v>
+        <v>0.07785120747507909</v>
       </c>
     </row>
     <row r="152">
@@ -3438,19 +3438,19 @@
         <v>42552</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0497228881285277</v>
+        <v>0.04972288812852763</v>
       </c>
       <c r="C152" t="n">
         <v>0.1378700253075552</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1572476442824612</v>
+        <v>0.1572476442824611</v>
       </c>
       <c r="E152" t="n">
-        <v>0.06553497532960299</v>
+        <v>0.06553497532960292</v>
       </c>
       <c r="F152" t="n">
-        <v>0.08682422202655948</v>
+        <v>0.0868242220265594</v>
       </c>
     </row>
     <row r="153">
@@ -3458,7 +3458,7 @@
         <v>42583</v>
       </c>
       <c r="B153" t="n">
-        <v>0.04456048017821625</v>
+        <v>0.04456048017821623</v>
       </c>
       <c r="C153" t="n">
         <v>0.1327076173572438</v>
@@ -3467,10 +3467,10 @@
         <v>0.1520852363321497</v>
       </c>
       <c r="E153" t="n">
-        <v>0.06037256737929154</v>
+        <v>0.06037256737929152</v>
       </c>
       <c r="F153" t="n">
-        <v>0.08166181407624803</v>
+        <v>0.08166181407624801</v>
       </c>
     </row>
     <row r="154">
@@ -3478,7 +3478,7 @@
         <v>42614</v>
       </c>
       <c r="B154" t="n">
-        <v>0.04784673543351706</v>
+        <v>0.04784673543351702</v>
       </c>
       <c r="C154" t="n">
         <v>0.1359938726125446</v>
@@ -3487,10 +3487,10 @@
         <v>0.1553714915874505</v>
       </c>
       <c r="E154" t="n">
-        <v>0.06365882263459235</v>
+        <v>0.06365882263459231</v>
       </c>
       <c r="F154" t="n">
-        <v>0.08494806933154884</v>
+        <v>0.0849480693315488</v>
       </c>
     </row>
     <row r="155">
@@ -3498,19 +3498,19 @@
         <v>42644</v>
       </c>
       <c r="B155" t="n">
-        <v>0.039443084954675</v>
+        <v>0.03944308495467503</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1275902221337025</v>
+        <v>0.1275902221337026</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1469678411086084</v>
+        <v>0.1469678411086085</v>
       </c>
       <c r="E155" t="n">
-        <v>0.05525517215575029</v>
+        <v>0.05525517215575032</v>
       </c>
       <c r="F155" t="n">
-        <v>0.07654441885270677</v>
+        <v>0.07654441885270681</v>
       </c>
     </row>
     <row r="156">
@@ -3518,7 +3518,7 @@
         <v>42675</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04641326121574085</v>
+        <v>0.04641326121574088</v>
       </c>
       <c r="C156" t="n">
         <v>0.1345603983947684</v>
@@ -3527,10 +3527,10 @@
         <v>0.1539380173696743</v>
       </c>
       <c r="E156" t="n">
-        <v>0.06222534841681615</v>
+        <v>0.06222534841681618</v>
       </c>
       <c r="F156" t="n">
-        <v>0.08351459511377263</v>
+        <v>0.08351459511377265</v>
       </c>
     </row>
     <row r="157">
@@ -3538,19 +3538,19 @@
         <v>42705</v>
       </c>
       <c r="B157" t="n">
-        <v>0.03764605340318125</v>
+        <v>0.03764605340318131</v>
       </c>
       <c r="C157" t="n">
         <v>0.1257931905822088</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1451708095571147</v>
+        <v>0.1451708095571148</v>
       </c>
       <c r="E157" t="n">
-        <v>0.05345814060425655</v>
+        <v>0.0534581406042566</v>
       </c>
       <c r="F157" t="n">
-        <v>0.07474738730121303</v>
+        <v>0.07474738730121308</v>
       </c>
     </row>
     <row r="158">
@@ -3558,19 +3558,19 @@
         <v>42736</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04547375015965861</v>
+        <v>0.04547375015965875</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1336208873386862</v>
+        <v>0.1336208873386863</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1529985063135921</v>
+        <v>0.1529985063135922</v>
       </c>
       <c r="E158" t="n">
-        <v>0.06128583736073391</v>
+        <v>0.06128583736073405</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0825750840576904</v>
+        <v>0.08257508405769054</v>
       </c>
     </row>
     <row r="159">
@@ -3578,7 +3578,7 @@
         <v>42767</v>
       </c>
       <c r="B159" t="n">
-        <v>0.06075551788303997</v>
+        <v>0.06075551788303993</v>
       </c>
       <c r="C159" t="n">
         <v>0.1489026550620675</v>
@@ -3587,10 +3587,10 @@
         <v>0.1682802740369734</v>
       </c>
       <c r="E159" t="n">
-        <v>0.07656760508411527</v>
+        <v>0.07656760508411523</v>
       </c>
       <c r="F159" t="n">
-        <v>0.09785685178107176</v>
+        <v>0.0978568517810717</v>
       </c>
     </row>
     <row r="160">
@@ -3598,19 +3598,19 @@
         <v>42795</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07910874346131165</v>
+        <v>0.07910874346131148</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1672558806403392</v>
+        <v>0.167255880640339</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1866334996152451</v>
+        <v>0.1866334996152449</v>
       </c>
       <c r="E160" t="n">
-        <v>0.09492083066238695</v>
+        <v>0.09492083066238678</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1162100773593434</v>
+        <v>0.1162100773593433</v>
       </c>
     </row>
     <row r="161">
@@ -3618,7 +3618,7 @@
         <v>42826</v>
       </c>
       <c r="B161" t="n">
-        <v>0.05981013538058406</v>
+        <v>0.05981013538058401</v>
       </c>
       <c r="C161" t="n">
         <v>0.1479572725596116</v>
@@ -3627,10 +3627,10 @@
         <v>0.1673348915345175</v>
       </c>
       <c r="E161" t="n">
-        <v>0.07562222258165935</v>
+        <v>0.07562222258165931</v>
       </c>
       <c r="F161" t="n">
-        <v>0.09691146927861584</v>
+        <v>0.0969114692786158</v>
       </c>
     </row>
     <row r="162">
@@ -3658,7 +3658,7 @@
         <v>42887</v>
       </c>
       <c r="B163" t="n">
-        <v>0.05838352636411902</v>
+        <v>0.05838352636411907</v>
       </c>
       <c r="C163" t="n">
         <v>0.1465306635431466</v>
@@ -3667,10 +3667,10 @@
         <v>0.1659082825180525</v>
       </c>
       <c r="E163" t="n">
-        <v>0.07419561356519432</v>
+        <v>0.07419561356519437</v>
       </c>
       <c r="F163" t="n">
-        <v>0.09548486026215081</v>
+        <v>0.09548486026215086</v>
       </c>
     </row>
     <row r="164">
@@ -3678,19 +3678,19 @@
         <v>42917</v>
       </c>
       <c r="B164" t="n">
-        <v>0.03814440409022136</v>
+        <v>0.03814440409022148</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1262915412692489</v>
+        <v>0.126291541269249</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1456691602441548</v>
+        <v>0.1456691602441549</v>
       </c>
       <c r="E164" t="n">
-        <v>0.05395649129129665</v>
+        <v>0.05395649129129677</v>
       </c>
       <c r="F164" t="n">
-        <v>0.07524573798825314</v>
+        <v>0.07524573798825326</v>
       </c>
     </row>
     <row r="165">
@@ -3698,7 +3698,7 @@
         <v>42948</v>
       </c>
       <c r="B165" t="n">
-        <v>0.04896485857797807</v>
+        <v>0.04896485857797808</v>
       </c>
       <c r="C165" t="n">
         <v>0.1371119957570056</v>
@@ -3707,7 +3707,7 @@
         <v>0.1564896147319115</v>
       </c>
       <c r="E165" t="n">
-        <v>0.06477694577905337</v>
+        <v>0.06477694577905338</v>
       </c>
       <c r="F165" t="n">
         <v>0.08606619247600986</v>
@@ -3718,7 +3718,7 @@
         <v>42979</v>
       </c>
       <c r="B166" t="n">
-        <v>0.04436060479507799</v>
+        <v>0.04436060479507794</v>
       </c>
       <c r="C166" t="n">
         <v>0.1325077419741055</v>
@@ -3727,10 +3727,10 @@
         <v>0.1518853609490114</v>
       </c>
       <c r="E166" t="n">
-        <v>0.06017269199615329</v>
+        <v>0.06017269199615323</v>
       </c>
       <c r="F166" t="n">
-        <v>0.08146193869310978</v>
+        <v>0.08146193869310972</v>
       </c>
     </row>
     <row r="167">
@@ -3738,19 +3738,19 @@
         <v>43009</v>
       </c>
       <c r="B167" t="n">
-        <v>0.04064065982905474</v>
+        <v>0.04064065982905479</v>
       </c>
       <c r="C167" t="n">
         <v>0.1287877970080823</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1481654159829882</v>
+        <v>0.1481654159829883</v>
       </c>
       <c r="E167" t="n">
-        <v>0.05645274703013003</v>
+        <v>0.05645274703013009</v>
       </c>
       <c r="F167" t="n">
-        <v>0.07774199372708653</v>
+        <v>0.07774199372708657</v>
       </c>
     </row>
     <row r="168">
@@ -3758,19 +3758,19 @@
         <v>43040</v>
       </c>
       <c r="B168" t="n">
-        <v>0.04188513168723017</v>
+        <v>0.0418851316872302</v>
       </c>
       <c r="C168" t="n">
         <v>0.1300322688662577</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1494098878411636</v>
+        <v>0.1494098878411637</v>
       </c>
       <c r="E168" t="n">
-        <v>0.05769721888830547</v>
+        <v>0.05769721888830549</v>
       </c>
       <c r="F168" t="n">
-        <v>0.07898646558526196</v>
+        <v>0.07898646558526198</v>
       </c>
     </row>
     <row r="169">
@@ -3778,19 +3778,19 @@
         <v>43070</v>
       </c>
       <c r="B169" t="n">
-        <v>0.04029637175829644</v>
+        <v>0.04029637175829656</v>
       </c>
       <c r="C169" t="n">
-        <v>0.128443508937324</v>
+        <v>0.1284435089373241</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1478211279122299</v>
+        <v>0.14782112791223</v>
       </c>
       <c r="E169" t="n">
-        <v>0.05610845895937173</v>
+        <v>0.05610845895937186</v>
       </c>
       <c r="F169" t="n">
-        <v>0.07739770565632823</v>
+        <v>0.07739770565632834</v>
       </c>
     </row>
     <row r="170">
@@ -3798,7 +3798,7 @@
         <v>43101</v>
       </c>
       <c r="B170" t="n">
-        <v>0.04597270195651416</v>
+        <v>0.04597270195651417</v>
       </c>
       <c r="C170" t="n">
         <v>0.1341198391355417</v>
@@ -3807,10 +3807,10 @@
         <v>0.1534974581104476</v>
       </c>
       <c r="E170" t="n">
-        <v>0.06178478915758945</v>
+        <v>0.06178478915758946</v>
       </c>
       <c r="F170" t="n">
-        <v>0.08307403585454594</v>
+        <v>0.08307403585454595</v>
       </c>
     </row>
     <row r="171">
@@ -3818,19 +3818,19 @@
         <v>43132</v>
       </c>
       <c r="B171" t="n">
-        <v>0.03100146553359637</v>
+        <v>0.03100146553359646</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1191486027126239</v>
+        <v>0.119148602712624</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1385262216875298</v>
+        <v>0.1385262216875299</v>
       </c>
       <c r="E171" t="n">
-        <v>0.04681355273467167</v>
+        <v>0.04681355273467175</v>
       </c>
       <c r="F171" t="n">
-        <v>0.06810279943162814</v>
+        <v>0.06810279943162824</v>
       </c>
     </row>
     <row r="172">
@@ -3838,19 +3838,19 @@
         <v>43160</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02864018466841278</v>
+        <v>0.02864018466841282</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1167873218474403</v>
+        <v>0.1167873218474404</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1361649408223462</v>
+        <v>0.1361649408223463</v>
       </c>
       <c r="E172" t="n">
-        <v>0.04445227186948807</v>
+        <v>0.04445227186948811</v>
       </c>
       <c r="F172" t="n">
-        <v>0.06574151856644456</v>
+        <v>0.0657415185664446</v>
       </c>
     </row>
     <row r="173">
@@ -3858,7 +3858,7 @@
         <v>43191</v>
       </c>
       <c r="B173" t="n">
-        <v>0.04641674659323636</v>
+        <v>0.04641674659323631</v>
       </c>
       <c r="C173" t="n">
         <v>0.1345638837722639</v>
@@ -3867,10 +3867,10 @@
         <v>0.1539415027471698</v>
       </c>
       <c r="E173" t="n">
-        <v>0.06222883379431166</v>
+        <v>0.0622288337943116</v>
       </c>
       <c r="F173" t="n">
-        <v>0.08351808049126813</v>
+        <v>0.08351808049126809</v>
       </c>
     </row>
     <row r="174">
@@ -3878,7 +3878,7 @@
         <v>43221</v>
       </c>
       <c r="B174" t="n">
-        <v>0.01367305556634268</v>
+        <v>0.01367305556634266</v>
       </c>
       <c r="C174" t="n">
         <v>0.1018201927453702</v>
@@ -3887,10 +3887,10 @@
         <v>0.1211978117202761</v>
       </c>
       <c r="E174" t="n">
-        <v>0.02948514276741797</v>
+        <v>0.02948514276741796</v>
       </c>
       <c r="F174" t="n">
-        <v>0.05077438946437446</v>
+        <v>0.05077438946437444</v>
       </c>
     </row>
     <row r="175">
@@ -3898,19 +3898,19 @@
         <v>43252</v>
       </c>
       <c r="B175" t="n">
-        <v>0.02826169732132276</v>
+        <v>0.02826169732132279</v>
       </c>
       <c r="C175" t="n">
         <v>0.1164088345003503</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1357864534752562</v>
+        <v>0.1357864534752563</v>
       </c>
       <c r="E175" t="n">
-        <v>0.04407378452239805</v>
+        <v>0.04407378452239809</v>
       </c>
       <c r="F175" t="n">
-        <v>0.06536303121935454</v>
+        <v>0.06536303121935458</v>
       </c>
     </row>
     <row r="176">
@@ -3918,7 +3918,7 @@
         <v>43282</v>
       </c>
       <c r="B176" t="n">
-        <v>0.01984399219481864</v>
+        <v>0.01984399219481868</v>
       </c>
       <c r="C176" t="n">
         <v>0.1079911293738462</v>
@@ -3927,10 +3927,10 @@
         <v>0.1273687483487521</v>
       </c>
       <c r="E176" t="n">
-        <v>0.03565607939589394</v>
+        <v>0.03565607939589398</v>
       </c>
       <c r="F176" t="n">
-        <v>0.05694532609285042</v>
+        <v>0.05694532609285046</v>
       </c>
     </row>
     <row r="177">
@@ -3938,19 +3938,19 @@
         <v>43313</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03370310409820693</v>
+        <v>0.03370310409820702</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1218502412772345</v>
+        <v>0.1218502412772346</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1412278602521404</v>
+        <v>0.1412278602521405</v>
       </c>
       <c r="E177" t="n">
-        <v>0.04951519129928222</v>
+        <v>0.04951519129928231</v>
       </c>
       <c r="F177" t="n">
-        <v>0.07080443799623871</v>
+        <v>0.0708044379962388</v>
       </c>
     </row>
     <row r="178">
@@ -3958,7 +3958,7 @@
         <v>43344</v>
       </c>
       <c r="B178" t="n">
-        <v>0.03824800054863167</v>
+        <v>0.03824800054863166</v>
       </c>
       <c r="C178" t="n">
         <v>0.1263951377276592</v>
@@ -3967,7 +3967,7 @@
         <v>0.1457727567025651</v>
       </c>
       <c r="E178" t="n">
-        <v>0.05406008774970697</v>
+        <v>0.05406008774970696</v>
       </c>
       <c r="F178" t="n">
         <v>0.07534933444666345</v>
@@ -3978,19 +3978,19 @@
         <v>43374</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02958376174701926</v>
+        <v>0.02958376174701938</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1177308989260468</v>
+        <v>0.1177308989260469</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1371085179009527</v>
+        <v>0.1371085179009529</v>
       </c>
       <c r="E179" t="n">
-        <v>0.04539584894809455</v>
+        <v>0.04539584894809467</v>
       </c>
       <c r="F179" t="n">
-        <v>0.06668509564505104</v>
+        <v>0.06668509564505115</v>
       </c>
     </row>
     <row r="180">
@@ -3998,7 +3998,7 @@
         <v>43405</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03492210564808299</v>
+        <v>0.03492210564808294</v>
       </c>
       <c r="C180" t="n">
         <v>0.1230692428271105</v>
@@ -4007,10 +4007,10 @@
         <v>0.1424468618020164</v>
       </c>
       <c r="E180" t="n">
-        <v>0.05073419284915828</v>
+        <v>0.05073419284915824</v>
       </c>
       <c r="F180" t="n">
-        <v>0.07202343954611476</v>
+        <v>0.07202343954611473</v>
       </c>
     </row>
     <row r="181">
@@ -4018,7 +4018,7 @@
         <v>43435</v>
       </c>
       <c r="B181" t="n">
-        <v>0.03803733132613994</v>
+        <v>0.03803733132613996</v>
       </c>
       <c r="C181" t="n">
         <v>0.1261844685051675</v>
@@ -4027,7 +4027,7 @@
         <v>0.1455620874800734</v>
       </c>
       <c r="E181" t="n">
-        <v>0.05384941852721524</v>
+        <v>0.05384941852721525</v>
       </c>
       <c r="F181" t="n">
         <v>0.07513866522417173</v>
@@ -4038,19 +4038,19 @@
         <v>43466</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0357381175274865</v>
+        <v>0.03573811752748653</v>
       </c>
       <c r="C182" t="n">
-        <v>0.123885254706514</v>
+        <v>0.1238852547065141</v>
       </c>
       <c r="D182" t="n">
         <v>0.14326287368142</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0515502047285618</v>
+        <v>0.05155020472856182</v>
       </c>
       <c r="F182" t="n">
-        <v>0.07283945142551829</v>
+        <v>0.07283945142551831</v>
       </c>
     </row>
     <row r="183">
@@ -4058,7 +4058,7 @@
         <v>43497</v>
       </c>
       <c r="B183" t="n">
-        <v>0.03735813490996454</v>
+        <v>0.03735813490996452</v>
       </c>
       <c r="C183" t="n">
         <v>0.1255052720889921</v>
@@ -4067,7 +4067,7 @@
         <v>0.144882891063898</v>
       </c>
       <c r="E183" t="n">
-        <v>0.05317022211103983</v>
+        <v>0.05317022211103982</v>
       </c>
       <c r="F183" t="n">
         <v>0.07445946880799631</v>
@@ -4078,16 +4078,16 @@
         <v>43525</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02959649151395698</v>
+        <v>0.02959649151395699</v>
       </c>
       <c r="C184" t="n">
         <v>0.1177436286929845</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1371212476678904</v>
+        <v>0.1371212476678905</v>
       </c>
       <c r="E184" t="n">
-        <v>0.04540857871503227</v>
+        <v>0.04540857871503229</v>
       </c>
       <c r="F184" t="n">
         <v>0.06669782541198876</v>
@@ -4098,19 +4098,19 @@
         <v>43556</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02935156815279079</v>
+        <v>0.02935156815279075</v>
       </c>
       <c r="C185" t="n">
         <v>0.1174987053318183</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1368763243067243</v>
+        <v>0.1368763243067242</v>
       </c>
       <c r="E185" t="n">
-        <v>0.04516365535386609</v>
+        <v>0.04516365535386604</v>
       </c>
       <c r="F185" t="n">
-        <v>0.06645290205082258</v>
+        <v>0.06645290205082252</v>
       </c>
     </row>
     <row r="186">
@@ -4118,7 +4118,7 @@
         <v>43586</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02380058346923943</v>
+        <v>0.02380058346923945</v>
       </c>
       <c r="C186" t="n">
         <v>0.111947720648267</v>
@@ -4127,10 +4127,10 @@
         <v>0.1313253396231729</v>
       </c>
       <c r="E186" t="n">
-        <v>0.03961267067031472</v>
+        <v>0.03961267067031475</v>
       </c>
       <c r="F186" t="n">
-        <v>0.06090191736727121</v>
+        <v>0.06090191736727123</v>
       </c>
     </row>
     <row r="187">
@@ -4138,7 +4138,7 @@
         <v>43617</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02946319317382982</v>
+        <v>0.02946319317382987</v>
       </c>
       <c r="C187" t="n">
         <v>0.1176103303528574</v>
@@ -4147,10 +4147,10 @@
         <v>0.1369879493277633</v>
       </c>
       <c r="E187" t="n">
-        <v>0.04527528037490511</v>
+        <v>0.04527528037490516</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0665645270718616</v>
+        <v>0.06656452707186164</v>
       </c>
     </row>
     <row r="188">
@@ -4158,7 +4158,7 @@
         <v>43647</v>
       </c>
       <c r="B188" t="n">
-        <v>0.03631122209954072</v>
+        <v>0.03631122209954071</v>
       </c>
       <c r="C188" t="n">
         <v>0.1244583592785683</v>
@@ -4170,7 +4170,7 @@
         <v>0.05212330930061601</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0734125559975725</v>
+        <v>0.07341255599757249</v>
       </c>
     </row>
     <row r="189">
@@ -4178,7 +4178,7 @@
         <v>43678</v>
       </c>
       <c r="B189" t="n">
-        <v>0.03197536815707622</v>
+        <v>0.03197536815707627</v>
       </c>
       <c r="C189" t="n">
         <v>0.1201225053361038</v>
@@ -4187,10 +4187,10 @@
         <v>0.1395001243110097</v>
       </c>
       <c r="E189" t="n">
-        <v>0.04778745535815151</v>
+        <v>0.04778745535815156</v>
       </c>
       <c r="F189" t="n">
-        <v>0.06907670205510801</v>
+        <v>0.06907670205510805</v>
       </c>
     </row>
     <row r="190">
@@ -4198,19 +4198,19 @@
         <v>43709</v>
       </c>
       <c r="B190" t="n">
-        <v>0.03975464322130826</v>
+        <v>0.0397546432213083</v>
       </c>
       <c r="C190" t="n">
         <v>0.1279017804003358</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1472793993752417</v>
+        <v>0.1472793993752418</v>
       </c>
       <c r="E190" t="n">
-        <v>0.05556673042238355</v>
+        <v>0.0555667304223836</v>
       </c>
       <c r="F190" t="n">
-        <v>0.07685597711934004</v>
+        <v>0.07685597711934009</v>
       </c>
     </row>
     <row r="191">
@@ -4218,19 +4218,19 @@
         <v>43739</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0339070532124738</v>
+        <v>0.03390705321247396</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1220541903915013</v>
+        <v>0.1220541903915015</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1414318093664073</v>
+        <v>0.1414318093664074</v>
       </c>
       <c r="E191" t="n">
-        <v>0.04971914041354909</v>
+        <v>0.04971914041354926</v>
       </c>
       <c r="F191" t="n">
-        <v>0.07100838711050558</v>
+        <v>0.07100838711050575</v>
       </c>
     </row>
     <row r="192">
@@ -4238,19 +4238,19 @@
         <v>43770</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0361368028809427</v>
+        <v>0.03613680288094277</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1242839400599702</v>
+        <v>0.1242839400599703</v>
       </c>
       <c r="D192" t="n">
         <v>0.1436615590348762</v>
       </c>
       <c r="E192" t="n">
-        <v>0.051948890082018</v>
+        <v>0.05194889008201806</v>
       </c>
       <c r="F192" t="n">
-        <v>0.07323813677897448</v>
+        <v>0.07323813677897455</v>
       </c>
     </row>
     <row r="193">
@@ -4267,7 +4267,7 @@
         <v>0.1453081376606018</v>
       </c>
       <c r="E193" t="n">
-        <v>0.05359546870774361</v>
+        <v>0.05359546870774362</v>
       </c>
       <c r="F193" t="n">
         <v>0.0748847154047001</v>
@@ -4278,7 +4278,7 @@
         <v>43831</v>
       </c>
       <c r="B194" t="n">
-        <v>0.04697909611356113</v>
+        <v>0.04697909611356112</v>
       </c>
       <c r="C194" t="n">
         <v>0.1351262332925887</v>
@@ -4287,7 +4287,7 @@
         <v>0.1545038522674946</v>
       </c>
       <c r="E194" t="n">
-        <v>0.06279118331463643</v>
+        <v>0.06279118331463641</v>
       </c>
       <c r="F194" t="n">
         <v>0.0840804300115929</v>
@@ -4298,19 +4298,19 @@
         <v>43862</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0529443421945742</v>
+        <v>0.05294434219457419</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1410914793736018</v>
+        <v>0.1410914793736017</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1604690983485077</v>
+        <v>0.1604690983485076</v>
       </c>
       <c r="E195" t="n">
-        <v>0.06875642939564949</v>
+        <v>0.06875642939564948</v>
       </c>
       <c r="F195" t="n">
-        <v>0.09004567609260598</v>
+        <v>0.09004567609260597</v>
       </c>
     </row>
     <row r="196">
@@ -4324,10 +4324,10 @@
         <v>0.1449117856068637</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1642894045817697</v>
+        <v>0.1642894045817696</v>
       </c>
       <c r="E196" t="n">
-        <v>0.07257673562891148</v>
+        <v>0.07257673562891147</v>
       </c>
       <c r="F196" t="n">
         <v>0.09386598232586796</v>
@@ -4338,7 +4338,7 @@
         <v>43922</v>
       </c>
       <c r="B197" t="n">
-        <v>0.05918954519826021</v>
+        <v>0.0591895451982602</v>
       </c>
       <c r="C197" t="n">
         <v>0.1473366823772878</v>
@@ -4347,10 +4347,10 @@
         <v>0.1667143013521937</v>
       </c>
       <c r="E197" t="n">
-        <v>0.07500163239933551</v>
+        <v>0.07500163239933549</v>
       </c>
       <c r="F197" t="n">
-        <v>0.096290879096292</v>
+        <v>0.09629087909629197</v>
       </c>
     </row>
     <row r="198">
@@ -4367,7 +4367,7 @@
         <v>0.16824378237118</v>
       </c>
       <c r="E198" t="n">
-        <v>0.07653111341832186</v>
+        <v>0.07653111341832185</v>
       </c>
       <c r="F198" t="n">
         <v>0.09782036011527834</v>
@@ -4390,7 +4390,7 @@
         <v>0.07749145520263837</v>
       </c>
       <c r="F199" t="n">
-        <v>0.09878070189959486</v>
+        <v>0.09878070189959484</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4434,7 @@
         <v>38077</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07782446171154868</v>
+        <v>0.0801958051104168</v>
       </c>
       <c r="C2" t="n">
         <v>0.06429164903278561</v>
@@ -4445,7 +4445,7 @@
         <v>38168</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07987111141645152</v>
+        <v>0.0859064104440993</v>
       </c>
       <c r="C3" t="n">
         <v>0.09602635442885532</v>
@@ -4456,7 +4456,7 @@
         <v>38260</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0830589192371395</v>
+        <v>0.09009186718253577</v>
       </c>
       <c r="C4" t="n">
         <v>0.09192729066242022</v>
@@ -4467,7 +4467,7 @@
         <v>38352</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08633722811340427</v>
+        <v>0.09249657420437529</v>
       </c>
       <c r="C5" t="n">
         <v>0.05096858277582372</v>
@@ -4478,7 +4478,7 @@
         <v>38442</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08723051696788248</v>
+        <v>0.09006210953239865</v>
       </c>
       <c r="C6" t="n">
         <v>0.07675442659763654</v>
@@ -4489,7 +4489,7 @@
         <v>38533</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08868803687222329</v>
+        <v>0.09067212332223432</v>
       </c>
       <c r="C7" t="n">
         <v>0.07732391256059823</v>
@@ -4500,7 +4500,7 @@
         <v>38625</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09128680853173024</v>
+        <v>0.09393319688863061</v>
       </c>
       <c r="C8" t="n">
         <v>0.0732136880092753</v>
@@ -4511,7 +4511,7 @@
         <v>38717</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08317631907667616</v>
+        <v>0.08343727421637774</v>
       </c>
       <c r="C9" t="n">
         <v>0.06122744117220935</v>
@@ -4522,7 +4522,7 @@
         <v>38807</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08976160215533603</v>
+        <v>0.0948187833848767</v>
       </c>
       <c r="C10" t="n">
         <v>0.07608972889382093</v>
@@ -4533,7 +4533,7 @@
         <v>38898</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09578550249837754</v>
+        <v>0.1031872455848856</v>
       </c>
       <c r="C11" t="n">
         <v>0.07649088321752751</v>
@@ -4544,7 +4544,7 @@
         <v>38990</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08983150541408452</v>
+        <v>0.09536845429325266</v>
       </c>
       <c r="C12" t="n">
         <v>0.09306451647030323</v>
@@ -4555,7 +4555,7 @@
         <v>39082</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100668838576028</v>
+        <v>0.1042751398362805</v>
       </c>
       <c r="C13" t="n">
         <v>0.09447877499761792</v>
@@ -4566,7 +4566,7 @@
         <v>39172</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1184907420634026</v>
+        <v>0.1215923660607793</v>
       </c>
       <c r="C14" t="n">
         <v>0.1277279351839498</v>
@@ -4577,7 +4577,7 @@
         <v>39263</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1119792128075346</v>
+        <v>0.1148591460406824</v>
       </c>
       <c r="C15" t="n">
         <v>0.1329433650920031</v>
@@ -4588,7 +4588,7 @@
         <v>39355</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1236474007320956</v>
+        <v>0.1261647342352412</v>
       </c>
       <c r="C16" t="n">
         <v>0.1543767827907712</v>
@@ -4599,7 +4599,7 @@
         <v>39447</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1438793701042251</v>
+        <v>0.1514724375332341</v>
       </c>
       <c r="C17" t="n">
         <v>0.1804262041212188</v>
@@ -4610,7 +4610,7 @@
         <v>39538</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1170218067071395</v>
+        <v>0.1185760612932698</v>
       </c>
       <c r="C18" t="n">
         <v>0.1236656291559666</v>
@@ -4621,7 +4621,7 @@
         <v>39629</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1110911118804005</v>
+        <v>0.1148954093978581</v>
       </c>
       <c r="C19" t="n">
         <v>0.1356947311687779</v>
@@ -4632,7 +4632,7 @@
         <v>39721</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09423154277517198</v>
+        <v>0.0963097428279146</v>
       </c>
       <c r="C20" t="n">
         <v>0.0938783580668785</v>
@@ -4643,7 +4643,7 @@
         <v>39813</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05002299281885501</v>
+        <v>0.04653396482100626</v>
       </c>
       <c r="C21" t="n">
         <v>0.04814361336116346</v>
@@ -4654,7 +4654,7 @@
         <v>39903</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008518650018761439</v>
+        <v>0.009716595634361766</v>
       </c>
       <c r="C22" t="n">
         <v>0.03976102254012326</v>
@@ -4665,7 +4665,7 @@
         <v>39994</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01334338363041575</v>
+        <v>-0.01427535246032209</v>
       </c>
       <c r="C23" t="n">
         <v>0.007090102587534508</v>
@@ -4676,7 +4676,7 @@
         <v>40086</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.00547845533413524</v>
+        <v>-0.006513087905797271</v>
       </c>
       <c r="C24" t="n">
         <v>0.001393861203648372</v>
@@ -4687,7 +4687,7 @@
         <v>40178</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01912453490660146</v>
+        <v>0.02448783379604955</v>
       </c>
       <c r="C25" t="n">
         <v>0.001599346457928696</v>
@@ -4698,7 +4698,7 @@
         <v>40268</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0495316501159527</v>
+        <v>0.05289612723279469</v>
       </c>
       <c r="C26" t="n">
         <v>0.04781128927669065</v>
@@ -4709,7 +4709,7 @@
         <v>40359</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09901091421138389</v>
+        <v>0.1057519688823726</v>
       </c>
       <c r="C27" t="n">
         <v>0.04459862479549637</v>
@@ -4720,7 +4720,7 @@
         <v>40451</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08332572921615955</v>
+        <v>0.08630839650574194</v>
       </c>
       <c r="C28" t="n">
         <v>0.03741929623264539</v>
@@ -4731,7 +4731,7 @@
         <v>40543</v>
       </c>
       <c r="B29" t="n">
-        <v>0.09321210314441435</v>
+        <v>0.0965889162663613</v>
       </c>
       <c r="C29" t="n">
         <v>0.1005373107825578</v>
@@ -4742,7 +4742,7 @@
         <v>40633</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1048686724852214</v>
+        <v>0.1099753612291192</v>
       </c>
       <c r="C30" t="n">
         <v>0.1040250325821539</v>
@@ -4753,7 +4753,7 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1051283015399105</v>
+        <v>0.108398022147159</v>
       </c>
       <c r="C31" t="n">
         <v>0.1172471241764603</v>
@@ -4764,7 +4764,7 @@
         <v>40816</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09957801682135226</v>
+        <v>0.1076658959442733</v>
       </c>
       <c r="C32" t="n">
         <v>0.1303143748973115</v>
@@ -4775,7 +4775,7 @@
         <v>40908</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0992513799681418</v>
+        <v>0.104906423072088</v>
       </c>
       <c r="C33" t="n">
         <v>0.1053750901557722</v>
@@ -4786,7 +4786,7 @@
         <v>40999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07801184317723189</v>
+        <v>0.08017873061868139</v>
       </c>
       <c r="C34" t="n">
         <v>0.117553105460136</v>
@@ -4797,7 +4797,7 @@
         <v>41090</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06944131859643408</v>
+        <v>0.07250310958219243</v>
       </c>
       <c r="C35" t="n">
         <v>0.1008980431204711</v>
@@ -4808,7 +4808,7 @@
         <v>41182</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07910562504901444</v>
+        <v>0.08101402354733553</v>
       </c>
       <c r="C36" t="n">
         <v>0.09258948520281107</v>
@@ -4819,7 +4819,7 @@
         <v>41274</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0756302572003843</v>
+        <v>0.07950505664897975</v>
       </c>
       <c r="C37" t="n">
         <v>0.08147832554076229</v>
@@ -4830,7 +4830,7 @@
         <v>41364</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07389229116804483</v>
+        <v>0.07814435900003286</v>
       </c>
       <c r="C38" t="n">
         <v>0.06921214284846466</v>
@@ -4841,7 +4841,7 @@
         <v>41455</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08118220782831494</v>
+        <v>0.08316777162998247</v>
       </c>
       <c r="C39" t="n">
         <v>0.07296693385208042</v>
@@ -4852,7 +4852,7 @@
         <v>41547</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07171652576870725</v>
+        <v>0.07203151756417699</v>
       </c>
       <c r="C40" t="n">
         <v>0.08214722596540702</v>
@@ -4863,7 +4863,7 @@
         <v>41639</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07106245371040097</v>
+        <v>0.06987050252805131</v>
       </c>
       <c r="C41" t="n">
         <v>0.05569762413024004</v>
@@ -4874,7 +4874,7 @@
         <v>41729</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06324339678111411</v>
+        <v>0.06426544628578436</v>
       </c>
       <c r="C42" t="n">
         <v>0.04432014220684311</v>
@@ -4885,7 +4885,7 @@
         <v>41820</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05841736602145264</v>
+        <v>0.05864645773992085</v>
       </c>
       <c r="C43" t="n">
         <v>0.04746086483304723</v>
@@ -4896,7 +4896,7 @@
         <v>41912</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06177874269214476</v>
+        <v>0.06738202063673018</v>
       </c>
       <c r="C44" t="n">
         <v>0.05095138933717647</v>
@@ -4907,7 +4907,7 @@
         <v>42004</v>
       </c>
       <c r="B45" t="n">
-        <v>0.06210819502120898</v>
+        <v>0.06323981871054644</v>
       </c>
       <c r="C45" t="n">
         <v>0.06108673078076698</v>
@@ -4918,7 +4918,7 @@
         <v>42094</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05259861103722824</v>
+        <v>0.05637754587898543</v>
       </c>
       <c r="C46" t="n">
         <v>0.06010969731904825</v>
@@ -4929,7 +4929,7 @@
         <v>42185</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04275871621975134</v>
+        <v>0.04717274304894011</v>
       </c>
       <c r="C47" t="n">
         <v>0.05792536059548659</v>
@@ -4940,7 +4940,7 @@
         <v>42277</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05041417090666854</v>
+        <v>0.0505383558901803</v>
       </c>
       <c r="C48" t="n">
         <v>0.05649447950751441</v>
@@ -4951,7 +4951,7 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04844525380038604</v>
+        <v>0.04957399032508655</v>
       </c>
       <c r="C49" t="n">
         <v>0.05395690488061589</v>
@@ -4962,7 +4962,7 @@
         <v>42460</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04680577922775248</v>
+        <v>0.04947518843418884</v>
       </c>
       <c r="C50" t="n">
         <v>0.04941909186367677</v>
@@ -4973,7 +4973,7 @@
         <v>42551</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05869078855521311</v>
+        <v>0.05981653656902393</v>
       </c>
       <c r="C51" t="n">
         <v>0.0538668649754297</v>
@@ -4984,7 +4984,7 @@
         <v>42643</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05151657404211804</v>
+        <v>0.05350167763178</v>
       </c>
       <c r="C52" t="n">
         <v>0.04409611702756022</v>
@@ -4995,7 +4995,7 @@
         <v>42735</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04150368330179862</v>
+        <v>0.04439059706106981</v>
       </c>
       <c r="C53" t="n">
         <v>0.05420146420809835</v>
@@ -5006,7 +5006,7 @@
         <v>42825</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04683767383221362</v>
+        <v>0.04876461874264404</v>
       </c>
       <c r="C54" t="n">
         <v>0.06454295974809487</v>
@@ -5017,7 +5017,7 @@
         <v>42916</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0398927120827444</v>
+        <v>0.0420509154751066</v>
       </c>
       <c r="C55" t="n">
         <v>0.05494461601894507</v>
@@ -5028,7 +5028,7 @@
         <v>43008</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03504128640182021</v>
+        <v>0.03712666393244566</v>
       </c>
       <c r="C56" t="n">
         <v>0.05682960368247247</v>
@@ -5039,7 +5039,7 @@
         <v>43100</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03685515855756777</v>
+        <v>0.03688291678116887</v>
       </c>
       <c r="C57" t="n">
         <v>0.05033939684049682</v>
@@ -5050,7 +5050,7 @@
         <v>43190</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04677581213569558</v>
+        <v>0.04564069858980657</v>
       </c>
       <c r="C58" t="n">
         <v>0.04180750896189589</v>
@@ -5061,7 +5061,7 @@
         <v>43281</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03996756463512373</v>
+        <v>0.03866111272071516</v>
       </c>
       <c r="C59" t="n">
         <v>0.03277373749879042</v>
@@ -5072,7 +5072,7 @@
         <v>43373</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03344850358908043</v>
+        <v>0.03517069700585659</v>
       </c>
       <c r="C60" t="n">
         <v>0.03489997729615912</v>
@@ -5083,7 +5083,7 @@
         <v>43465</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04463267231245684</v>
+        <v>0.05252949013224099</v>
       </c>
       <c r="C61" t="n">
         <v>0.04155114649208591</v>
@@ -5094,7 +5094,7 @@
         <v>43555</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03816167989497823</v>
+        <v>0.04032039304851111</v>
       </c>
       <c r="C62" t="n">
         <v>0.0320333531525181</v>
@@ -5105,7 +5105,7 @@
         <v>43646</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04328459447703889</v>
+        <v>0.04395063998409575</v>
       </c>
       <c r="C63" t="n">
         <v>0.03077139582830402</v>
@@ -5116,7 +5116,7 @@
         <v>43738</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0481137557433165</v>
+        <v>0.04746510586121869</v>
       </c>
       <c r="C64" t="n">
         <v>0.03360934863362752</v>
@@ -5127,7 +5127,7 @@
         <v>43830</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0456430278120873</v>
+        <v>0.04032185123953722</v>
       </c>
       <c r="C65" t="n">
         <v>0.03762658940429842</v>
@@ -5138,7 +5138,7 @@
         <v>43921</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04533104666915589</v>
+        <v>0.04863959161555845</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>44012</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06314581940666109</v>
+        <v>0.06601404377290354</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>

--- a/resultados/baseNowcasting.xlsx
+++ b/resultados/baseNowcasting.xlsx
@@ -408,7 +408,7 @@
         <v>38077</v>
       </c>
       <c r="B2">
-        <v>0.07636838187929559</v>
+        <v>0.07991632906710275</v>
       </c>
       <c r="C2">
         <v>0.06429164903278561</v>
@@ -419,7 +419,7 @@
         <v>38168</v>
       </c>
       <c r="B3">
-        <v>0.08878728332347002</v>
+        <v>0.08583259090639282</v>
       </c>
       <c r="C3">
         <v>0.09602635442885532</v>
@@ -430,7 +430,7 @@
         <v>38260</v>
       </c>
       <c r="B4">
-        <v>0.08847885437413712</v>
+        <v>0.09001478690790564</v>
       </c>
       <c r="C4">
         <v>0.09192729066242022</v>
@@ -441,7 +441,7 @@
         <v>38352</v>
       </c>
       <c r="B5">
-        <v>0.07310270756680812</v>
+        <v>0.09245406414244761</v>
       </c>
       <c r="C5">
         <v>0.05096858277582372</v>
@@ -452,7 +452,7 @@
         <v>38442</v>
       </c>
       <c r="B6">
-        <v>0.06766086016876897</v>
+        <v>0.090119545269219</v>
       </c>
       <c r="C6">
         <v>0.07675442659763654</v>
@@ -463,7 +463,7 @@
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.06101424400313179</v>
+        <v>0.09076495821479058</v>
       </c>
       <c r="C7">
         <v>0.07732391256059823</v>
@@ -474,7 +474,7 @@
         <v>38625</v>
       </c>
       <c r="B8">
-        <v>0.06278362959532517</v>
+        <v>0.09399438924867376</v>
       </c>
       <c r="C8">
         <v>0.0732136880092753</v>
@@ -485,7 +485,7 @@
         <v>38717</v>
       </c>
       <c r="B9">
-        <v>0.07581121171525435</v>
+        <v>0.08353379367031184</v>
       </c>
       <c r="C9">
         <v>0.06122744117220935</v>
@@ -496,7 +496,7 @@
         <v>38807</v>
       </c>
       <c r="B10">
-        <v>0.09005612410056972</v>
+        <v>0.09473290800161439</v>
       </c>
       <c r="C10">
         <v>0.07608972889382093</v>
@@ -507,7 +507,7 @@
         <v>38898</v>
       </c>
       <c r="B11">
-        <v>0.09486255505134784</v>
+        <v>0.1030494653875134</v>
       </c>
       <c r="C11">
         <v>0.07649088321752751</v>
@@ -518,7 +518,7 @@
         <v>38990</v>
       </c>
       <c r="B12">
-        <v>0.08706604577287386</v>
+        <v>0.09526432712834229</v>
       </c>
       <c r="C12">
         <v>0.09306451647030323</v>
@@ -529,7 +529,7 @@
         <v>39082</v>
       </c>
       <c r="B13">
-        <v>0.08137833160639875</v>
+        <v>0.1044224297994593</v>
       </c>
       <c r="C13">
         <v>0.09447877499761792</v>
@@ -540,7 +540,7 @@
         <v>39172</v>
       </c>
       <c r="B14">
-        <v>0.07220793974752307</v>
+        <v>0.1216660002040712</v>
       </c>
       <c r="C14">
         <v>0.1277279351839498</v>
@@ -551,7 +551,7 @@
         <v>39263</v>
       </c>
       <c r="B15">
-        <v>0.0788184054933715</v>
+        <v>0.1149430829105127</v>
       </c>
       <c r="C15">
         <v>0.1329433650920031</v>
@@ -562,7 +562,7 @@
         <v>39355</v>
       </c>
       <c r="B16">
-        <v>0.08301540734261453</v>
+        <v>0.1262883238458706</v>
       </c>
       <c r="C16">
         <v>0.1543767827907712</v>
@@ -573,7 +573,7 @@
         <v>39447</v>
       </c>
       <c r="B17">
-        <v>0.09298722052525141</v>
+        <v>0.1513069728904679</v>
       </c>
       <c r="C17">
         <v>0.1804262041212188</v>
@@ -584,7 +584,7 @@
         <v>39538</v>
       </c>
       <c r="B18">
-        <v>0.094192777150236</v>
+        <v>0.1186468750176931</v>
       </c>
       <c r="C18">
         <v>0.1236656291559666</v>
@@ -595,7 +595,7 @@
         <v>39629</v>
       </c>
       <c r="B19">
-        <v>0.09741875295144618</v>
+        <v>0.1148390562677826</v>
       </c>
       <c r="C19">
         <v>0.1356947311687779</v>
@@ -606,7 +606,7 @@
         <v>39721</v>
       </c>
       <c r="B20">
-        <v>0.09299545952697476</v>
+        <v>0.0962797678850543</v>
       </c>
       <c r="C20">
         <v>0.0938783580668785</v>
@@ -617,7 +617,7 @@
         <v>39813</v>
       </c>
       <c r="B21">
-        <v>0.08254042219118557</v>
+        <v>0.04670314822728413</v>
       </c>
       <c r="C21">
         <v>0.04814361336116346</v>
@@ -628,7 +628,7 @@
         <v>39903</v>
       </c>
       <c r="B22">
-        <v>0.0764908274784088</v>
+        <v>0.009814865126629151</v>
       </c>
       <c r="C22">
         <v>0.03976102254012326</v>
@@ -639,7 +639,7 @@
         <v>39994</v>
       </c>
       <c r="B23">
-        <v>0.04854965710422846</v>
+        <v>-0.01413824172340508</v>
       </c>
       <c r="C23">
         <v>0.007090102587534508</v>
@@ -650,7 +650,7 @@
         <v>40086</v>
       </c>
       <c r="B24">
-        <v>0.04402204295130299</v>
+        <v>-0.006385110400696586</v>
       </c>
       <c r="C24">
         <v>0.001393861203648372</v>
@@ -661,7 +661,7 @@
         <v>40178</v>
       </c>
       <c r="B25">
-        <v>0.0419700320901176</v>
+        <v>0.02434984902388764</v>
       </c>
       <c r="C25">
         <v>0.001599346457928696</v>
@@ -672,7 +672,7 @@
         <v>40268</v>
       </c>
       <c r="B26">
-        <v>0.04096611643981712</v>
+        <v>0.05280032618901209</v>
       </c>
       <c r="C26">
         <v>0.04781128927669065</v>
@@ -683,7 +683,7 @@
         <v>40359</v>
       </c>
       <c r="B27">
-        <v>0.0560808184865083</v>
+        <v>0.1056506034437101</v>
       </c>
       <c r="C27">
         <v>0.04459862479549637</v>
@@ -694,7 +694,7 @@
         <v>40451</v>
       </c>
       <c r="B28">
-        <v>0.05993338785332289</v>
+        <v>0.0863178082098196</v>
       </c>
       <c r="C28">
         <v>0.03741929623264539</v>
@@ -705,7 +705,7 @@
         <v>40543</v>
       </c>
       <c r="B29">
-        <v>0.06286841229231019</v>
+        <v>0.09668111025139606</v>
       </c>
       <c r="C29">
         <v>0.1005373107825578</v>
@@ -716,7 +716,7 @@
         <v>40633</v>
       </c>
       <c r="B30">
-        <v>0.07517192655514549</v>
+        <v>0.1099111343281571</v>
       </c>
       <c r="C30">
         <v>0.1040250325821539</v>
@@ -727,7 +727,7 @@
         <v>40724</v>
       </c>
       <c r="B31">
-        <v>0.07661839640921242</v>
+        <v>0.1084072280517972</v>
       </c>
       <c r="C31">
         <v>0.1172471241764603</v>
@@ -738,7 +738,7 @@
         <v>40816</v>
       </c>
       <c r="B32">
-        <v>0.07684394576908443</v>
+        <v>0.1075458345157079</v>
       </c>
       <c r="C32">
         <v>0.1303143748973115</v>
@@ -749,7 +749,7 @@
         <v>40908</v>
       </c>
       <c r="B33">
-        <v>0.08277043560105324</v>
+        <v>0.10486809950207</v>
       </c>
       <c r="C33">
         <v>0.1053750901557722</v>
@@ -760,7 +760,7 @@
         <v>40999</v>
       </c>
       <c r="B34">
-        <v>0.116077368626784</v>
+        <v>0.08028198775373203</v>
       </c>
       <c r="C34">
         <v>0.117553105460136</v>
@@ -771,7 +771,7 @@
         <v>41090</v>
       </c>
       <c r="B35">
-        <v>0.1253393343805815</v>
+        <v>0.07265165883213646</v>
       </c>
       <c r="C35">
         <v>0.1008980431204711</v>
@@ -782,7 +782,7 @@
         <v>41182</v>
       </c>
       <c r="B36">
-        <v>0.137452860085515</v>
+        <v>0.08114681526988315</v>
       </c>
       <c r="C36">
         <v>0.09258948520281107</v>
@@ -793,7 +793,7 @@
         <v>41274</v>
       </c>
       <c r="B37">
-        <v>0.1312878871698469</v>
+        <v>0.07957611233339773</v>
       </c>
       <c r="C37">
         <v>0.08147832554076229</v>
@@ -804,7 +804,7 @@
         <v>41364</v>
       </c>
       <c r="B38">
-        <v>0.09272581402573182</v>
+        <v>0.07816852892029662</v>
       </c>
       <c r="C38">
         <v>0.06921214284846466</v>
@@ -815,7 +815,7 @@
         <v>41455</v>
       </c>
       <c r="B39">
-        <v>0.08656564175188819</v>
+        <v>0.08330183205644204</v>
       </c>
       <c r="C39">
         <v>0.07296693385208042</v>
@@ -826,7 +826,7 @@
         <v>41547</v>
       </c>
       <c r="B40">
-        <v>0.07349429180258459</v>
+        <v>0.07229677245701985</v>
       </c>
       <c r="C40">
         <v>0.08214722596540702</v>
@@ -837,7 +837,7 @@
         <v>41639</v>
       </c>
       <c r="B41">
-        <v>0.07202187679749146</v>
+        <v>0.07010769919156987</v>
       </c>
       <c r="C41">
         <v>0.05569762413024004</v>
@@ -848,7 +848,7 @@
         <v>41729</v>
       </c>
       <c r="B42">
-        <v>0.04159078352390851</v>
+        <v>0.06443753774438191</v>
       </c>
       <c r="C42">
         <v>0.04432014220684311</v>
@@ -859,7 +859,7 @@
         <v>41820</v>
       </c>
       <c r="B43">
-        <v>0.03429812867117924</v>
+        <v>0.05875094241898614</v>
       </c>
       <c r="C43">
         <v>0.04746086483304723</v>
@@ -870,7 +870,7 @@
         <v>41912</v>
       </c>
       <c r="B44">
-        <v>0.04495284533311261</v>
+        <v>0.06730275097348393</v>
       </c>
       <c r="C44">
         <v>0.05095138933717647</v>
@@ -881,7 +881,7 @@
         <v>42004</v>
       </c>
       <c r="B45">
-        <v>0.04031170751678848</v>
+        <v>0.06335517640608429</v>
       </c>
       <c r="C45">
         <v>0.06108673078076698</v>
@@ -892,7 +892,7 @@
         <v>42094</v>
       </c>
       <c r="B46">
-        <v>0.06058903913887688</v>
+        <v>0.05643440027403469</v>
       </c>
       <c r="C46">
         <v>0.06010969731904825</v>
@@ -903,7 +903,7 @@
         <v>42185</v>
       </c>
       <c r="B47">
-        <v>0.0581783371811628</v>
+        <v>0.0472292215602475</v>
       </c>
       <c r="C47">
         <v>0.05792536059548659</v>
@@ -914,7 +914,7 @@
         <v>42277</v>
       </c>
       <c r="B48">
-        <v>0.04344544910209377</v>
+        <v>0.05073566987530648</v>
       </c>
       <c r="C48">
         <v>0.05649447950751441</v>
@@ -925,7 +925,7 @@
         <v>42369</v>
       </c>
       <c r="B49">
-        <v>0.04408822416081241</v>
+        <v>0.04975850400883471</v>
       </c>
       <c r="C49">
         <v>0.05395690488061589</v>
@@ -936,7 +936,7 @@
         <v>42460</v>
       </c>
       <c r="B50">
-        <v>0.04687775310511045</v>
+        <v>0.04961268088146563</v>
       </c>
       <c r="C50">
         <v>0.04941909186367677</v>
@@ -947,7 +947,7 @@
         <v>42551</v>
       </c>
       <c r="B51">
-        <v>0.05762195087792139</v>
+        <v>0.05996849988853785</v>
       </c>
       <c r="C51">
         <v>0.0538668649754297</v>
@@ -958,7 +958,7 @@
         <v>42643</v>
       </c>
       <c r="B52">
-        <v>0.05950966502824204</v>
+        <v>0.05361509982734039</v>
       </c>
       <c r="C52">
         <v>0.04409611702756022</v>
@@ -969,7 +969,7 @@
         <v>42735</v>
       </c>
       <c r="B53">
-        <v>0.06724821606821688</v>
+        <v>0.04439375328310971</v>
       </c>
       <c r="C53">
         <v>0.05420146420809835</v>
@@ -980,7 +980,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>0.06476970947362864</v>
+        <v>0.0487350628963925</v>
       </c>
       <c r="C54">
         <v>0.06454295974809487</v>
@@ -991,7 +991,7 @@
         <v>42916</v>
       </c>
       <c r="B55">
-        <v>0.06010191005864242</v>
+        <v>0.04204673164178577</v>
       </c>
       <c r="C55">
         <v>0.05494461601894507</v>
@@ -1002,7 +1002,7 @@
         <v>43008</v>
       </c>
       <c r="B56">
-        <v>0.06155004098219875</v>
+        <v>0.03706919172937237</v>
       </c>
       <c r="C56">
         <v>0.05682960368247247</v>
@@ -1013,7 +1013,7 @@
         <v>43100</v>
       </c>
       <c r="B57">
-        <v>0.06423735505294764</v>
+        <v>0.03686587505342854</v>
       </c>
       <c r="C57">
         <v>0.05033939684049682</v>
@@ -1024,7 +1024,7 @@
         <v>43190</v>
       </c>
       <c r="B58">
-        <v>0.05656287135876047</v>
+        <v>0.04570073032921285</v>
       </c>
       <c r="C58">
         <v>0.04180750896189589</v>
@@ -1035,7 +1035,7 @@
         <v>43281</v>
       </c>
       <c r="B59">
-        <v>0.03526004551925394</v>
+        <v>0.03871103672877534</v>
       </c>
       <c r="C59">
         <v>0.03277373749879042</v>
@@ -1046,7 +1046,7 @@
         <v>43373</v>
       </c>
       <c r="B60">
-        <v>0.05164777057529411</v>
+        <v>0.03512874659909815</v>
       </c>
       <c r="C60">
         <v>0.03489997729615912</v>
@@ -1057,7 +1057,7 @@
         <v>43465</v>
       </c>
       <c r="B61">
-        <v>0.04930307557252551</v>
+        <v>0.05233217574475178</v>
       </c>
       <c r="C61">
         <v>0.04155114649208591</v>
@@ -1068,7 +1068,7 @@
         <v>43555</v>
       </c>
       <c r="B62">
-        <v>0.04965202603779174</v>
+        <v>0.0403033166750035</v>
       </c>
       <c r="C62">
         <v>0.0320333531525181</v>
@@ -1079,7 +1079,7 @@
         <v>43646</v>
       </c>
       <c r="B63">
-        <v>0.07999847560417211</v>
+        <v>0.04400645304999563</v>
       </c>
       <c r="C63">
         <v>0.03077139582830402</v>
@@ -1090,7 +1090,7 @@
         <v>43738</v>
       </c>
       <c r="B64">
-        <v>0.04750932113570577</v>
+        <v>0.04760229274987001</v>
       </c>
       <c r="C64">
         <v>0.03360934863362752</v>
@@ -1101,7 +1101,7 @@
         <v>43830</v>
       </c>
       <c r="B65">
-        <v>0.04543242897466375</v>
+        <v>0.03902121708905519</v>
       </c>
       <c r="C65">
         <v>0.03762658940429842</v>
@@ -1112,7 +1112,7 @@
         <v>43921</v>
       </c>
       <c r="B66">
-        <v>0.04022232804052307</v>
+        <v>0.01903491576483173</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>44012</v>
       </c>
       <c r="B67">
-        <v>0.0187721550874415</v>
+        <v>-0.05044042423281458</v>
       </c>
       <c r="C67">
         <v>0</v>

--- a/resultados/baseNowcasting.xlsx
+++ b/resultados/baseNowcasting.xlsx
@@ -1114,9 +1114,6 @@
       <c r="B66">
         <v>0.01903491576483173</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
@@ -1124,9 +1121,6 @@
       </c>
       <c r="B67">
         <v>-0.05044042423281458</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/baseNowcasting.xlsx
+++ b/resultados/baseNowcasting.xlsx
@@ -7,16 +7,41 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trimestral" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Proyeccion</t>
+  </si>
+  <si>
+    <t>pbif_Trimestre_VariacionAnual</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +65,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +386,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>38077</v>
+      </c>
+      <c r="B2">
+        <v>0.07991632906710275</v>
+      </c>
+      <c r="C2">
+        <v>0.06429164903278561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>38168</v>
+      </c>
+      <c r="B3">
+        <v>0.08583259090639282</v>
+      </c>
+      <c r="C3">
+        <v>0.09602635442885532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>38260</v>
+      </c>
+      <c r="B4">
+        <v>0.09001478690790564</v>
+      </c>
+      <c r="C4">
+        <v>0.09192729066242022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>38352</v>
+      </c>
+      <c r="B5">
+        <v>0.09245406414244761</v>
+      </c>
+      <c r="C5">
+        <v>0.05096858277582372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>38442</v>
+      </c>
+      <c r="B6">
+        <v>0.090119545269219</v>
+      </c>
+      <c r="C6">
+        <v>0.07675442659763654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>38533</v>
+      </c>
+      <c r="B7">
+        <v>0.09076495821479058</v>
+      </c>
+      <c r="C7">
+        <v>0.07732391256059823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>38625</v>
+      </c>
+      <c r="B8">
+        <v>0.09399438924867376</v>
+      </c>
+      <c r="C8">
+        <v>0.0732136880092753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>38717</v>
+      </c>
+      <c r="B9">
+        <v>0.08353379367031184</v>
+      </c>
+      <c r="C9">
+        <v>0.06122744117220935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>38807</v>
+      </c>
+      <c r="B10">
+        <v>0.09473290800161439</v>
+      </c>
+      <c r="C10">
+        <v>0.07608972889382093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>38898</v>
+      </c>
+      <c r="B11">
+        <v>0.1030494653875134</v>
+      </c>
+      <c r="C11">
+        <v>0.07649088321752751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>38990</v>
+      </c>
+      <c r="B12">
+        <v>0.09526432712834229</v>
+      </c>
+      <c r="C12">
+        <v>0.09306451647030323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>39082</v>
+      </c>
+      <c r="B13">
+        <v>0.1044224297994593</v>
+      </c>
+      <c r="C13">
+        <v>0.09447877499761792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>39172</v>
+      </c>
+      <c r="B14">
+        <v>0.1216660002040712</v>
+      </c>
+      <c r="C14">
+        <v>0.1277279351839498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>39263</v>
+      </c>
+      <c r="B15">
+        <v>0.1149430829105127</v>
+      </c>
+      <c r="C15">
+        <v>0.1329433650920031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>39355</v>
+      </c>
+      <c r="B16">
+        <v>0.1262883238458706</v>
+      </c>
+      <c r="C16">
+        <v>0.1543767827907712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>39447</v>
+      </c>
+      <c r="B17">
+        <v>0.1513069728904679</v>
+      </c>
+      <c r="C17">
+        <v>0.1804262041212188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>39538</v>
+      </c>
+      <c r="B18">
+        <v>0.1186468750176931</v>
+      </c>
+      <c r="C18">
+        <v>0.1236656291559666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>39629</v>
+      </c>
+      <c r="B19">
+        <v>0.1148390562677826</v>
+      </c>
+      <c r="C19">
+        <v>0.1356947311687779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>39721</v>
+      </c>
+      <c r="B20">
+        <v>0.0962797678850543</v>
+      </c>
+      <c r="C20">
+        <v>0.0938783580668785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>39813</v>
+      </c>
+      <c r="B21">
+        <v>0.04670314822728413</v>
+      </c>
+      <c r="C21">
+        <v>0.04814361336116346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>39903</v>
+      </c>
+      <c r="B22">
+        <v>0.009814865126629151</v>
+      </c>
+      <c r="C22">
+        <v>0.03976102254012326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>39994</v>
+      </c>
+      <c r="B23">
+        <v>-0.01413824172340508</v>
+      </c>
+      <c r="C23">
+        <v>0.007090102587534508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>40086</v>
+      </c>
+      <c r="B24">
+        <v>-0.006385110400696586</v>
+      </c>
+      <c r="C24">
+        <v>0.001393861203648372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>40178</v>
+      </c>
+      <c r="B25">
+        <v>0.02434984902388764</v>
+      </c>
+      <c r="C25">
+        <v>0.001599346457928696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>40268</v>
+      </c>
+      <c r="B26">
+        <v>0.05280032618901209</v>
+      </c>
+      <c r="C26">
+        <v>0.04781128927669065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>40359</v>
+      </c>
+      <c r="B27">
+        <v>0.1056506034437101</v>
+      </c>
+      <c r="C27">
+        <v>0.04459862479549637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>40451</v>
+      </c>
+      <c r="B28">
+        <v>0.0863178082098196</v>
+      </c>
+      <c r="C28">
+        <v>0.03741929623264539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>40543</v>
+      </c>
+      <c r="B29">
+        <v>0.09668111025139606</v>
+      </c>
+      <c r="C29">
+        <v>0.1005373107825578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>40633</v>
+      </c>
+      <c r="B30">
+        <v>0.1099111343281571</v>
+      </c>
+      <c r="C30">
+        <v>0.1040250325821539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>40724</v>
+      </c>
+      <c r="B31">
+        <v>0.1084072280517972</v>
+      </c>
+      <c r="C31">
+        <v>0.1172471241764603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>40816</v>
+      </c>
+      <c r="B32">
+        <v>0.1075458345157079</v>
+      </c>
+      <c r="C32">
+        <v>0.1303143748973115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>40908</v>
+      </c>
+      <c r="B33">
+        <v>0.10486809950207</v>
+      </c>
+      <c r="C33">
+        <v>0.1053750901557722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>40999</v>
+      </c>
+      <c r="B34">
+        <v>0.08028198775373203</v>
+      </c>
+      <c r="C34">
+        <v>0.117553105460136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>41090</v>
+      </c>
+      <c r="B35">
+        <v>0.07265165883213646</v>
+      </c>
+      <c r="C35">
+        <v>0.1008980431204711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>41182</v>
+      </c>
+      <c r="B36">
+        <v>0.08114681526988315</v>
+      </c>
+      <c r="C36">
+        <v>0.09258948520281107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B37">
+        <v>0.07957611233339773</v>
+      </c>
+      <c r="C37">
+        <v>0.08147832554076229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B38">
+        <v>0.07816852892029662</v>
+      </c>
+      <c r="C38">
+        <v>0.06921214284846466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>41455</v>
+      </c>
+      <c r="B39">
+        <v>0.08330183205644204</v>
+      </c>
+      <c r="C39">
+        <v>0.07296693385208042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B40">
+        <v>0.07229677245701985</v>
+      </c>
+      <c r="C40">
+        <v>0.08214722596540702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B41">
+        <v>0.07010769919156987</v>
+      </c>
+      <c r="C41">
+        <v>0.05569762413024004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B42">
+        <v>0.06443753774438191</v>
+      </c>
+      <c r="C42">
+        <v>0.04432014220684311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B43">
+        <v>0.05875094241898614</v>
+      </c>
+      <c r="C43">
+        <v>0.04746086483304723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B44">
+        <v>0.06730275097348393</v>
+      </c>
+      <c r="C44">
+        <v>0.05095138933717647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B45">
+        <v>0.06335517640608429</v>
+      </c>
+      <c r="C45">
+        <v>0.06108673078076698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B46">
+        <v>0.05643440027403469</v>
+      </c>
+      <c r="C46">
+        <v>0.06010969731904825</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B47">
+        <v>0.0472292215602475</v>
+      </c>
+      <c r="C47">
+        <v>0.05792536059548659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B48">
+        <v>0.05073566987530648</v>
+      </c>
+      <c r="C48">
+        <v>0.05649447950751441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B49">
+        <v>0.04975850400883471</v>
+      </c>
+      <c r="C49">
+        <v>0.05395690488061589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B50">
+        <v>0.04961268088146563</v>
+      </c>
+      <c r="C50">
+        <v>0.04941909186367677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B51">
+        <v>0.05996849988853785</v>
+      </c>
+      <c r="C51">
+        <v>0.0538668649754297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B52">
+        <v>0.05361509982734039</v>
+      </c>
+      <c r="C52">
+        <v>0.04409611702756022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B53">
+        <v>0.04439375328310971</v>
+      </c>
+      <c r="C53">
+        <v>0.05420146420809835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B54">
+        <v>0.0487350628963925</v>
+      </c>
+      <c r="C54">
+        <v>0.06454295974809487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B55">
+        <v>0.04204673164178577</v>
+      </c>
+      <c r="C55">
+        <v>0.05494461601894507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B56">
+        <v>0.03706919172937237</v>
+      </c>
+      <c r="C56">
+        <v>0.05682960368247247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B57">
+        <v>0.03686587505342854</v>
+      </c>
+      <c r="C57">
+        <v>0.05033939684049682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B58">
+        <v>0.04570073032921285</v>
+      </c>
+      <c r="C58">
+        <v>0.04180750896189589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B59">
+        <v>0.03871103672877534</v>
+      </c>
+      <c r="C59">
+        <v>0.03277373749879042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B60">
+        <v>0.03512874659909815</v>
+      </c>
+      <c r="C60">
+        <v>0.03489997729615912</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B61">
+        <v>0.05233217574475178</v>
+      </c>
+      <c r="C61">
+        <v>0.04155114649208591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B62">
+        <v>0.0403033166750035</v>
+      </c>
+      <c r="C62">
+        <v>0.0320333531525181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B63">
+        <v>0.04400645304999563</v>
+      </c>
+      <c r="C63">
+        <v>0.03077139582830402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B64">
+        <v>0.04760229274987001</v>
+      </c>
+      <c r="C64">
+        <v>0.03360934863362752</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B65">
+        <v>0.03902121708905519</v>
+      </c>
+      <c r="C65">
+        <v>0.03762658940429842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B66">
+        <v>0.01903491576483173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B67">
+        <v>-0.05044042423281458</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>